--- a/foodtable/1.xlsx
+++ b/foodtable/1.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2. 복리후생\2017년\3. 식당\2020년 식단표\0316\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2. 복리후생\2017년\3. 식당\2020년 식단표\0323\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="75" windowWidth="27975" windowHeight="12495"/>
   </bookViews>
   <sheets>
-    <sheet name="3.16학생식당 " sheetId="2" r:id="rId1"/>
-    <sheet name="3.16학생식당 - 영문" sheetId="1" r:id="rId2"/>
+    <sheet name="3.23학생식당 " sheetId="2" r:id="rId1"/>
+    <sheet name="3.23학생식당 - 영문" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="Excel_BuiltIn__FilterDatabase_1_1" localSheetId="0">#REF!</definedName>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="173">
   <si>
     <t xml:space="preserve">   weekly menu</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -193,10 +193,6 @@
   <si>
     <t>중식-4000
 (정식)</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>백미밥</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
@@ -283,10 +279,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>polished rice</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>일품-4500</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -295,252 +287,13 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Jasai Chae</t>
-  </si>
-  <si>
     <t>Udon Jangguk/kimchi/extra dinner</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>aqua pork curtlet</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>Seasoned Bean Sprouts</t>
   </si>
   <si>
-    <t>밀푀유나베</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>차돌짬뽕&amp;요구르트</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>부대찌개&amp;라면사리</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>순두부찌개정식</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>스페셜오므라이스</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>삼겹강된장비빔밥</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>청양크림함박스테이크&amp;스프&amp;샐러드</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>보쌈정식</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>토마토치즈제육덮밥&amp;음료</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>*봄나물비빔밥*</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>순두부김치국</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>계란부추국</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>감자수제비국</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>파육개장</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>우불볶음우동</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>마파두부</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>크림브륄레모닝빵</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>콩나물불고기</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>찐만두&amp;양념장</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>양념어묵</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>수제야채튀김</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>김가루부추무침</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>쥐어채조림</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>새송이호박볶음</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>마늘쫑알마늘무침</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>짜사이채무침</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>포기김치</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>다시마쌈&amp;초장</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>아삭고추된장무침</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>*팟시금치무쌉*</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>냉이된장국</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>소고기미역국</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>어묵무국</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>유부쑥갓국</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>얼큰북어국</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>조랭이떡오징어볶음</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>숙주돈불고기</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>해물까스&amp;머스타드</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>크림새우</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>빨간찜닭</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>순대강정</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>실곤약야채무침</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>짬뽕누들떡볶이</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>계란후라이</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>우엉채조림</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>시금치나물</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>참나물무생채</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>콩나물무침</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>무말랭이</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>철판닭갈비</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020.03.16</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">iron plate Spicy Stir-fried Chicken </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Special omelette</t>
-  </si>
-  <si>
-    <t>Stir-fried udon with beef bulgogi</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>seasoned fish cake</t>
-  </si>
-  <si>
-    <t>garlic spruce garlic meringue</t>
-  </si>
-  <si>
-    <t>Soybean Paste Soup with Shepherd's Purse</t>
-  </si>
-  <si>
-    <t>Stir-fried Squid with rice cake</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>fried Korean Sausage</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Seasoned Spinach</t>
   </si>
   <si>
@@ -548,140 +301,7 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>Mille-feuille nabe</t>
-  </si>
-  <si>
-    <t>Samgyeopsal and Soybean Paste Sauce with bibimbab</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>egg soup</t>
-  </si>
-  <si>
-    <t>Mapa Tofu</t>
-  </si>
-  <si>
-    <t>fried handmade vegetables</t>
-  </si>
-  <si>
-    <t>Beef Seaweed Soup</t>
-  </si>
-  <si>
-    <t>mung-bean sprouts bulgogi</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>String konjac jelly with Seasoned Vegetable</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>green vegetables</t>
-  </si>
-  <si>
-    <t>beef brisket jjamppong&amp;yogurt</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hot Pepper cream hamburger steak</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Spring vegetable bibimbap</t>
-  </si>
-  <si>
-    <t>Beef cheonggukjang stew</t>
-  </si>
-  <si>
-    <t>소고기청국장찌개</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>creme brulee bread</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>seasoned dried seaweed flakes</t>
-  </si>
-  <si>
-    <t>Fish cake soup</t>
-  </si>
-  <si>
-    <t>Seafood cutlet&amp;mustard sauce</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">jjamppong nuddle Stir-fried Rice Cake </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Set Menu of Napa Wraps with Pork</t>
-  </si>
-  <si>
-    <t>potato sujebi soup</t>
-  </si>
-  <si>
-    <t>Bean sprout bulgogi</t>
-  </si>
-  <si>
-    <t>wring and squeezing</t>
-  </si>
-  <si>
-    <t>Pod spinach-chimutjap</t>
-  </si>
-  <si>
-    <t>Yufu mugwort soup</t>
-  </si>
-  <si>
-    <t>Sausage Stew</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Udon Jangguk/kimchi/extra dinner</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">kimchi </t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>cream shirimp</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>fried egg</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Set Menu with Soft Tofu Stew</t>
-  </si>
-  <si>
-    <t>Rice with tomato cheese and pork on toppings</t>
-  </si>
-  <si>
-    <t>hot spicy meat stew</t>
-  </si>
-  <si>
-    <t>a steamed dumpling</t>
-  </si>
-  <si>
-    <t>Stir-fried mushroom and pumpkin</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>red pepper paste mix</t>
-  </si>
-  <si>
-    <t>spicy dried pollack soup</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Braised Spicy Chicken with Vegetables</t>
-  </si>
-  <si>
-    <t>Braised burdock</t>
-  </si>
-  <si>
-    <t>dried slices of daikon</t>
   </si>
   <si>
     <t>Hamburger Steak&amp;salsd</t>
@@ -692,44 +312,373 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Soft Tofu Kimchi Soup</t>
+    <t>2020.03.23</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.03.24</t>
+  </si>
+  <si>
+    <t>2020.03.25</t>
+  </si>
+  <si>
+    <t>2020.03.26</t>
+  </si>
+  <si>
+    <t>2020.03.27</t>
+  </si>
+  <si>
+    <t>기사식당불백&amp;모듬쌈</t>
+  </si>
+  <si>
+    <t>와촌돼지찌개/파,마늘,당면</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>대패삼겸김치볶음밥&amp;소시지,계란</t>
+  </si>
+  <si>
+    <t>뚝배기날치알밥(김치많이/밥에간)</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>돈까스김치나베</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>치킨텐더카레</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>불고기필라프&amp;핫도그</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>컵치킨&amp;무알콜맥주,치킨무</t>
+  </si>
+  <si>
+    <t>수제돈까스쟁반국수/수제</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>백미밥</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>백미밥</t>
+  </si>
+  <si>
+    <t>*순대국밥*/검정</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>근대된장국</t>
+  </si>
+  <si>
+    <t>왕만두떡국/검정</t>
+  </si>
+  <si>
+    <t>들깨미역국</t>
+  </si>
+  <si>
+    <t>콩가루냉이국</t>
+  </si>
+  <si>
+    <t>순대야채볶음</t>
+  </si>
+  <si>
+    <t>치즈뼈닭갈비</t>
+  </si>
+  <si>
+    <t>두부무조림</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>모듬강정</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>소세지야채볶음</t>
+  </si>
+  <si>
+    <t>잔멸치꽈초볶음</t>
+  </si>
+  <si>
+    <t>비빔막국수</t>
+  </si>
+  <si>
+    <t>부추겉절이</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>매콤감자조림</t>
+  </si>
+  <si>
+    <t>콩나물무침</t>
+  </si>
+  <si>
+    <t>상추겉절이</t>
+  </si>
+  <si>
+    <t>깍두기</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>미나리무생채</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>포기김치</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>*차돌된장찌개*</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>*마늘쫑볶음밥*</t>
+  </si>
+  <si>
+    <t>*달걀볶음밥*</t>
+  </si>
+  <si>
+    <t>열무된장국</t>
+  </si>
+  <si>
+    <t>들깨감자국</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>유부장국</t>
+  </si>
+  <si>
+    <t>고등어데리구이</t>
+  </si>
+  <si>
+    <t>맛쵸킹탕수육</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>오꼬노미계란말이</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>청양풍제육불고기</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>짜장소스</t>
+  </si>
+  <si>
+    <t>청포묵김가루무침</t>
+  </si>
+  <si>
+    <t>양상추샐러드</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>후랑크케첩볶음</t>
+  </si>
+  <si>
+    <t>연근유자청조림</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>비빔만두</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>시금치나물</t>
+  </si>
+  <si>
+    <t>김가루부추무침</t>
+  </si>
+  <si>
+    <t>참나물들깨무침</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>돈등뼈간장찜</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>돈목살김치찌개</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>포기김치</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>Korean Set Menu with Bulgogi</t>
+  </si>
+  <si>
+    <t>Chicken tender curry</t>
+  </si>
+  <si>
+    <t>Geundae-doenjang-guk</t>
+  </si>
+  <si>
+    <t>braised pork backbone soy sauce</t>
+  </si>
+  <si>
+    <t>Stir-fried sausage and vegetables</t>
+  </si>
+  <si>
+    <t>Soybean Paste Stew with Beef Brisket</t>
+  </si>
+  <si>
+    <t>grilled mackerel</t>
+  </si>
+  <si>
+    <t>Seasoned Mung Bean Jelly Salad</t>
+  </si>
+  <si>
+    <t>Wachon pork stew</t>
+  </si>
+  <si>
+    <t>king dumpling rice cake soup</t>
+  </si>
+  <si>
+    <t>Stir-fried Soondae and Vegetables</t>
+  </si>
+  <si>
+    <t>Stir-fried Baby Anchovies</t>
+  </si>
+  <si>
+    <t>오이양파무침</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>seasoned cucumber onion</t>
+  </si>
+  <si>
+    <t>garlic stem fried rice</t>
+  </si>
+  <si>
+    <t>Yeolmu bean paste soup</t>
+  </si>
+  <si>
+    <t>Matchow-king tangsuyuk</t>
+  </si>
+  <si>
+    <t>Bulgogi pilaf&amp;hotdog</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>kelp wrap</t>
+    <t>aqua pork curtlet</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>Udon Jangguk/kimchi/extra dinner</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">kimchi </t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>vegetable salad</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>2020.03.17</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020.03.18</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020.03.19</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020.03.20</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020.03.17</t>
+    <t>Samgyeopsal kimchi fried rice</t>
+  </si>
+  <si>
+    <t>Cup Chicken&amp;nonalcoholic beer</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>2020.03.18</t>
+    <t>perilla seed seaweed soup</t>
+  </si>
+  <si>
+    <t>Stir-fried Chicken with Cheese</t>
+  </si>
+  <si>
+    <t>Spicy Buckwheat Noodles</t>
+  </si>
+  <si>
+    <t>a lettuce wrapper</t>
+  </si>
+  <si>
+    <t>Pork kimchi stew</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>2020.03.19</t>
+    <t>an okonomi egg roll</t>
+  </si>
+  <si>
+    <t>Fried ketchup with sausage</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>2020.03.20</t>
+    <t>Ttukbaegi-nalchi-albap</t>
+  </si>
+  <si>
+    <t>pork cutlet plate noodles</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Soondae gukbap</t>
+  </si>
+  <si>
+    <t>braised tofu</t>
+  </si>
+  <si>
+    <t>chives and leeks</t>
+  </si>
+  <si>
+    <t>Diced Radish Kimchi</t>
+  </si>
+  <si>
+    <t>perilla potato soup</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>spicy pork bulgogi</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>braised lotus root citron syrup</t>
+  </si>
+  <si>
+    <t>Sliced sesame sauce</t>
+  </si>
+  <si>
+    <t>pork cutlet kimchi nabe</t>
+  </si>
+  <si>
+    <t>Grilled rice with salt pork</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>소금구이덮밥</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>shepherd's purse soup</t>
+  </si>
+  <si>
+    <t>assorted gangjeong</t>
+  </si>
+  <si>
+    <t>Braised Spicy Potato</t>
+  </si>
+  <si>
+    <t>Minari radish salad</t>
+  </si>
+  <si>
+    <t>fried egg rice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fried tofu  jangguk </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Black bean sauce</t>
+  </si>
+  <si>
+    <t>Fried Dumplings with Vegetables in Spicy Sauce</t>
   </si>
 </sst>
 </file>
@@ -1440,19 +1389,6 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="medium">
@@ -1467,17 +1403,6 @@
         <color rgb="FF000000"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
         <color rgb="FF000000"/>
       </right>
       <top/>
@@ -1488,46 +1413,46 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="medium">
         <color rgb="FF000000"/>
@@ -1540,22 +1465,9 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
       <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
@@ -1563,19 +1475,6 @@
       </top>
       <bottom style="medium">
         <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1592,6 +1491,52 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1605,7 +1550,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1660,12 +1605,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1687,9 +1626,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1783,61 +1719,52 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1852,34 +1779,76 @@
     <xf numFmtId="0" fontId="10" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2565,7 +2534,7 @@
   <dimension ref="A1:L52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29:G29"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -2582,41 +2551,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="107" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A2" s="99"/>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
+      <c r="A2" s="107"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A3" s="99"/>
-      <c r="B3" s="99"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
+      <c r="A3" s="107"/>
+      <c r="B3" s="107"/>
+      <c r="C3" s="107"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="107"/>
+      <c r="F3" s="107"/>
+      <c r="G3" s="107"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -2628,10 +2597,10 @@
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
-      <c r="F4" s="100" t="s">
+      <c r="F4" s="108" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="101"/>
+      <c r="G4" s="109"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -2639,92 +2608,92 @@
     </row>
     <row r="5" spans="1:12" ht="16.5" customHeight="1">
       <c r="A5" s="4"/>
-      <c r="B5" s="102" t="s">
+      <c r="B5" s="110" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="48" t="s">
+      <c r="C5" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="48" t="s">
+      <c r="D5" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="48" t="s">
+      <c r="E5" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="48" t="s">
+      <c r="F5" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="48" t="s">
+      <c r="G5" s="45" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="18" customHeight="1" thickBot="1">
       <c r="A6" s="4"/>
-      <c r="B6" s="103"/>
-      <c r="C6" s="49" t="s">
-        <v>113</v>
-      </c>
-      <c r="D6" s="49" t="s">
-        <v>168</v>
-      </c>
-      <c r="E6" s="49" t="s">
-        <v>169</v>
-      </c>
-      <c r="F6" s="49" t="s">
-        <v>170</v>
-      </c>
-      <c r="G6" s="49" t="s">
-        <v>171</v>
+      <c r="B6" s="111"/>
+      <c r="C6" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="46" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="F6" s="46" t="s">
+        <v>67</v>
+      </c>
+      <c r="G6" s="46" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="18" customHeight="1">
       <c r="A7" s="4"/>
-      <c r="B7" s="104" t="s">
-        <v>57</v>
-      </c>
-      <c r="C7" s="84" t="s">
-        <v>112</v>
-      </c>
-      <c r="D7" s="85" t="s">
-        <v>63</v>
-      </c>
-      <c r="E7" s="84" t="s">
-        <v>64</v>
-      </c>
-      <c r="F7" s="86" t="s">
-        <v>65</v>
-      </c>
-      <c r="G7" s="87" t="s">
-        <v>66</v>
+      <c r="B7" s="112" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="81" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="82" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" s="60" t="s">
+        <v>71</v>
+      </c>
+      <c r="F7" s="83" t="s">
+        <v>72</v>
+      </c>
+      <c r="G7" s="84" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="20.25" customHeight="1" thickBot="1">
       <c r="A8" s="4"/>
-      <c r="B8" s="105"/>
-      <c r="C8" s="52" t="s">
-        <v>68</v>
-      </c>
-      <c r="D8" s="52" t="s">
-        <v>67</v>
-      </c>
-      <c r="E8" s="50" t="s">
-        <v>69</v>
-      </c>
-      <c r="F8" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="G8" s="88" t="s">
-        <v>71</v>
+      <c r="B8" s="113"/>
+      <c r="C8" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" s="60" t="s">
+        <v>76</v>
+      </c>
+      <c r="F8" s="85" t="s">
+        <v>77</v>
+      </c>
+      <c r="G8" s="86" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="20.25" hidden="1" customHeight="1">
       <c r="A9" s="4"/>
-      <c r="B9" s="105"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="51"/>
+      <c r="B9" s="113"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="48"/>
       <c r="I9" s="15"/>
       <c r="J9" s="15"/>
       <c r="K9" s="15"/>
@@ -2734,19 +2703,19 @@
       <c r="B10" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="54" t="s">
+      <c r="C10" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="54" t="s">
+      <c r="D10" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="55" t="s">
+      <c r="E10" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="55" t="s">
+      <c r="F10" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="G10" s="56" t="s">
+      <c r="G10" s="53" t="s">
         <v>33</v>
       </c>
       <c r="I10" s="15"/>
@@ -2755,45 +2724,45 @@
     </row>
     <row r="11" spans="1:12" ht="20.25" customHeight="1">
       <c r="A11" s="4"/>
-      <c r="B11" s="106" t="s">
+      <c r="B11" s="114" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="57" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="58" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="71" t="s">
-        <v>72</v>
-      </c>
-      <c r="F11" s="58" t="s">
-        <v>35</v>
-      </c>
-      <c r="G11" s="59" t="s">
-        <v>35</v>
-      </c>
-      <c r="I11" s="21"/>
-      <c r="J11" s="22"/>
+      <c r="C11" s="54" t="s">
+        <v>78</v>
+      </c>
+      <c r="D11" s="65" t="s">
+        <v>79</v>
+      </c>
+      <c r="E11" s="55" t="s">
+        <v>78</v>
+      </c>
+      <c r="F11" s="87" t="s">
+        <v>80</v>
+      </c>
+      <c r="G11" s="88" t="s">
+        <v>78</v>
+      </c>
+      <c r="I11" s="19"/>
+      <c r="J11" s="20"/>
       <c r="K11" s="15"/>
     </row>
     <row r="12" spans="1:12" ht="20.25" customHeight="1">
       <c r="A12" s="4"/>
-      <c r="B12" s="107"/>
-      <c r="C12" s="60" t="s">
-        <v>73</v>
-      </c>
-      <c r="D12" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="E12" s="81" t="s">
-        <v>137</v>
-      </c>
-      <c r="F12" s="50" t="s">
-        <v>75</v>
-      </c>
-      <c r="G12" s="62" t="s">
-        <v>76</v>
+      <c r="B12" s="115"/>
+      <c r="C12" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="75" t="s">
+        <v>82</v>
+      </c>
+      <c r="E12" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="F12" s="80" t="s">
+        <v>78</v>
+      </c>
+      <c r="G12" s="89" t="s">
+        <v>84</v>
       </c>
       <c r="I12" s="15"/>
       <c r="J12" s="15"/>
@@ -2802,358 +2771,356 @@
     </row>
     <row r="13" spans="1:12" ht="19.5" customHeight="1">
       <c r="A13" s="4"/>
-      <c r="B13" s="108"/>
-      <c r="C13" s="63" t="s">
-        <v>77</v>
-      </c>
-      <c r="D13" s="53" t="s">
-        <v>78</v>
-      </c>
-      <c r="E13" s="61" t="s">
-        <v>79</v>
-      </c>
-      <c r="F13" s="65" t="s">
-        <v>80</v>
-      </c>
-      <c r="G13" s="62" t="s">
-        <v>81</v>
+      <c r="B13" s="116"/>
+      <c r="C13" s="58" t="s">
+        <v>118</v>
+      </c>
+      <c r="D13" s="75" t="s">
+        <v>85</v>
+      </c>
+      <c r="E13" s="50" t="s">
+        <v>86</v>
+      </c>
+      <c r="F13" s="85" t="s">
+        <v>87</v>
+      </c>
+      <c r="G13" s="89" t="s">
+        <v>88</v>
       </c>
       <c r="I13" s="15"/>
       <c r="J13" s="15"/>
-      <c r="K13" s="22"/>
+      <c r="K13" s="20"/>
       <c r="L13" s="15"/>
     </row>
     <row r="14" spans="1:12" ht="21" customHeight="1">
       <c r="A14" s="4"/>
-      <c r="B14" s="108"/>
-      <c r="C14" s="60" t="s">
-        <v>82</v>
-      </c>
-      <c r="D14" s="51" t="s">
-        <v>83</v>
-      </c>
-      <c r="E14" s="61" t="s">
-        <v>84</v>
-      </c>
-      <c r="F14" s="50" t="s">
-        <v>85</v>
-      </c>
-      <c r="G14" s="62" t="s">
-        <v>86</v>
+      <c r="B14" s="116"/>
+      <c r="C14" s="56" t="s">
+        <v>89</v>
+      </c>
+      <c r="D14" s="57" t="s">
+        <v>90</v>
+      </c>
+      <c r="E14" s="48" t="s">
+        <v>91</v>
+      </c>
+      <c r="F14" s="80" t="s">
+        <v>92</v>
+      </c>
+      <c r="G14" s="89" t="s">
+        <v>93</v>
       </c>
       <c r="I14" s="15"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="32"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="29"/>
       <c r="L14" s="15"/>
     </row>
     <row r="15" spans="1:12" ht="18.75" customHeight="1">
       <c r="A15" s="4"/>
-      <c r="B15" s="108"/>
-      <c r="C15" s="63" t="s">
-        <v>87</v>
-      </c>
-      <c r="D15" s="51" t="s">
-        <v>88</v>
-      </c>
-      <c r="E15" s="61" t="s">
-        <v>89</v>
-      </c>
-      <c r="F15" s="50" t="s">
-        <v>90</v>
-      </c>
-      <c r="G15" s="62" t="s">
-        <v>91</v>
+      <c r="B15" s="116"/>
+      <c r="C15" s="58" t="s">
+        <v>94</v>
+      </c>
+      <c r="D15" s="57" t="s">
+        <v>133</v>
+      </c>
+      <c r="E15" s="48" t="s">
+        <v>95</v>
+      </c>
+      <c r="F15" s="80" t="s">
+        <v>96</v>
+      </c>
+      <c r="G15" s="89" t="s">
+        <v>97</v>
       </c>
       <c r="I15" s="15"/>
       <c r="J15" s="15"/>
-      <c r="K15" s="22"/>
+      <c r="K15" s="20"/>
       <c r="L15" s="15"/>
     </row>
     <row r="16" spans="1:12" ht="18" customHeight="1" thickBot="1">
       <c r="A16" s="4"/>
-      <c r="B16" s="108"/>
-      <c r="C16" s="63" t="s">
-        <v>89</v>
-      </c>
-      <c r="D16" s="50" t="s">
-        <v>89</v>
-      </c>
-      <c r="E16" s="75"/>
-      <c r="F16" s="68" t="s">
-        <v>89</v>
-      </c>
-      <c r="G16" s="69" t="s">
-        <v>89</v>
+      <c r="B16" s="116"/>
+      <c r="C16" s="58" t="s">
+        <v>98</v>
+      </c>
+      <c r="D16" s="47" t="s">
+        <v>98</v>
+      </c>
+      <c r="E16" s="47" t="s">
+        <v>98</v>
+      </c>
+      <c r="F16" s="90"/>
+      <c r="G16" s="91" t="s">
+        <v>98</v>
       </c>
       <c r="I16" s="15"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="32"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="29"/>
       <c r="L16" s="15"/>
     </row>
     <row r="17" spans="1:12" ht="18.75" customHeight="1">
       <c r="A17" s="4"/>
-      <c r="B17" s="109" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="58" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="70" t="s">
-        <v>35</v>
-      </c>
-      <c r="E17" s="71" t="s">
-        <v>35</v>
-      </c>
-      <c r="F17" s="71" t="s">
-        <v>92</v>
-      </c>
-      <c r="G17" s="71" t="s">
-        <v>35</v>
-      </c>
-      <c r="I17" s="28"/>
+      <c r="B17" s="117" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="55" t="s">
+        <v>99</v>
+      </c>
+      <c r="D17" s="64" t="s">
+        <v>100</v>
+      </c>
+      <c r="E17" s="65" t="s">
+        <v>78</v>
+      </c>
+      <c r="F17" s="65" t="s">
+        <v>78</v>
+      </c>
+      <c r="G17" s="70" t="s">
+        <v>101</v>
+      </c>
+      <c r="I17" s="25"/>
       <c r="J17" s="15"/>
-      <c r="K17" s="22"/>
+      <c r="K17" s="20"/>
       <c r="L17" s="15"/>
     </row>
     <row r="18" spans="1:12" ht="18" customHeight="1">
       <c r="A18" s="4"/>
-      <c r="B18" s="110"/>
-      <c r="C18" s="61" t="s">
-        <v>93</v>
-      </c>
-      <c r="D18" s="72" t="s">
-        <v>94</v>
-      </c>
-      <c r="E18" s="61" t="s">
-        <v>95</v>
-      </c>
-      <c r="F18" s="50" t="s">
-        <v>96</v>
-      </c>
-      <c r="G18" s="61" t="s">
-        <v>97</v>
-      </c>
-      <c r="I18" s="28"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
+      <c r="B18" s="118"/>
+      <c r="C18" s="57" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" s="66" t="s">
+        <v>102</v>
+      </c>
+      <c r="E18" s="57" t="s">
+        <v>119</v>
+      </c>
+      <c r="F18" s="47" t="s">
+        <v>103</v>
+      </c>
+      <c r="G18" s="57" t="s">
+        <v>104</v>
+      </c>
+      <c r="I18" s="25"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
       <c r="L18" s="15"/>
     </row>
     <row r="19" spans="1:12" ht="20.25" customHeight="1">
       <c r="A19" s="4"/>
-      <c r="B19" s="110"/>
-      <c r="C19" s="64" t="s">
-        <v>98</v>
-      </c>
-      <c r="D19" s="72" t="s">
-        <v>99</v>
-      </c>
-      <c r="E19" s="73" t="s">
-        <v>100</v>
-      </c>
-      <c r="F19" s="50" t="s">
-        <v>101</v>
-      </c>
-      <c r="G19" s="73" t="s">
-        <v>102</v>
-      </c>
-      <c r="I19" s="28"/>
+      <c r="B19" s="118"/>
+      <c r="C19" s="59" t="s">
+        <v>105</v>
+      </c>
+      <c r="D19" s="66" t="s">
+        <v>106</v>
+      </c>
+      <c r="E19" s="67" t="s">
+        <v>107</v>
+      </c>
+      <c r="F19" s="47" t="s">
+        <v>108</v>
+      </c>
+      <c r="G19" s="67" t="s">
+        <v>109</v>
+      </c>
+      <c r="I19" s="25"/>
       <c r="J19" s="15"/>
       <c r="K19" s="15"/>
       <c r="L19" s="15"/>
     </row>
     <row r="20" spans="1:12" ht="20.25" customHeight="1">
       <c r="A20" s="4"/>
-      <c r="B20" s="110"/>
-      <c r="C20" s="66" t="s">
-        <v>103</v>
-      </c>
-      <c r="D20" s="72" t="s">
-        <v>104</v>
-      </c>
-      <c r="E20" s="61" t="s">
-        <v>105</v>
-      </c>
-      <c r="F20" s="50" t="s">
-        <v>106</v>
-      </c>
-      <c r="G20" s="61" t="s">
-        <v>107</v>
-      </c>
-      <c r="I20" s="28"/>
+      <c r="B20" s="118"/>
+      <c r="C20" s="61" t="s">
+        <v>110</v>
+      </c>
+      <c r="D20" s="66" t="s">
+        <v>111</v>
+      </c>
+      <c r="E20" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="F20" s="47" t="s">
+        <v>113</v>
+      </c>
+      <c r="G20" s="57" t="s">
+        <v>114</v>
+      </c>
+      <c r="I20" s="25"/>
       <c r="J20" s="15"/>
       <c r="K20" s="15"/>
       <c r="L20" s="15"/>
     </row>
     <row r="21" spans="1:12" ht="21.75" customHeight="1">
       <c r="A21" s="4"/>
-      <c r="B21" s="110"/>
-      <c r="C21" s="61" t="s">
-        <v>108</v>
-      </c>
-      <c r="D21" s="72" t="s">
-        <v>109</v>
-      </c>
-      <c r="E21" s="81" t="s">
-        <v>110</v>
-      </c>
-      <c r="F21" s="50" t="s">
-        <v>89</v>
-      </c>
-      <c r="G21" s="61" t="s">
-        <v>111</v>
-      </c>
-      <c r="I21" s="28"/>
+      <c r="B21" s="118"/>
+      <c r="C21" s="57" t="s">
+        <v>115</v>
+      </c>
+      <c r="D21" s="66" t="s">
+        <v>98</v>
+      </c>
+      <c r="E21" s="75" t="s">
+        <v>116</v>
+      </c>
+      <c r="F21" s="47" t="s">
+        <v>117</v>
+      </c>
+      <c r="G21" s="57" t="s">
+        <v>98</v>
+      </c>
+      <c r="I21" s="25"/>
       <c r="J21" s="15"/>
-      <c r="K21" s="32"/>
+      <c r="K21" s="29"/>
       <c r="L21" s="15"/>
     </row>
     <row r="22" spans="1:12" ht="19.5" customHeight="1" thickBot="1">
       <c r="A22" s="4"/>
-      <c r="B22" s="111"/>
-      <c r="C22" s="67" t="s">
-        <v>89</v>
-      </c>
-      <c r="D22" s="74" t="s">
-        <v>89</v>
-      </c>
-      <c r="E22" s="75" t="s">
-        <v>89</v>
-      </c>
-      <c r="F22" s="75"/>
-      <c r="G22" s="75" t="s">
-        <v>89</v>
-      </c>
+      <c r="B22" s="119"/>
+      <c r="C22" s="62" t="s">
+        <v>98</v>
+      </c>
+      <c r="D22" s="68"/>
+      <c r="E22" s="69" t="s">
+        <v>35</v>
+      </c>
+      <c r="F22" s="69" t="s">
+        <v>120</v>
+      </c>
+      <c r="G22" s="69"/>
       <c r="J22" s="15"/>
-      <c r="K22" s="35"/>
+      <c r="K22" s="32"/>
       <c r="L22" s="15"/>
     </row>
     <row r="23" spans="1:12" ht="20.25" hidden="1" customHeight="1">
       <c r="A23" s="4"/>
-      <c r="B23" s="92" t="s">
+      <c r="B23" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="76" t="s">
+      <c r="C23" s="70" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" s="70" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="D23" s="76" t="s">
-        <v>38</v>
-      </c>
-      <c r="E23" s="76" t="s">
+      <c r="F23" s="70" t="s">
         <v>43</v>
       </c>
-      <c r="F23" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="G23" s="76"/>
-      <c r="J23" s="32"/>
-      <c r="K23" s="35"/>
+      <c r="G23" s="70"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="32"/>
       <c r="L23" s="15"/>
     </row>
     <row r="24" spans="1:12" ht="18" hidden="1" customHeight="1">
       <c r="A24" s="4"/>
-      <c r="B24" s="93"/>
-      <c r="C24" s="50" t="s">
+      <c r="B24" s="101"/>
+      <c r="C24" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="E24" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="D24" s="61" t="s">
-        <v>39</v>
-      </c>
-      <c r="E24" s="50" t="s">
+      <c r="F24" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="F24" s="61" t="s">
-        <v>47</v>
-      </c>
-      <c r="G24" s="61"/>
-      <c r="J24" s="35"/>
-      <c r="K24" s="35"/>
+      <c r="G24" s="57"/>
+      <c r="J24" s="32"/>
+      <c r="K24" s="32"/>
       <c r="L24" s="15"/>
     </row>
     <row r="25" spans="1:12" ht="18.75" hidden="1" customHeight="1">
       <c r="A25" s="4"/>
-      <c r="B25" s="93"/>
-      <c r="C25" s="76" t="s">
+      <c r="B25" s="101"/>
+      <c r="C25" s="70" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="E25" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="D25" s="61" t="s">
-        <v>40</v>
-      </c>
-      <c r="E25" s="50" t="s">
+      <c r="F25" s="57" t="s">
         <v>49</v>
       </c>
-      <c r="F25" s="61" t="s">
-        <v>50</v>
-      </c>
-      <c r="G25" s="73"/>
-      <c r="J25" s="35"/>
-      <c r="K25" s="35"/>
+      <c r="G25" s="67"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="32"/>
       <c r="L25" s="15"/>
     </row>
     <row r="26" spans="1:12" ht="18" hidden="1" customHeight="1">
       <c r="A26" s="4"/>
-      <c r="B26" s="93"/>
-      <c r="C26" s="50" t="s">
+      <c r="B26" s="101"/>
+      <c r="C26" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="D26" s="61" t="s">
-        <v>41</v>
-      </c>
-      <c r="E26" s="50" t="s">
+      <c r="F26" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="F26" s="61" t="s">
-        <v>53</v>
-      </c>
-      <c r="G26" s="61"/>
-      <c r="J26" s="35"/>
-      <c r="K26" s="35"/>
+      <c r="G26" s="57"/>
+      <c r="J26" s="32"/>
+      <c r="K26" s="32"/>
       <c r="L26" s="15"/>
     </row>
     <row r="27" spans="1:12" ht="19.5" hidden="1" customHeight="1">
       <c r="A27" s="4"/>
-      <c r="B27" s="93"/>
-      <c r="C27" s="50" t="s">
-        <v>36</v>
-      </c>
-      <c r="D27" s="61" t="s">
-        <v>36</v>
-      </c>
-      <c r="E27" s="50" t="s">
-        <v>36</v>
-      </c>
-      <c r="F27" s="61" t="s">
-        <v>36</v>
-      </c>
-      <c r="G27" s="61"/>
+      <c r="B27" s="101"/>
+      <c r="C27" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="E27" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="F27" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="G27" s="57"/>
       <c r="J27" s="15"/>
       <c r="K27" s="15"/>
       <c r="L27" s="15"/>
     </row>
     <row r="28" spans="1:12" ht="21" hidden="1" customHeight="1" thickBot="1">
       <c r="A28" s="4"/>
-      <c r="B28" s="93"/>
-      <c r="C28" s="67"/>
-      <c r="D28" s="67"/>
-      <c r="E28" s="68"/>
-      <c r="F28" s="67"/>
-      <c r="G28" s="67"/>
+      <c r="B28" s="101"/>
+      <c r="C28" s="62"/>
+      <c r="D28" s="62"/>
+      <c r="E28" s="63"/>
+      <c r="F28" s="62"/>
+      <c r="G28" s="62"/>
     </row>
     <row r="29" spans="1:12" ht="18" customHeight="1" thickBot="1">
       <c r="A29" s="4"/>
-      <c r="B29" s="77"/>
-      <c r="C29" s="94" t="s">
+      <c r="B29" s="71"/>
+      <c r="C29" s="102" t="s">
         <v>30</v>
       </c>
-      <c r="D29" s="95"/>
-      <c r="E29" s="95"/>
-      <c r="F29" s="95"/>
-      <c r="G29" s="96"/>
+      <c r="D29" s="103"/>
+      <c r="E29" s="103"/>
+      <c r="F29" s="103"/>
+      <c r="G29" s="104"/>
     </row>
     <row r="31" spans="1:12">
-      <c r="C31" s="97"/>
-      <c r="D31" s="97"/>
-      <c r="E31" s="97"/>
-      <c r="F31" s="97"/>
+      <c r="C31" s="105"/>
+      <c r="D31" s="105"/>
+      <c r="E31" s="105"/>
+      <c r="F31" s="105"/>
     </row>
     <row r="32" spans="1:12" ht="17.25" customHeight="1">
       <c r="B32" s="15"/>
@@ -3164,42 +3131,42 @@
     </row>
     <row r="33" spans="2:6">
       <c r="B33" s="15"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="98"/>
-      <c r="E33" s="98"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="106"/>
+      <c r="E33" s="106"/>
       <c r="F33" s="15"/>
     </row>
     <row r="34" spans="2:6">
       <c r="B34" s="15"/>
-      <c r="C34" s="22"/>
+      <c r="C34" s="20"/>
       <c r="D34" s="15"/>
       <c r="E34" s="15"/>
       <c r="F34" s="15"/>
     </row>
     <row r="35" spans="2:6">
       <c r="B35" s="15"/>
-      <c r="C35" s="22"/>
+      <c r="C35" s="20"/>
       <c r="D35" s="15"/>
       <c r="E35" s="15"/>
       <c r="F35" s="15"/>
     </row>
     <row r="36" spans="2:6">
       <c r="B36" s="15"/>
-      <c r="C36" s="22"/>
+      <c r="C36" s="20"/>
       <c r="D36" s="15"/>
       <c r="E36" s="15"/>
       <c r="F36" s="15"/>
     </row>
     <row r="37" spans="2:6">
       <c r="B37" s="15"/>
-      <c r="C37" s="22"/>
+      <c r="C37" s="20"/>
       <c r="D37" s="15"/>
       <c r="E37" s="15"/>
       <c r="F37" s="15"/>
     </row>
     <row r="38" spans="2:6">
       <c r="B38" s="15"/>
-      <c r="C38" s="35"/>
+      <c r="C38" s="32"/>
       <c r="D38" s="15"/>
       <c r="E38" s="15"/>
       <c r="F38" s="15"/>
@@ -3207,56 +3174,56 @@
     <row r="39" spans="2:6">
       <c r="B39" s="15"/>
       <c r="C39" s="15"/>
-      <c r="D39" s="46"/>
+      <c r="D39" s="43"/>
       <c r="E39" s="15"/>
       <c r="F39" s="15"/>
     </row>
     <row r="40" spans="2:6">
       <c r="B40" s="15"/>
       <c r="C40" s="15"/>
-      <c r="D40" s="46"/>
+      <c r="D40" s="43"/>
       <c r="E40" s="15"/>
       <c r="F40" s="15"/>
     </row>
     <row r="41" spans="2:6">
       <c r="B41" s="15"/>
       <c r="C41" s="15"/>
-      <c r="D41" s="46"/>
+      <c r="D41" s="43"/>
       <c r="E41" s="15"/>
       <c r="F41" s="15"/>
     </row>
     <row r="42" spans="2:6">
       <c r="B42" s="15"/>
       <c r="C42" s="15"/>
-      <c r="D42" s="46"/>
+      <c r="D42" s="43"/>
       <c r="E42" s="15"/>
       <c r="F42" s="15"/>
     </row>
     <row r="43" spans="2:6">
       <c r="B43" s="15"/>
       <c r="C43" s="15"/>
-      <c r="D43" s="21"/>
+      <c r="D43" s="19"/>
       <c r="E43" s="15"/>
       <c r="F43" s="15"/>
     </row>
     <row r="44" spans="2:6">
       <c r="B44" s="15"/>
       <c r="C44" s="15"/>
-      <c r="D44" s="46"/>
+      <c r="D44" s="43"/>
       <c r="E44" s="15"/>
       <c r="F44" s="15"/>
     </row>
     <row r="45" spans="2:6">
       <c r="B45" s="15"/>
       <c r="C45" s="15"/>
-      <c r="D45" s="46"/>
+      <c r="D45" s="43"/>
       <c r="E45" s="15"/>
       <c r="F45" s="15"/>
     </row>
     <row r="46" spans="2:6">
       <c r="B46" s="15"/>
       <c r="C46" s="15"/>
-      <c r="D46" s="46"/>
+      <c r="D46" s="43"/>
       <c r="E46" s="15"/>
       <c r="F46" s="15"/>
     </row>
@@ -3290,7 +3257,7 @@
     </row>
     <row r="51" spans="2:6">
       <c r="B51" s="15"/>
-      <c r="C51" s="47"/>
+      <c r="C51" s="44"/>
       <c r="D51" s="15"/>
       <c r="E51" s="15"/>
       <c r="F51" s="15"/>
@@ -3330,7 +3297,7 @@
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -3339,49 +3306,48 @@
     <col min="2" max="2" width="15.625" style="2" customWidth="1"/>
     <col min="3" max="3" width="22.5" style="2" customWidth="1"/>
     <col min="4" max="4" width="22.625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="26.25" style="2" customWidth="1"/>
-    <col min="6" max="6" width="22.5" style="2" customWidth="1"/>
+    <col min="5" max="6" width="22.5" style="2" customWidth="1"/>
     <col min="7" max="7" width="23.125" style="2" customWidth="1"/>
     <col min="8" max="8" width="9" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="21" customHeight="1">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="122" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
+      <c r="B1" s="123"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="123"/>
+      <c r="E1" s="123"/>
+      <c r="F1" s="123"/>
+      <c r="G1" s="123"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:11" ht="21" customHeight="1">
-      <c r="A2" s="115"/>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
+      <c r="A2" s="123"/>
+      <c r="B2" s="123"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="21" customHeight="1">
-      <c r="A3" s="115"/>
-      <c r="B3" s="115"/>
-      <c r="C3" s="115"/>
-      <c r="D3" s="115"/>
-      <c r="E3" s="115"/>
-      <c r="F3" s="115"/>
-      <c r="G3" s="115"/>
+      <c r="A3" s="123"/>
+      <c r="B3" s="123"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="123"/>
+      <c r="F3" s="123"/>
+      <c r="G3" s="123"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -3393,10 +3359,10 @@
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
-      <c r="F4" s="116" t="s">
+      <c r="F4" s="124" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="117"/>
+      <c r="G4" s="125"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -3404,7 +3370,7 @@
     </row>
     <row r="5" spans="1:11" ht="16.5" customHeight="1">
       <c r="A5" s="4"/>
-      <c r="B5" s="118" t="s">
+      <c r="B5" s="126" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -3425,80 +3391,80 @@
     </row>
     <row r="6" spans="1:11" ht="18" customHeight="1" thickBot="1">
       <c r="A6" s="4"/>
-      <c r="B6" s="119"/>
+      <c r="B6" s="127"/>
       <c r="C6" s="7" t="s">
-        <v>113</v>
+        <v>64</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>172</v>
+        <v>65</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>173</v>
+        <v>66</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>174</v>
+        <v>67</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="18" customHeight="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="18" customHeight="1" thickBot="1">
       <c r="A7" s="4"/>
-      <c r="B7" s="120" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="F7" s="79" t="s">
-        <v>149</v>
-      </c>
-      <c r="G7" s="79" t="s">
-        <v>154</v>
+      <c r="B7" s="128" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="D7" s="73" t="s">
+        <v>129</v>
+      </c>
+      <c r="E7" s="95" t="s">
+        <v>143</v>
+      </c>
+      <c r="F7" s="73" t="s">
+        <v>152</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
       <c r="A8" s="4"/>
-      <c r="B8" s="105"/>
-      <c r="C8" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="D8" s="24" t="s">
-        <v>125</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="F8" s="89" t="s">
-        <v>143</v>
-      </c>
-      <c r="G8" s="89" t="s">
-        <v>155</v>
+      <c r="B8" s="113"/>
+      <c r="C8" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="D8" s="77" t="s">
+        <v>138</v>
+      </c>
+      <c r="E8" s="96" t="s">
+        <v>144</v>
+      </c>
+      <c r="F8" s="78" t="s">
+        <v>153</v>
+      </c>
+      <c r="G8" s="22" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="20.25" hidden="1" customHeight="1">
       <c r="A9" s="4"/>
-      <c r="B9" s="105"/>
-      <c r="C9" s="78" t="s">
-        <v>123</v>
-      </c>
-      <c r="D9" s="78" t="s">
-        <v>61</v>
-      </c>
-      <c r="E9" s="14" t="s">
+      <c r="B9" s="113"/>
+      <c r="C9" s="72" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="93" t="s">
+        <v>139</v>
+      </c>
+      <c r="E9" s="36" t="s">
         <v>8</v>
       </c>
       <c r="F9" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="89" t="s">
-        <v>164</v>
+      <c r="G9" s="77" t="s">
+        <v>62</v>
       </c>
       <c r="I9" s="15"/>
       <c r="J9" s="15"/>
@@ -3510,19 +3476,19 @@
         <v>10</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>60</v>
+        <v>57</v>
+      </c>
+      <c r="D10" s="79" t="s">
+        <v>140</v>
+      </c>
+      <c r="E10" s="97" t="s">
+        <v>57</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="G10" s="91" t="s">
-        <v>60</v>
+        <v>57</v>
+      </c>
+      <c r="G10" s="79" t="s">
+        <v>57</v>
       </c>
       <c r="I10" s="15"/>
       <c r="J10" s="15"/>
@@ -3530,45 +3496,45 @@
     </row>
     <row r="11" spans="1:11" ht="20.25" customHeight="1">
       <c r="A11" s="4"/>
-      <c r="B11" s="106" t="s">
-        <v>54</v>
+      <c r="B11" s="114" t="s">
+        <v>53</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="D11" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="F11" s="8" t="s">
+      <c r="E11" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="79" t="s">
+      <c r="F11" s="73" t="s">
+        <v>154</v>
+      </c>
+      <c r="G11" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="I11" s="21"/>
-      <c r="J11" s="22"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="20"/>
       <c r="K11" s="15"/>
     </row>
     <row r="12" spans="1:11" ht="20.25" customHeight="1">
       <c r="A12" s="4"/>
-      <c r="B12" s="107"/>
-      <c r="C12" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="E12" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="F12" s="89" t="s">
-        <v>144</v>
-      </c>
-      <c r="G12" s="89" t="s">
-        <v>156</v>
+      <c r="B12" s="115"/>
+      <c r="C12" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="D12" s="77" t="s">
+        <v>130</v>
+      </c>
+      <c r="E12" s="92" t="s">
+        <v>145</v>
+      </c>
+      <c r="F12" s="77" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="22" t="s">
+        <v>165</v>
       </c>
       <c r="I12" s="15"/>
       <c r="J12" s="15"/>
@@ -3576,65 +3542,65 @@
     </row>
     <row r="13" spans="1:11" ht="19.5" customHeight="1">
       <c r="A13" s="4"/>
-      <c r="B13" s="108"/>
-      <c r="C13" s="24" t="s">
-        <v>116</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="F13" s="89" t="s">
-        <v>145</v>
-      </c>
-      <c r="G13" s="89" t="s">
-        <v>157</v>
+      <c r="B13" s="116"/>
+      <c r="C13" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="D13" s="77" t="s">
+        <v>131</v>
+      </c>
+      <c r="E13" s="92" t="s">
+        <v>146</v>
+      </c>
+      <c r="F13" s="77" t="s">
+        <v>155</v>
+      </c>
+      <c r="G13" s="22" t="s">
+        <v>166</v>
       </c>
       <c r="I13" s="15"/>
       <c r="J13" s="15"/>
       <c r="K13" s="15"/>
     </row>
-    <row r="14" spans="1:11" ht="21" customHeight="1" thickBot="1">
+    <row r="14" spans="1:11" ht="21" customHeight="1">
       <c r="A14" s="4"/>
-      <c r="B14" s="108"/>
-      <c r="C14" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="D14" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="E14" s="24" t="s">
-        <v>139</v>
-      </c>
-      <c r="F14" s="89" t="s">
-        <v>146</v>
-      </c>
-      <c r="G14" s="89" t="s">
-        <v>158</v>
+      <c r="B14" s="116"/>
+      <c r="C14" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="D14" s="77" t="s">
+        <v>132</v>
+      </c>
+      <c r="E14" s="92" t="s">
+        <v>147</v>
+      </c>
+      <c r="F14" s="77" t="s">
+        <v>156</v>
+      </c>
+      <c r="G14" s="22" t="s">
+        <v>167</v>
       </c>
       <c r="I14" s="15"/>
-      <c r="J14" s="22"/>
+      <c r="J14" s="20"/>
       <c r="K14" s="15"/>
     </row>
     <row r="15" spans="1:11" ht="18.75" customHeight="1">
       <c r="A15" s="4"/>
-      <c r="B15" s="108"/>
-      <c r="C15" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="D15" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="E15" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="90" t="s">
-        <v>167</v>
-      </c>
-      <c r="G15" s="89" t="s">
-        <v>159</v>
+      <c r="B15" s="116"/>
+      <c r="C15" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="77" t="s">
+        <v>134</v>
+      </c>
+      <c r="E15" s="92" t="s">
+        <v>148</v>
+      </c>
+      <c r="F15" s="77" t="s">
+        <v>157</v>
+      </c>
+      <c r="G15" s="22" t="s">
+        <v>168</v>
       </c>
       <c r="I15" s="15"/>
       <c r="J15" s="15"/>
@@ -3642,267 +3608,265 @@
     </row>
     <row r="16" spans="1:11" ht="18" customHeight="1" thickBot="1">
       <c r="A16" s="4"/>
-      <c r="B16" s="108"/>
-      <c r="C16" s="82" t="s">
+      <c r="B16" s="116"/>
+      <c r="C16" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="27" t="s">
+      <c r="D16" s="74" t="s">
+        <v>141</v>
+      </c>
+      <c r="E16" s="98" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="26"/>
-      <c r="F16" s="83" t="s">
-        <v>151</v>
-      </c>
-      <c r="G16" s="80" t="s">
+      <c r="F16" s="76"/>
+      <c r="G16" s="74" t="s">
         <v>12</v>
       </c>
       <c r="I16" s="15"/>
-      <c r="J16" s="22"/>
+      <c r="J16" s="20"/>
       <c r="K16" s="15"/>
     </row>
     <row r="17" spans="1:11" ht="18.75" customHeight="1">
       <c r="A17" s="4"/>
-      <c r="B17" s="109" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" s="11" t="s">
+      <c r="B17" s="117" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="D17" s="77" t="s">
+        <v>135</v>
+      </c>
+      <c r="E17" s="99" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="F17" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" s="89" t="s">
-        <v>147</v>
-      </c>
-      <c r="G17" s="79" t="s">
-        <v>56</v>
-      </c>
-      <c r="I17" s="28"/>
+      <c r="G17" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="I17" s="25"/>
       <c r="J17" s="15"/>
       <c r="K17" s="15"/>
     </row>
     <row r="18" spans="1:11" ht="18" customHeight="1">
       <c r="A18" s="4"/>
-      <c r="B18" s="110"/>
-      <c r="C18" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="D18" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="E18" s="24" t="s">
-        <v>140</v>
-      </c>
-      <c r="F18" s="89" t="s">
-        <v>148</v>
-      </c>
-      <c r="G18" s="89" t="s">
-        <v>160</v>
-      </c>
-      <c r="I18" s="28"/>
-      <c r="J18" s="22"/>
+      <c r="B18" s="118"/>
+      <c r="C18" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" s="77" t="s">
+        <v>136</v>
+      </c>
+      <c r="E18" s="92" t="s">
+        <v>149</v>
+      </c>
+      <c r="F18" s="77" t="s">
+        <v>158</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="I18" s="25"/>
+      <c r="J18" s="20"/>
       <c r="K18" s="15"/>
     </row>
     <row r="19" spans="1:11" ht="20.25" customHeight="1">
       <c r="A19" s="4"/>
-      <c r="B19" s="110"/>
-      <c r="C19" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="E19" s="24" t="s">
-        <v>141</v>
-      </c>
-      <c r="F19" s="29" t="s">
-        <v>152</v>
-      </c>
-      <c r="G19" s="89" t="s">
-        <v>161</v>
-      </c>
-      <c r="I19" s="28"/>
+      <c r="B19" s="118"/>
+      <c r="C19" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="D19" s="77" t="s">
+        <v>137</v>
+      </c>
+      <c r="E19" s="92" t="s">
+        <v>150</v>
+      </c>
+      <c r="F19" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="G19" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="I19" s="25"/>
       <c r="J19" s="15"/>
       <c r="K19" s="15"/>
     </row>
     <row r="20" spans="1:11" ht="20.25" customHeight="1">
       <c r="A20" s="4"/>
-      <c r="B20" s="110"/>
+      <c r="B20" s="118"/>
       <c r="C20" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="E20" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="D20" s="77" t="s">
         <v>142</v>
       </c>
-      <c r="F20" s="89" t="s">
-        <v>153</v>
-      </c>
-      <c r="G20" s="89" t="s">
-        <v>162</v>
-      </c>
-      <c r="I20" s="28"/>
+      <c r="E20" s="92" t="s">
+        <v>151</v>
+      </c>
+      <c r="F20" s="77" t="s">
+        <v>160</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="I20" s="25"/>
       <c r="J20" s="15"/>
       <c r="K20" s="15"/>
     </row>
     <row r="21" spans="1:11" ht="21.75" customHeight="1">
       <c r="A21" s="4"/>
-      <c r="B21" s="110"/>
+      <c r="B21" s="118"/>
       <c r="C21" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="D21" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="F21" s="89" t="s">
-        <v>151</v>
-      </c>
-      <c r="G21" s="89" t="s">
-        <v>163</v>
-      </c>
-      <c r="I21" s="28"/>
+        <v>59</v>
+      </c>
+      <c r="D21" s="77" t="s">
+        <v>141</v>
+      </c>
+      <c r="E21" s="92" t="s">
+        <v>61</v>
+      </c>
+      <c r="F21" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="G21" s="77" t="s">
+        <v>12</v>
+      </c>
+      <c r="I21" s="25"/>
     </row>
     <row r="22" spans="1:11" ht="19.5" customHeight="1" thickBot="1">
       <c r="A22" s="4"/>
-      <c r="B22" s="111"/>
-      <c r="C22" s="83" t="s">
+      <c r="B22" s="119"/>
+      <c r="C22" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="D22" s="27" t="s">
+      <c r="D22" s="94"/>
+      <c r="E22" s="98" t="s">
         <v>12</v>
       </c>
-      <c r="E22" s="26" t="s">
+      <c r="F22" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="F22" s="83"/>
-      <c r="G22" s="80" t="s">
-        <v>12</v>
-      </c>
+      <c r="G22" s="74"/>
     </row>
     <row r="23" spans="1:11" ht="20.25" hidden="1" customHeight="1">
       <c r="A23" s="4"/>
-      <c r="B23" s="92" t="s">
+      <c r="B23" s="100" t="s">
         <v>13</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D23" s="25" t="s">
+      <c r="D23" s="23" t="s">
         <v>15</v>
       </c>
       <c r="E23" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F23" s="30" t="s">
+      <c r="F23" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="G23" s="31"/>
-      <c r="J23" s="32"/>
+      <c r="G23" s="28"/>
+      <c r="J23" s="29"/>
     </row>
     <row r="24" spans="1:11" ht="18" hidden="1" customHeight="1">
       <c r="A24" s="4"/>
-      <c r="B24" s="93"/>
+      <c r="B24" s="101"/>
       <c r="C24" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D24" s="23" t="s">
+      <c r="D24" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="E24" s="33" t="s">
+      <c r="E24" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="F24" s="30" t="s">
+      <c r="F24" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="G24" s="34"/>
-      <c r="J24" s="35"/>
+      <c r="G24" s="31"/>
+      <c r="J24" s="32"/>
     </row>
     <row r="25" spans="1:11" ht="18.75" hidden="1" customHeight="1">
       <c r="A25" s="4"/>
-      <c r="B25" s="93"/>
+      <c r="B25" s="101"/>
       <c r="C25" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D25" s="36" t="s">
+      <c r="D25" s="33" t="s">
         <v>23</v>
       </c>
       <c r="E25" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F25" s="37" t="s">
+      <c r="F25" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="G25" s="38"/>
-      <c r="J25" s="35"/>
+      <c r="G25" s="35"/>
+      <c r="J25" s="32"/>
     </row>
     <row r="26" spans="1:11" ht="18" hidden="1" customHeight="1">
       <c r="A26" s="4"/>
-      <c r="B26" s="93"/>
+      <c r="B26" s="101"/>
       <c r="C26" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D26" s="36" t="s">
+      <c r="D26" s="33" t="s">
         <v>27</v>
       </c>
       <c r="E26" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="37" t="s">
+      <c r="F26" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="G26" s="34"/>
-      <c r="J26" s="35"/>
+      <c r="G26" s="31"/>
+      <c r="J26" s="32"/>
     </row>
     <row r="27" spans="1:11" ht="19.5" hidden="1" customHeight="1">
       <c r="A27" s="4"/>
-      <c r="B27" s="93"/>
+      <c r="B27" s="101"/>
       <c r="C27" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D27" s="39" t="s">
+      <c r="D27" s="36" t="s">
         <v>12</v>
       </c>
       <c r="E27" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F27" s="40" t="s">
+      <c r="F27" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="G27" s="34"/>
+      <c r="G27" s="31"/>
     </row>
     <row r="28" spans="1:11" ht="21" hidden="1" customHeight="1" thickBot="1">
       <c r="A28" s="4"/>
-      <c r="B28" s="112"/>
-      <c r="C28" s="41"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="43"/>
-      <c r="G28" s="44"/>
+      <c r="B28" s="120"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="41"/>
     </row>
     <row r="29" spans="1:11" ht="18" customHeight="1" thickBot="1">
       <c r="A29" s="4"/>
-      <c r="B29" s="45"/>
-      <c r="C29" s="113" t="s">
+      <c r="B29" s="42"/>
+      <c r="C29" s="121" t="s">
         <v>30</v>
       </c>
-      <c r="D29" s="95"/>
-      <c r="E29" s="95"/>
-      <c r="F29" s="95"/>
-      <c r="G29" s="96"/>
+      <c r="D29" s="103"/>
+      <c r="E29" s="103"/>
+      <c r="F29" s="103"/>
+      <c r="G29" s="104"/>
     </row>
     <row r="31" spans="1:11">
-      <c r="C31" s="97"/>
-      <c r="D31" s="97"/>
-      <c r="E31" s="97"/>
-      <c r="F31" s="97"/>
+      <c r="C31" s="105"/>
+      <c r="D31" s="105"/>
+      <c r="E31" s="105"/>
+      <c r="F31" s="105"/>
     </row>
     <row r="32" spans="1:11" ht="17.25" customHeight="1">
       <c r="B32" s="15"/>
@@ -3913,42 +3877,42 @@
     </row>
     <row r="33" spans="2:6">
       <c r="B33" s="15"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="98"/>
-      <c r="E33" s="98"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="106"/>
+      <c r="E33" s="106"/>
       <c r="F33" s="15"/>
     </row>
     <row r="34" spans="2:6">
       <c r="B34" s="15"/>
-      <c r="C34" s="22"/>
+      <c r="C34" s="20"/>
       <c r="D34" s="15"/>
       <c r="E34" s="15"/>
       <c r="F34" s="15"/>
     </row>
     <row r="35" spans="2:6">
       <c r="B35" s="15"/>
-      <c r="C35" s="22"/>
+      <c r="C35" s="20"/>
       <c r="D35" s="15"/>
       <c r="E35" s="15"/>
       <c r="F35" s="15"/>
     </row>
     <row r="36" spans="2:6">
       <c r="B36" s="15"/>
-      <c r="C36" s="22"/>
+      <c r="C36" s="20"/>
       <c r="D36" s="15"/>
       <c r="E36" s="15"/>
       <c r="F36" s="15"/>
     </row>
     <row r="37" spans="2:6">
       <c r="B37" s="15"/>
-      <c r="C37" s="22"/>
+      <c r="C37" s="20"/>
       <c r="D37" s="15"/>
       <c r="E37" s="15"/>
       <c r="F37" s="15"/>
     </row>
     <row r="38" spans="2:6">
       <c r="B38" s="15"/>
-      <c r="C38" s="35"/>
+      <c r="C38" s="32"/>
       <c r="D38" s="15"/>
       <c r="E38" s="15"/>
       <c r="F38" s="15"/>
@@ -3956,56 +3920,56 @@
     <row r="39" spans="2:6">
       <c r="B39" s="15"/>
       <c r="C39" s="15"/>
-      <c r="D39" s="46"/>
+      <c r="D39" s="43"/>
       <c r="E39" s="15"/>
       <c r="F39" s="15"/>
     </row>
     <row r="40" spans="2:6">
       <c r="B40" s="15"/>
       <c r="C40" s="15"/>
-      <c r="D40" s="46"/>
+      <c r="D40" s="43"/>
       <c r="E40" s="15"/>
       <c r="F40" s="15"/>
     </row>
     <row r="41" spans="2:6">
       <c r="B41" s="15"/>
       <c r="C41" s="15"/>
-      <c r="D41" s="46"/>
+      <c r="D41" s="43"/>
       <c r="E41" s="15"/>
       <c r="F41" s="15"/>
     </row>
     <row r="42" spans="2:6">
       <c r="B42" s="15"/>
       <c r="C42" s="15"/>
-      <c r="D42" s="46"/>
+      <c r="D42" s="43"/>
       <c r="E42" s="15"/>
       <c r="F42" s="15"/>
     </row>
     <row r="43" spans="2:6">
       <c r="B43" s="15"/>
       <c r="C43" s="15"/>
-      <c r="D43" s="21"/>
+      <c r="D43" s="19"/>
       <c r="E43" s="15"/>
       <c r="F43" s="15"/>
     </row>
     <row r="44" spans="2:6">
       <c r="B44" s="15"/>
       <c r="C44" s="15"/>
-      <c r="D44" s="46"/>
+      <c r="D44" s="43"/>
       <c r="E44" s="15"/>
       <c r="F44" s="15"/>
     </row>
     <row r="45" spans="2:6">
       <c r="B45" s="15"/>
       <c r="C45" s="15"/>
-      <c r="D45" s="46"/>
+      <c r="D45" s="43"/>
       <c r="E45" s="15"/>
       <c r="F45" s="15"/>
     </row>
     <row r="46" spans="2:6">
       <c r="B46" s="15"/>
       <c r="C46" s="15"/>
-      <c r="D46" s="46"/>
+      <c r="D46" s="43"/>
       <c r="E46" s="15"/>
       <c r="F46" s="15"/>
     </row>
@@ -4039,7 +4003,7 @@
     </row>
     <row r="51" spans="2:6">
       <c r="B51" s="15"/>
-      <c r="C51" s="47"/>
+      <c r="C51" s="44"/>
       <c r="D51" s="15"/>
       <c r="E51" s="15"/>
       <c r="F51" s="15"/>

--- a/foodtable/1.xlsx
+++ b/foodtable/1.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2. 복리후생\2017년\3. 식당\2020년 식단표\0323\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2. 복리후생\2017년\3. 식당\2020년 식단표\0330\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="75" windowWidth="27975" windowHeight="12495"/>
   </bookViews>
   <sheets>
-    <sheet name="3.23학생식당 " sheetId="2" r:id="rId1"/>
-    <sheet name="3.23학생식당 - 영문" sheetId="1" r:id="rId2"/>
+    <sheet name="3.30학생식당 " sheetId="2" r:id="rId1"/>
+    <sheet name="3.30학생식당 - 영문" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="Excel_BuiltIn__FilterDatabase_1_1" localSheetId="0">#REF!</definedName>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="198">
   <si>
     <t xml:space="preserve">   weekly menu</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -188,9 +188,6 @@
     <t xml:space="preserve">          대구경북과학기술원학생식당</t>
   </si>
   <si>
-    <t>우동장국/김치/단무지/-</t>
-  </si>
-  <si>
     <t>중식-4000
 (정식)</t>
     <phoneticPr fontId="13" type="noConversion"/>
@@ -205,10 +202,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>*불닭볶음면*</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>유부미소국</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -218,18 +211,6 @@
   </si>
   <si>
     <t>애슐리단호박범벅</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>*유산슬덮밥*</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>*김치볶음밥*</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>*홍합짬뽕*</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
@@ -291,9 +272,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>Seasoned Bean Sprouts</t>
-  </si>
-  <si>
     <t>Seasoned Spinach</t>
   </si>
   <si>
@@ -301,384 +279,527 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>seasoned dried seaweed flakes</t>
-  </si>
-  <si>
-    <t>Hamburger Steak&amp;salsd</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <t>dried slices of daikon</t>
+  </si>
+  <si>
+    <t>토</t>
+  </si>
+  <si>
+    <t>일</t>
+  </si>
+  <si>
+    <t>*등뼈감자탕*</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>백미밥</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>어묵볶음</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>부추양파생채</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>섞박지</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>유부쑥갓국</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>카스테라꽈배기</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>계란후라이</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>상추쑥갓무침</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>포기김치</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>*해물순두부찌개*</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>*삼겹김치볶음밥*</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>야채소시지볶음</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>도시락김</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>시금치나물무침</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>맑은홍합국</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>돈육김치찜</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>일식두부조림</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>열무생채</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>포기김치</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.03.28</t>
+  </si>
+  <si>
+    <t>2020.03.29</t>
+  </si>
+  <si>
+    <t>매운돼지갈비찜&amp;천사채샐러드</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>철판치즈돈까스</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>목살김치찌개&amp;땡초주먹밥</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>마라탄탄멘</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>구슬함박</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>장조림버터비빔밥</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>돈큐브스테이크덮밥</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>수제치킨가라아게덮밥</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>쌈밥정식</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>차슈덮밥</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.03.30</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.03.31</t>
+  </si>
+  <si>
+    <t>2020.04.01</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.04.02</t>
+  </si>
+  <si>
+    <t>2020.04.03</t>
+  </si>
+  <si>
+    <t>백미밥</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>*잔치국수*</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>꽃게된장국</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>들깨미역국</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가백미밥</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>맑은감자국</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>닭개장</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>단호박닭조림</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>돼지갈비강정/갈비양념소스</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>생선까스&amp;타르D</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>돈육청경채숙주볶음</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>코다리베이비크랩강정</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>연근타르타르범벅</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>호박느타리볶음</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>단배추겉절이</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>마늘쫑떡볶음</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>부산비빔당면</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>물파래무침</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>시금치나물</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>요구르트</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>양배추쌈&amp;쌈장</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>깻잎지</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>포기김치</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>깍두기</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>*북성로불고기*</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>*베이컨마늘볶음밥*</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>올갱이국</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>수제비국</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>샤브샤브국</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>선짓국</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>숙주맥적구이</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>김치치즈함박S</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>미니우동</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>소떡소떡</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>파채너비아니구이</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>쥐어채조림</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>푸실리오리엔탈샐러드</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>양념부들어묵볶음</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>계란후라이</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>견과류멸치볶음</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>무말랭이</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>오이양파무침</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>양파장아찌</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>그린샐러드</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>도토리묵무침</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spicy Pork short ribs</t>
+  </si>
+  <si>
+    <t>Jangjorim Butter Bibimbap</t>
+  </si>
+  <si>
+    <t>crab bean paste soup</t>
+  </si>
+  <si>
+    <t>Braised sweet pumpkin chicken</t>
+  </si>
+  <si>
+    <t>lotus root tartar bulk</t>
+  </si>
+  <si>
+    <t>Seasoned green garlic seaweed flakes</t>
+  </si>
+  <si>
+    <t>a granite country</t>
+  </si>
+  <si>
+    <t>Roast bean sprouts</t>
+  </si>
+  <si>
+    <t>braised dried filefish</t>
   </si>
   <si>
     <t>polished rice</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>2020.03.23</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020.03.24</t>
-  </si>
-  <si>
-    <t>2020.03.25</t>
-  </si>
-  <si>
-    <t>2020.03.26</t>
-  </si>
-  <si>
-    <t>2020.03.27</t>
-  </si>
-  <si>
-    <t>기사식당불백&amp;모듬쌈</t>
-  </si>
-  <si>
-    <t>와촌돼지찌개/파,마늘,당면</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>대패삼겸김치볶음밥&amp;소시지,계란</t>
-  </si>
-  <si>
-    <t>뚝배기날치알밥(김치많이/밥에간)</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>돈까스김치나베</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>치킨텐더카레</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>불고기필라프&amp;핫도그</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>컵치킨&amp;무알콜맥주,치킨무</t>
-  </si>
-  <si>
-    <t>수제돈까스쟁반국수/수제</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>백미밥</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>백미밥</t>
-  </si>
-  <si>
-    <t>*순대국밥*/검정</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>근대된장국</t>
-  </si>
-  <si>
-    <t>왕만두떡국/검정</t>
-  </si>
-  <si>
-    <t>들깨미역국</t>
-  </si>
-  <si>
-    <t>콩가루냉이국</t>
-  </si>
-  <si>
-    <t>순대야채볶음</t>
-  </si>
-  <si>
-    <t>치즈뼈닭갈비</t>
-  </si>
-  <si>
-    <t>두부무조림</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>모듬강정</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>소세지야채볶음</t>
-  </si>
-  <si>
-    <t>잔멸치꽈초볶음</t>
-  </si>
-  <si>
-    <t>비빔막국수</t>
-  </si>
-  <si>
-    <t>부추겉절이</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>매콤감자조림</t>
-  </si>
-  <si>
-    <t>콩나물무침</t>
-  </si>
-  <si>
-    <t>상추겉절이</t>
-  </si>
-  <si>
-    <t>깍두기</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>미나리무생채</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>포기김치</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>*차돌된장찌개*</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>*마늘쫑볶음밥*</t>
-  </si>
-  <si>
-    <t>*달걀볶음밥*</t>
-  </si>
-  <si>
-    <t>열무된장국</t>
-  </si>
-  <si>
-    <t>들깨감자국</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>유부장국</t>
-  </si>
-  <si>
-    <t>고등어데리구이</t>
-  </si>
-  <si>
-    <t>맛쵸킹탕수육</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>오꼬노미계란말이</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>청양풍제육불고기</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>짜장소스</t>
-  </si>
-  <si>
-    <t>청포묵김가루무침</t>
-  </si>
-  <si>
-    <t>양상추샐러드</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>후랑크케첩볶음</t>
-  </si>
-  <si>
-    <t>연근유자청조림</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>비빔만두</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>시금치나물</t>
-  </si>
-  <si>
-    <t>김가루부추무침</t>
-  </si>
-  <si>
-    <t>참나물들깨무침</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>돈등뼈간장찜</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>돈목살김치찌개</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>포기김치</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>Korean Set Menu with Bulgogi</t>
-  </si>
-  <si>
-    <t>Chicken tender curry</t>
-  </si>
-  <si>
-    <t>Geundae-doenjang-guk</t>
-  </si>
-  <si>
-    <t>braised pork backbone soy sauce</t>
-  </si>
-  <si>
-    <t>Stir-fried sausage and vegetables</t>
-  </si>
-  <si>
-    <t>Soybean Paste Stew with Beef Brisket</t>
-  </si>
-  <si>
-    <t>grilled mackerel</t>
-  </si>
-  <si>
-    <t>Seasoned Mung Bean Jelly Salad</t>
-  </si>
-  <si>
-    <t>Wachon pork stew</t>
-  </si>
-  <si>
-    <t>king dumpling rice cake soup</t>
-  </si>
-  <si>
-    <t>Stir-fried Soondae and Vegetables</t>
-  </si>
-  <si>
-    <t>Stir-fried Baby Anchovies</t>
-  </si>
-  <si>
-    <t>오이양파무침</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <t>iron plate cheese pork cutlet</t>
+  </si>
+  <si>
+    <t>cube stake over rice</t>
+  </si>
+  <si>
+    <t>perilla seed seaweed soup</t>
+  </si>
+  <si>
+    <t>Grilled Pork Ribs</t>
+  </si>
+  <si>
+    <t>Stir-fried Pumpkin Nutari</t>
+  </si>
+  <si>
+    <t>sujebi soup</t>
+  </si>
+  <si>
+    <t>Kimchi cheese hamburg</t>
+  </si>
+  <si>
+    <t>Fucilioliental salad</t>
   </si>
   <si>
     <t>seasoned cucumber onion</t>
   </si>
   <si>
-    <t>garlic stem fried rice</t>
-  </si>
-  <si>
-    <t>Yeolmu bean paste soup</t>
-  </si>
-  <si>
-    <t>Matchow-king tangsuyuk</t>
-  </si>
-  <si>
-    <t>Bulgogi pilaf&amp;hotdog</t>
+    <t>aqua pork curtlet</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>Udon Jangguk/kimchi/extra dinner</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">kimchi </t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pork neck kimchi stew</t>
+  </si>
+  <si>
+    <t>handmade chicken garagae overbap</t>
+  </si>
+  <si>
+    <t>Banquet Noodles</t>
+  </si>
+  <si>
+    <t>Fish Cutlet with Tartar Sauce</t>
+  </si>
+  <si>
+    <t>Fresh Kimchi</t>
+  </si>
+  <si>
+    <t>Bukseongno Bulgogi</t>
+  </si>
+  <si>
+    <t>Stir-fried Rice Cake</t>
+  </si>
+  <si>
+    <t>onion pickle</t>
+  </si>
+  <si>
+    <t>yogurt</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>polished rice</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>aqua pork curtlet</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>Udon Jangguk/kimchi/extra dinner</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">kimchi </t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>vegetable salad</t>
+    <t>mini-udon</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Samgyeopsal kimchi fried rice</t>
-  </si>
-  <si>
-    <t>Cup Chicken&amp;nonalcoholic beer</t>
+    <t>Set Menu with Leaf Wraps and Rice</t>
+  </si>
+  <si>
+    <t>clear potato print</t>
+  </si>
+  <si>
+    <t>Stir-fried Pork Noodles and Vegetables</t>
+  </si>
+  <si>
+    <t>Stir-fried Rice Cake with Garlic Starch</t>
+  </si>
+  <si>
+    <t>cabbage wrap</t>
+  </si>
+  <si>
+    <t>bacon garlic fried rice</t>
+  </si>
+  <si>
+    <t>shabu shabu soup</t>
+  </si>
+  <si>
+    <t>Sotteok Sotteok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mara- Tantan Noodles </t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>perilla seed seaweed soup</t>
-  </si>
-  <si>
-    <t>Stir-fried Chicken with Cheese</t>
-  </si>
-  <si>
-    <t>Spicy Buckwheat Noodles</t>
-  </si>
-  <si>
-    <t>a lettuce wrapper</t>
-  </si>
-  <si>
-    <t>Pork kimchi stew</t>
+    <t>fried egg</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>an okonomi egg roll</t>
-  </si>
-  <si>
-    <t>Fried ketchup with sausage</t>
+    <t>green salad</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rice with Chashu</t>
+  </si>
+  <si>
+    <t>Spicy Chicken Soup</t>
+  </si>
+  <si>
+    <t>Busan Bibimdangmyeon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sesame Leaves in Soy Sauce </t>
+  </si>
+  <si>
+    <t>Marinated Grilled Beef Slices</t>
+  </si>
+  <si>
+    <t>Stir-fried Nuts Anchovies</t>
+  </si>
+  <si>
+    <t>Seasoned Acorn Jelly Salad</t>
+  </si>
+  <si>
+    <t>hamburger Steak&amp;salsd</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Ttukbaegi-nalchi-albap</t>
-  </si>
-  <si>
-    <t>pork cutlet plate noodles</t>
+    <t>Hamburger Steak&amp;salsd</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kodari Crab gangjeong</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Soondae gukbap</t>
-  </si>
-  <si>
-    <t>braised tofu</t>
-  </si>
-  <si>
-    <t>chives and leeks</t>
-  </si>
-  <si>
-    <t>Diced Radish Kimchi</t>
-  </si>
-  <si>
-    <t>perilla potato soup</t>
+    <t>polished rice</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.04.01</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>spicy pork bulgogi</t>
+    <t>2020.04.02</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>braised lotus root citron syrup</t>
-  </si>
-  <si>
-    <t>Sliced sesame sauce</t>
-  </si>
-  <si>
-    <t>pork cutlet kimchi nabe</t>
-  </si>
-  <si>
-    <t>Grilled rice with salt pork</t>
+    <t>2020.03.03</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>소금구이덮밥</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>shepherd's purse soup</t>
-  </si>
-  <si>
-    <t>assorted gangjeong</t>
-  </si>
-  <si>
-    <t>Braised Spicy Potato</t>
-  </si>
-  <si>
-    <t>Minari radish salad</t>
-  </si>
-  <si>
-    <t>fried egg rice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fried tofu  jangguk </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Black bean sauce</t>
-  </si>
-  <si>
-    <t>Fried Dumplings with Vegetables in Spicy Sauce</t>
   </si>
 </sst>
 </file>
@@ -688,7 +809,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="35">
+  <fonts count="38">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -912,25 +1033,7 @@
       <charset val="129"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="1훈떡볶이 R"/>
-      <family val="1"/>
-      <charset val="129"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <name val="1훈떡볶이 R"/>
-      <family val="1"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <name val="1훈떡볶이 R"/>
       <family val="1"/>
       <charset val="129"/>
@@ -941,6 +1044,49 @@
       <name val="1훈떡볶이 R"/>
       <family val="1"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="1훈떡볶이 R"/>
+      <family val="1"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="1훈떡볶이 R"/>
+      <family val="1"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -993,7 +1139,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="45">
+  <borders count="57">
     <border>
       <left/>
       <right/>
@@ -1151,21 +1297,6 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
         <color rgb="FF000000"/>
       </left>
       <right/>
@@ -1330,9 +1461,11 @@
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
-      <right/>
-      <top style="hair">
-        <color rgb="FF000000"/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -1342,57 +1475,20 @@
         <color rgb="FF000000"/>
       </left>
       <right style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
-      <top style="hair">
-        <color rgb="FF000000"/>
+      <top style="medium">
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="hair">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom/>
@@ -1413,46 +1509,33 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
       </left>
       <right style="medium">
         <color rgb="FF000000"/>
@@ -1465,9 +1548,22 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
@@ -1479,10 +1575,139 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="medium">
@@ -1492,8 +1717,34 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
       </left>
       <right/>
       <top style="medium">
@@ -1503,29 +1754,38 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
       </left>
       <right/>
       <top/>
       <bottom style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right/>
@@ -1535,6 +1795,30 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -1550,7 +1834,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="157">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1575,22 +1859,10 @@
     <xf numFmtId="176" fontId="12" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1602,12 +1874,6 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1617,25 +1883,19 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1644,7 +1904,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1653,31 +1913,31 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
@@ -1686,170 +1946,266 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="2" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="2" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1857,13 +2213,13 @@
     <xf numFmtId="0" fontId="11" fillId="5" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1881,10 +2237,10 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1893,7 +2249,7 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1902,19 +2258,31 @@
     <xf numFmtId="0" fontId="21" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -2531,10 +2899,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L52"/>
+  <dimension ref="A1:N50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -2544,743 +2912,866 @@
     <col min="3" max="3" width="22.5" style="2" customWidth="1"/>
     <col min="4" max="4" width="22.625" style="2" customWidth="1"/>
     <col min="5" max="5" width="26.25" style="2" customWidth="1"/>
-    <col min="6" max="6" width="22.5" style="2" customWidth="1"/>
-    <col min="7" max="7" width="23.125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="9" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="2"/>
+    <col min="6" max="7" width="22.5" style="2" customWidth="1"/>
+    <col min="8" max="8" width="22.5" style="2" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="23.125" style="2" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="9" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A1" s="107" t="s">
+    <row r="1" spans="1:14" ht="12.75" customHeight="1">
+      <c r="A1" s="131" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="131"/>
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
+      <c r="H1" s="131"/>
+      <c r="I1" s="131"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
-    </row>
-    <row r="2" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A2" s="107"/>
-      <c r="B2" s="107"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="1:14" ht="12.75" customHeight="1">
+      <c r="A2" s="131"/>
+      <c r="B2" s="131"/>
+      <c r="C2" s="131"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="131"/>
+      <c r="G2" s="131"/>
+      <c r="H2" s="131"/>
+      <c r="I2" s="131"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
-    </row>
-    <row r="3" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A3" s="107"/>
-      <c r="B3" s="107"/>
-      <c r="C3" s="107"/>
-      <c r="D3" s="107"/>
-      <c r="E3" s="107"/>
-      <c r="F3" s="107"/>
-      <c r="G3" s="107"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="1:14" ht="12.75" customHeight="1">
+      <c r="A3" s="131"/>
+      <c r="B3" s="131"/>
+      <c r="C3" s="131"/>
+      <c r="D3" s="131"/>
+      <c r="E3" s="131"/>
+      <c r="F3" s="131"/>
+      <c r="G3" s="131"/>
+      <c r="H3" s="131"/>
+      <c r="I3" s="131"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
-    </row>
-    <row r="4" spans="1:12" ht="20.25" customHeight="1" thickBot="1">
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="1:14" ht="20.25" customHeight="1" thickBot="1">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
-      <c r="F4" s="108" t="s">
+      <c r="F4" s="132" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="109"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
+      <c r="G4" s="132"/>
+      <c r="H4" s="132"/>
+      <c r="I4" s="133"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
-    </row>
-    <row r="5" spans="1:12" ht="16.5" customHeight="1">
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="1:14" ht="16.5" customHeight="1">
       <c r="A5" s="4"/>
-      <c r="B5" s="110" t="s">
+      <c r="B5" s="134" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="45" t="s">
+      <c r="D5" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="45" t="s">
+      <c r="E5" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="45" t="s">
+      <c r="F5" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="45" t="s">
+      <c r="G5" s="54" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" ht="18" customHeight="1" thickBot="1">
+      <c r="H5" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="I5" s="54" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="18" customHeight="1" thickBot="1">
       <c r="A6" s="4"/>
-      <c r="B6" s="111"/>
-      <c r="C6" s="46" t="s">
+      <c r="B6" s="135"/>
+      <c r="C6" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="E6" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="F6" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="G6" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="H6" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="I6" s="38" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="18" customHeight="1">
+      <c r="A7" s="4"/>
+      <c r="B7" s="136" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="87" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" s="88" t="s">
+        <v>81</v>
+      </c>
+      <c r="E7" s="89" t="s">
+        <v>82</v>
+      </c>
+      <c r="F7" s="90" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7" s="91" t="s">
+        <v>84</v>
+      </c>
+      <c r="H7" s="144"/>
+      <c r="I7" s="146"/>
+    </row>
+    <row r="8" spans="1:14" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A8" s="4"/>
+      <c r="B8" s="137"/>
+      <c r="C8" s="92" t="s">
+        <v>85</v>
+      </c>
+      <c r="D8" s="92" t="s">
+        <v>86</v>
+      </c>
+      <c r="E8" s="89" t="s">
+        <v>87</v>
+      </c>
+      <c r="F8" s="93" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8" s="94" t="s">
+        <v>89</v>
+      </c>
+      <c r="H8" s="145"/>
+      <c r="I8" s="147"/>
+    </row>
+    <row r="9" spans="1:14" ht="20.25" customHeight="1">
+      <c r="A9" s="4"/>
+      <c r="B9" s="138" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="95" t="s">
+        <v>95</v>
+      </c>
+      <c r="D9" s="96" t="s">
+        <v>95</v>
+      </c>
+      <c r="E9" s="97" t="s">
+        <v>96</v>
+      </c>
+      <c r="F9" s="98" t="s">
+        <v>95</v>
+      </c>
+      <c r="G9" s="98" t="s">
+        <v>95</v>
+      </c>
+      <c r="H9" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="I9" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="K9" s="13"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="11"/>
+    </row>
+    <row r="10" spans="1:14" ht="20.25" customHeight="1">
+      <c r="A10" s="4"/>
+      <c r="B10" s="139"/>
+      <c r="C10" s="99" t="s">
+        <v>97</v>
+      </c>
+      <c r="D10" s="100" t="s">
+        <v>98</v>
+      </c>
+      <c r="E10" s="101" t="s">
+        <v>99</v>
+      </c>
+      <c r="F10" s="102" t="s">
+        <v>100</v>
+      </c>
+      <c r="G10" s="102" t="s">
+        <v>101</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="I10" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+    </row>
+    <row r="11" spans="1:14" ht="19.5" customHeight="1">
+      <c r="A11" s="4"/>
+      <c r="B11" s="140"/>
+      <c r="C11" s="103" t="s">
+        <v>102</v>
+      </c>
+      <c r="D11" s="104" t="s">
+        <v>103</v>
+      </c>
+      <c r="E11" s="105" t="s">
+        <v>104</v>
+      </c>
+      <c r="F11" s="102" t="s">
+        <v>105</v>
+      </c>
+      <c r="G11" s="106" t="s">
+        <v>106</v>
+      </c>
+      <c r="H11" s="56" t="s">
+        <v>60</v>
+      </c>
+      <c r="I11" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="11"/>
+    </row>
+    <row r="12" spans="1:14" ht="21" customHeight="1">
+      <c r="A12" s="4"/>
+      <c r="B12" s="140"/>
+      <c r="C12" s="99" t="s">
+        <v>107</v>
+      </c>
+      <c r="D12" s="100" t="s">
+        <v>108</v>
+      </c>
+      <c r="E12" s="101" t="s">
+        <v>109</v>
+      </c>
+      <c r="F12" s="102" t="s">
+        <v>110</v>
+      </c>
+      <c r="G12" s="102" t="s">
+        <v>111</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="I12" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="K12" s="11"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="11"/>
+    </row>
+    <row r="13" spans="1:14" ht="18.75" customHeight="1">
+      <c r="A13" s="4"/>
+      <c r="B13" s="140"/>
+      <c r="C13" s="103" t="s">
+        <v>112</v>
+      </c>
+      <c r="D13" s="100" t="s">
+        <v>113</v>
+      </c>
+      <c r="E13" s="101" t="s">
+        <v>114</v>
+      </c>
+      <c r="F13" s="102" t="s">
+        <v>115</v>
+      </c>
+      <c r="G13" s="102" t="s">
+        <v>116</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="I13" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="11"/>
+    </row>
+    <row r="14" spans="1:14" ht="18" customHeight="1" thickBot="1">
+      <c r="A14" s="4"/>
+      <c r="B14" s="140"/>
+      <c r="C14" s="103" t="s">
+        <v>117</v>
+      </c>
+      <c r="D14" s="107" t="s">
+        <v>117</v>
+      </c>
+      <c r="E14" s="101" t="s">
+        <v>118</v>
+      </c>
+      <c r="F14" s="108" t="s">
+        <v>117</v>
+      </c>
+      <c r="G14" s="108" t="s">
+        <v>117</v>
+      </c>
+      <c r="H14" s="57"/>
+      <c r="I14" s="46" t="s">
+        <v>67</v>
+      </c>
+      <c r="K14" s="11"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="11"/>
+    </row>
+    <row r="15" spans="1:14" ht="18.75" customHeight="1">
+      <c r="A15" s="4"/>
+      <c r="B15" s="141" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="109" t="s">
+        <v>95</v>
+      </c>
+      <c r="D15" s="110" t="s">
+        <v>95</v>
+      </c>
+      <c r="E15" s="96" t="s">
+        <v>119</v>
+      </c>
+      <c r="F15" s="111" t="s">
+        <v>120</v>
+      </c>
+      <c r="G15" s="112" t="s">
+        <v>95</v>
+      </c>
+      <c r="H15" s="58" t="s">
+        <v>69</v>
+      </c>
+      <c r="I15" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="K15" s="18"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="11"/>
+    </row>
+    <row r="16" spans="1:14" ht="18" customHeight="1">
+      <c r="A16" s="4"/>
+      <c r="B16" s="142"/>
+      <c r="C16" s="113" t="s">
+        <v>121</v>
+      </c>
+      <c r="D16" s="114" t="s">
+        <v>122</v>
+      </c>
+      <c r="E16" s="100" t="s">
+        <v>95</v>
+      </c>
+      <c r="F16" s="101" t="s">
+        <v>123</v>
+      </c>
+      <c r="G16" s="113" t="s">
+        <v>124</v>
+      </c>
+      <c r="H16" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="I16" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="K16" s="18"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="11"/>
+    </row>
+    <row r="17" spans="1:14" ht="20.25" customHeight="1">
+      <c r="A17" s="4"/>
+      <c r="B17" s="142"/>
+      <c r="C17" s="115" t="s">
+        <v>125</v>
+      </c>
+      <c r="D17" s="114" t="s">
+        <v>126</v>
+      </c>
+      <c r="E17" s="100" t="s">
+        <v>127</v>
+      </c>
+      <c r="F17" s="101" t="s">
+        <v>128</v>
+      </c>
+      <c r="G17" s="116" t="s">
+        <v>129</v>
+      </c>
+      <c r="H17" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="D6" s="46" t="s">
+      <c r="I17" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="K17" s="18"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+    </row>
+    <row r="18" spans="1:14" ht="20.25" customHeight="1">
+      <c r="A18" s="4"/>
+      <c r="B18" s="142"/>
+      <c r="C18" s="113" t="s">
+        <v>130</v>
+      </c>
+      <c r="D18" s="117" t="s">
+        <v>131</v>
+      </c>
+      <c r="E18" s="100" t="s">
+        <v>132</v>
+      </c>
+      <c r="F18" s="101" t="s">
+        <v>133</v>
+      </c>
+      <c r="G18" s="118" t="s">
+        <v>134</v>
+      </c>
+      <c r="H18" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="E6" s="46" t="s">
+      <c r="I18" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="K18" s="18"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+    </row>
+    <row r="19" spans="1:14" ht="21.75" customHeight="1">
+      <c r="A19" s="4"/>
+      <c r="B19" s="142"/>
+      <c r="C19" s="119" t="s">
+        <v>135</v>
+      </c>
+      <c r="D19" s="117" t="s">
+        <v>136</v>
+      </c>
+      <c r="E19" s="100" t="s">
+        <v>137</v>
+      </c>
+      <c r="F19" s="101" t="s">
+        <v>138</v>
+      </c>
+      <c r="G19" s="113" t="s">
+        <v>139</v>
+      </c>
+      <c r="H19" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="F6" s="46" t="s">
+      <c r="I19" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="K19" s="18"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="11"/>
+    </row>
+    <row r="20" spans="1:14" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A20" s="4"/>
+      <c r="B20" s="143"/>
+      <c r="C20" s="120" t="s">
+        <v>117</v>
+      </c>
+      <c r="D20" s="121" t="s">
+        <v>117</v>
+      </c>
+      <c r="E20" s="107" t="s">
+        <v>117</v>
+      </c>
+      <c r="F20" s="122" t="s">
+        <v>117</v>
+      </c>
+      <c r="G20" s="123" t="s">
+        <v>117</v>
+      </c>
+      <c r="H20" s="59" t="s">
         <v>67</v>
       </c>
-      <c r="G6" s="46" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="18" customHeight="1">
-      <c r="A7" s="4"/>
-      <c r="B7" s="112" t="s">
-        <v>55</v>
-      </c>
-      <c r="C7" s="81" t="s">
-        <v>69</v>
-      </c>
-      <c r="D7" s="82" t="s">
-        <v>70</v>
-      </c>
-      <c r="E7" s="60" t="s">
-        <v>71</v>
-      </c>
-      <c r="F7" s="83" t="s">
-        <v>72</v>
-      </c>
-      <c r="G7" s="84" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A8" s="4"/>
-      <c r="B8" s="113"/>
-      <c r="C8" s="49" t="s">
-        <v>74</v>
-      </c>
-      <c r="D8" s="49" t="s">
-        <v>75</v>
-      </c>
-      <c r="E8" s="60" t="s">
-        <v>76</v>
-      </c>
-      <c r="F8" s="85" t="s">
+      <c r="I20" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="L20" s="11"/>
+      <c r="M20" s="24"/>
+      <c r="N20" s="11"/>
+    </row>
+    <row r="21" spans="1:14" ht="20.25" hidden="1" customHeight="1">
+      <c r="A21" s="4"/>
+      <c r="B21" s="124" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="G8" s="86" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="20.25" hidden="1" customHeight="1">
-      <c r="A9" s="4"/>
-      <c r="B9" s="113"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="48"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-    </row>
-    <row r="10" spans="1:12" ht="19.5" hidden="1" customHeight="1" thickBot="1">
-      <c r="A10" s="4"/>
-      <c r="B10" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="51" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="51" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="52" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" s="52" t="s">
-        <v>33</v>
-      </c>
-      <c r="G10" s="53" t="s">
-        <v>33</v>
-      </c>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-    </row>
-    <row r="11" spans="1:12" ht="20.25" customHeight="1">
-      <c r="A11" s="4"/>
-      <c r="B11" s="114" t="s">
+      <c r="D21" s="49"/>
+      <c r="E21" s="50" t="s">
+        <v>77</v>
+      </c>
+      <c r="F21" s="50" t="s">
+        <v>77</v>
+      </c>
+      <c r="G21" s="50"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="51"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="24"/>
+      <c r="N21" s="11"/>
+    </row>
+    <row r="22" spans="1:14" ht="18" hidden="1" customHeight="1">
+      <c r="A22" s="4"/>
+      <c r="B22" s="125"/>
+      <c r="C22" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="F22" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="G22" s="42"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="42"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="24"/>
+      <c r="N22" s="11"/>
+    </row>
+    <row r="23" spans="1:14" ht="18.75" hidden="1" customHeight="1">
+      <c r="A23" s="4"/>
+      <c r="B23" s="125"/>
+      <c r="C23" s="51" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="G23" s="42"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="48"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="24"/>
+      <c r="N23" s="11"/>
+    </row>
+    <row r="24" spans="1:14" ht="18" hidden="1" customHeight="1">
+      <c r="A24" s="4"/>
+      <c r="B24" s="125"/>
+      <c r="C24" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="E24" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="42"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="24"/>
+      <c r="N24" s="11"/>
+    </row>
+    <row r="25" spans="1:14" ht="19.5" hidden="1" customHeight="1">
+      <c r="A25" s="4"/>
+      <c r="B25" s="125"/>
+      <c r="C25" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="54" t="s">
-        <v>78</v>
-      </c>
-      <c r="D11" s="65" t="s">
-        <v>79</v>
-      </c>
-      <c r="E11" s="55" t="s">
-        <v>78</v>
-      </c>
-      <c r="F11" s="87" t="s">
-        <v>80</v>
-      </c>
-      <c r="G11" s="88" t="s">
-        <v>78</v>
-      </c>
-      <c r="I11" s="19"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="15"/>
-    </row>
-    <row r="12" spans="1:12" ht="20.25" customHeight="1">
-      <c r="A12" s="4"/>
-      <c r="B12" s="115"/>
-      <c r="C12" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="D12" s="75" t="s">
-        <v>82</v>
-      </c>
-      <c r="E12" s="48" t="s">
-        <v>83</v>
-      </c>
-      <c r="F12" s="80" t="s">
-        <v>78</v>
-      </c>
-      <c r="G12" s="89" t="s">
-        <v>84</v>
-      </c>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-    </row>
-    <row r="13" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A13" s="4"/>
-      <c r="B13" s="116"/>
-      <c r="C13" s="58" t="s">
-        <v>118</v>
-      </c>
-      <c r="D13" s="75" t="s">
-        <v>85</v>
-      </c>
-      <c r="E13" s="50" t="s">
-        <v>86</v>
-      </c>
-      <c r="F13" s="85" t="s">
-        <v>87</v>
-      </c>
-      <c r="G13" s="89" t="s">
-        <v>88</v>
-      </c>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="15"/>
-    </row>
-    <row r="14" spans="1:12" ht="21" customHeight="1">
-      <c r="A14" s="4"/>
-      <c r="B14" s="116"/>
-      <c r="C14" s="56" t="s">
-        <v>89</v>
-      </c>
-      <c r="D14" s="57" t="s">
-        <v>90</v>
-      </c>
-      <c r="E14" s="48" t="s">
-        <v>91</v>
-      </c>
-      <c r="F14" s="80" t="s">
-        <v>92</v>
-      </c>
-      <c r="G14" s="89" t="s">
-        <v>93</v>
-      </c>
-      <c r="I14" s="15"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="15"/>
-    </row>
-    <row r="15" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A15" s="4"/>
-      <c r="B15" s="116"/>
-      <c r="C15" s="58" t="s">
-        <v>94</v>
-      </c>
-      <c r="D15" s="57" t="s">
-        <v>133</v>
-      </c>
-      <c r="E15" s="48" t="s">
-        <v>95</v>
-      </c>
-      <c r="F15" s="80" t="s">
-        <v>96</v>
-      </c>
-      <c r="G15" s="89" t="s">
-        <v>97</v>
-      </c>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="15"/>
-    </row>
-    <row r="16" spans="1:12" ht="18" customHeight="1" thickBot="1">
-      <c r="A16" s="4"/>
-      <c r="B16" s="116"/>
-      <c r="C16" s="58" t="s">
-        <v>98</v>
-      </c>
-      <c r="D16" s="47" t="s">
-        <v>98</v>
-      </c>
-      <c r="E16" s="47" t="s">
-        <v>98</v>
-      </c>
-      <c r="F16" s="90"/>
-      <c r="G16" s="91" t="s">
-        <v>98</v>
-      </c>
-      <c r="I16" s="15"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="15"/>
-    </row>
-    <row r="17" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A17" s="4"/>
-      <c r="B17" s="117" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="55" t="s">
-        <v>99</v>
-      </c>
-      <c r="D17" s="64" t="s">
-        <v>100</v>
-      </c>
-      <c r="E17" s="65" t="s">
-        <v>78</v>
-      </c>
-      <c r="F17" s="65" t="s">
-        <v>78</v>
-      </c>
-      <c r="G17" s="70" t="s">
-        <v>101</v>
-      </c>
-      <c r="I17" s="25"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="15"/>
-    </row>
-    <row r="18" spans="1:12" ht="18" customHeight="1">
-      <c r="A18" s="4"/>
-      <c r="B18" s="118"/>
-      <c r="C18" s="57" t="s">
-        <v>79</v>
-      </c>
-      <c r="D18" s="66" t="s">
-        <v>102</v>
-      </c>
-      <c r="E18" s="57" t="s">
-        <v>119</v>
-      </c>
-      <c r="F18" s="47" t="s">
-        <v>103</v>
-      </c>
-      <c r="G18" s="57" t="s">
-        <v>104</v>
-      </c>
-      <c r="I18" s="25"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="15"/>
-    </row>
-    <row r="19" spans="1:12" ht="20.25" customHeight="1">
-      <c r="A19" s="4"/>
-      <c r="B19" s="118"/>
-      <c r="C19" s="59" t="s">
-        <v>105</v>
-      </c>
-      <c r="D19" s="66" t="s">
-        <v>106</v>
-      </c>
-      <c r="E19" s="67" t="s">
-        <v>107</v>
-      </c>
-      <c r="F19" s="47" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="67" t="s">
-        <v>109</v>
-      </c>
-      <c r="I19" s="25"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15"/>
-    </row>
-    <row r="20" spans="1:12" ht="20.25" customHeight="1">
-      <c r="A20" s="4"/>
-      <c r="B20" s="118"/>
-      <c r="C20" s="61" t="s">
-        <v>110</v>
-      </c>
-      <c r="D20" s="66" t="s">
-        <v>111</v>
-      </c>
-      <c r="E20" s="57" t="s">
-        <v>112</v>
-      </c>
-      <c r="F20" s="47" t="s">
-        <v>113</v>
-      </c>
-      <c r="G20" s="57" t="s">
-        <v>114</v>
-      </c>
-      <c r="I20" s="25"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="15"/>
-    </row>
-    <row r="21" spans="1:12" ht="21.75" customHeight="1">
-      <c r="A21" s="4"/>
-      <c r="B21" s="118"/>
-      <c r="C21" s="57" t="s">
-        <v>115</v>
-      </c>
-      <c r="D21" s="66" t="s">
-        <v>98</v>
-      </c>
-      <c r="E21" s="75" t="s">
-        <v>116</v>
-      </c>
-      <c r="F21" s="47" t="s">
-        <v>117</v>
-      </c>
-      <c r="G21" s="57" t="s">
-        <v>98</v>
-      </c>
-      <c r="I21" s="25"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="15"/>
-    </row>
-    <row r="22" spans="1:12" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A22" s="4"/>
-      <c r="B22" s="119"/>
-      <c r="C22" s="62" t="s">
-        <v>98</v>
-      </c>
-      <c r="D22" s="68"/>
-      <c r="E22" s="69" t="s">
-        <v>35</v>
-      </c>
-      <c r="F22" s="69" t="s">
-        <v>120</v>
-      </c>
-      <c r="G22" s="69"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="32"/>
-      <c r="L22" s="15"/>
-    </row>
-    <row r="23" spans="1:12" ht="20.25" hidden="1" customHeight="1">
-      <c r="A23" s="4"/>
-      <c r="B23" s="100" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" s="70" t="s">
-        <v>41</v>
-      </c>
-      <c r="D23" s="70" t="s">
-        <v>37</v>
-      </c>
-      <c r="E23" s="70" t="s">
-        <v>42</v>
-      </c>
-      <c r="F23" s="70" t="s">
-        <v>43</v>
-      </c>
-      <c r="G23" s="70"/>
-      <c r="J23" s="29"/>
-      <c r="K23" s="32"/>
-      <c r="L23" s="15"/>
-    </row>
-    <row r="24" spans="1:12" ht="18" hidden="1" customHeight="1">
-      <c r="A24" s="4"/>
-      <c r="B24" s="101"/>
-      <c r="C24" s="47" t="s">
-        <v>44</v>
-      </c>
-      <c r="D24" s="57" t="s">
-        <v>38</v>
-      </c>
-      <c r="E24" s="47" t="s">
-        <v>45</v>
-      </c>
-      <c r="F24" s="57" t="s">
-        <v>46</v>
-      </c>
-      <c r="G24" s="57"/>
-      <c r="J24" s="32"/>
-      <c r="K24" s="32"/>
-      <c r="L24" s="15"/>
-    </row>
-    <row r="25" spans="1:12" ht="18.75" hidden="1" customHeight="1">
-      <c r="A25" s="4"/>
-      <c r="B25" s="101"/>
-      <c r="C25" s="70" t="s">
-        <v>47</v>
-      </c>
-      <c r="D25" s="57" t="s">
-        <v>39</v>
-      </c>
-      <c r="E25" s="47" t="s">
-        <v>48</v>
-      </c>
-      <c r="F25" s="57" t="s">
-        <v>49</v>
-      </c>
-      <c r="G25" s="67"/>
-      <c r="J25" s="32"/>
-      <c r="K25" s="32"/>
-      <c r="L25" s="15"/>
-    </row>
-    <row r="26" spans="1:12" ht="18" hidden="1" customHeight="1">
+      <c r="D25" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="E25" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="F25" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="G25" s="42"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="42"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+    </row>
+    <row r="26" spans="1:14" ht="21" hidden="1" customHeight="1" thickBot="1">
       <c r="A26" s="4"/>
-      <c r="B26" s="101"/>
-      <c r="C26" s="47" t="s">
-        <v>50</v>
-      </c>
-      <c r="D26" s="57" t="s">
-        <v>40</v>
-      </c>
-      <c r="E26" s="47" t="s">
-        <v>51</v>
-      </c>
-      <c r="F26" s="57" t="s">
-        <v>52</v>
-      </c>
-      <c r="G26" s="57"/>
-      <c r="J26" s="32"/>
-      <c r="K26" s="32"/>
-      <c r="L26" s="15"/>
-    </row>
-    <row r="27" spans="1:12" ht="19.5" hidden="1" customHeight="1">
+      <c r="B26" s="125"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="44"/>
+    </row>
+    <row r="27" spans="1:14" ht="18" customHeight="1" thickBot="1">
       <c r="A27" s="4"/>
-      <c r="B27" s="101"/>
-      <c r="C27" s="47" t="s">
-        <v>35</v>
-      </c>
-      <c r="D27" s="57" t="s">
-        <v>35</v>
-      </c>
-      <c r="E27" s="47" t="s">
-        <v>35</v>
-      </c>
-      <c r="F27" s="57" t="s">
-        <v>35</v>
-      </c>
-      <c r="G27" s="57"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="15"/>
-      <c r="L27" s="15"/>
-    </row>
-    <row r="28" spans="1:12" ht="21" hidden="1" customHeight="1" thickBot="1">
-      <c r="A28" s="4"/>
-      <c r="B28" s="101"/>
-      <c r="C28" s="62"/>
-      <c r="D28" s="62"/>
-      <c r="E28" s="63"/>
-      <c r="F28" s="62"/>
-      <c r="G28" s="62"/>
-    </row>
-    <row r="29" spans="1:12" ht="18" customHeight="1" thickBot="1">
-      <c r="A29" s="4"/>
-      <c r="B29" s="71"/>
-      <c r="C29" s="102" t="s">
+      <c r="B27" s="52"/>
+      <c r="C27" s="126" t="s">
         <v>30</v>
       </c>
-      <c r="D29" s="103"/>
-      <c r="E29" s="103"/>
-      <c r="F29" s="103"/>
-      <c r="G29" s="104"/>
-    </row>
-    <row r="31" spans="1:12">
-      <c r="C31" s="105"/>
-      <c r="D31" s="105"/>
-      <c r="E31" s="105"/>
-      <c r="F31" s="105"/>
-    </row>
-    <row r="32" spans="1:12" ht="17.25" customHeight="1">
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-    </row>
-    <row r="33" spans="2:6">
-      <c r="B33" s="15"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="106"/>
-      <c r="E33" s="106"/>
-      <c r="F33" s="15"/>
-    </row>
-    <row r="34" spans="2:6">
-      <c r="B34" s="15"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
-    </row>
-    <row r="35" spans="2:6">
-      <c r="B35" s="15"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-    </row>
-    <row r="36" spans="2:6">
-      <c r="B36" s="15"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
-    </row>
-    <row r="37" spans="2:6">
-      <c r="B37" s="15"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="15"/>
-    </row>
-    <row r="38" spans="2:6">
-      <c r="B38" s="15"/>
-      <c r="C38" s="32"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
-    </row>
-    <row r="39" spans="2:6">
-      <c r="B39" s="15"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="43"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="15"/>
-    </row>
-    <row r="40" spans="2:6">
-      <c r="B40" s="15"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="43"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="15"/>
-    </row>
-    <row r="41" spans="2:6">
-      <c r="B41" s="15"/>
-      <c r="C41" s="15"/>
-      <c r="D41" s="43"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="15"/>
-    </row>
-    <row r="42" spans="2:6">
-      <c r="B42" s="15"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="43"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="15"/>
-    </row>
-    <row r="43" spans="2:6">
-      <c r="B43" s="15"/>
-      <c r="C43" s="15"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15"/>
-    </row>
-    <row r="44" spans="2:6">
-      <c r="B44" s="15"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="43"/>
-      <c r="E44" s="15"/>
-      <c r="F44" s="15"/>
-    </row>
-    <row r="45" spans="2:6">
-      <c r="B45" s="15"/>
-      <c r="C45" s="15"/>
-      <c r="D45" s="43"/>
-      <c r="E45" s="15"/>
-      <c r="F45" s="15"/>
-    </row>
-    <row r="46" spans="2:6">
-      <c r="B46" s="15"/>
-      <c r="C46" s="15"/>
-      <c r="D46" s="43"/>
-      <c r="E46" s="15"/>
-      <c r="F46" s="15"/>
-    </row>
-    <row r="47" spans="2:6">
-      <c r="B47" s="15"/>
-      <c r="C47" s="15"/>
-      <c r="D47" s="15"/>
-      <c r="E47" s="15"/>
-      <c r="F47" s="15"/>
-    </row>
-    <row r="48" spans="2:6">
-      <c r="B48" s="15"/>
-      <c r="C48" s="15"/>
-      <c r="D48" s="15"/>
-      <c r="E48" s="15"/>
-      <c r="F48" s="15"/>
-    </row>
-    <row r="49" spans="2:6">
-      <c r="B49" s="15"/>
-      <c r="C49" s="15"/>
-      <c r="D49" s="15"/>
-      <c r="E49" s="15"/>
-      <c r="F49" s="15"/>
-    </row>
-    <row r="50" spans="2:6">
-      <c r="B50" s="15"/>
-      <c r="C50" s="15"/>
-      <c r="D50" s="15"/>
-      <c r="E50" s="15"/>
-      <c r="F50" s="15"/>
-    </row>
-    <row r="51" spans="2:6">
-      <c r="B51" s="15"/>
-      <c r="C51" s="44"/>
-      <c r="D51" s="15"/>
-      <c r="E51" s="15"/>
-      <c r="F51" s="15"/>
-    </row>
-    <row r="52" spans="2:6">
-      <c r="B52" s="15"/>
-      <c r="C52" s="15"/>
-      <c r="D52" s="15"/>
-      <c r="E52" s="15"/>
-      <c r="F52" s="15"/>
+      <c r="D27" s="127"/>
+      <c r="E27" s="127"/>
+      <c r="F27" s="127"/>
+      <c r="G27" s="127"/>
+      <c r="H27" s="127"/>
+      <c r="I27" s="128"/>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="C29" s="129"/>
+      <c r="D29" s="129"/>
+      <c r="E29" s="129"/>
+      <c r="F29" s="129"/>
+      <c r="G29" s="53"/>
+      <c r="H29" s="53"/>
+    </row>
+    <row r="30" spans="1:14" ht="17.25" customHeight="1">
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="B31" s="11"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="130"/>
+      <c r="E31" s="130"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="B32" s="11"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+    </row>
+    <row r="33" spans="2:8">
+      <c r="B33" s="11"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+    </row>
+    <row r="34" spans="2:8">
+      <c r="B34" s="11"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+    </row>
+    <row r="35" spans="2:8">
+      <c r="B35" s="11"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+    </row>
+    <row r="36" spans="2:8">
+      <c r="B36" s="11"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+    </row>
+    <row r="37" spans="2:8">
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="35"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+    </row>
+    <row r="38" spans="2:8">
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="35"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+    </row>
+    <row r="39" spans="2:8">
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="35"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+    </row>
+    <row r="40" spans="2:8">
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="35"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+    </row>
+    <row r="41" spans="2:8">
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+    </row>
+    <row r="42" spans="2:8">
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="35"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+    </row>
+    <row r="43" spans="2:8">
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="35"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+    </row>
+    <row r="44" spans="2:8">
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="35"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+    </row>
+    <row r="45" spans="2:8">
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+    </row>
+    <row r="46" spans="2:8">
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+    </row>
+    <row r="47" spans="2:8">
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+    </row>
+    <row r="48" spans="2:8">
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
+    </row>
+    <row r="49" spans="2:8">
+      <c r="B49" s="11"/>
+      <c r="C49" s="36"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="11"/>
+    </row>
+    <row r="50" spans="2:8">
+      <c r="B50" s="11"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="B23:B28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="A1:G3"/>
-    <mergeCell ref="F4:G4"/>
+  <mergeCells count="12">
+    <mergeCell ref="B21:B26"/>
+    <mergeCell ref="C27:I27"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="A1:I3"/>
+    <mergeCell ref="F4:I4"/>
     <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B11:B16"/>
-    <mergeCell ref="B17:B22"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B14"/>
+    <mergeCell ref="B15:B20"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.04" right="0.04" top="0.35" bottom="0.35" header="0.31" footer="0"/>
@@ -3297,7 +3788,7 @@
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -3306,48 +3797,49 @@
     <col min="2" max="2" width="15.625" style="2" customWidth="1"/>
     <col min="3" max="3" width="22.5" style="2" customWidth="1"/>
     <col min="4" max="4" width="22.625" style="2" customWidth="1"/>
-    <col min="5" max="6" width="22.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="26.25" style="2" customWidth="1"/>
+    <col min="6" max="6" width="22.5" style="2" customWidth="1"/>
     <col min="7" max="7" width="23.125" style="2" customWidth="1"/>
     <col min="8" max="8" width="9" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="21" customHeight="1">
-      <c r="A1" s="122" t="s">
+      <c r="A1" s="150" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="123"/>
-      <c r="C1" s="123"/>
-      <c r="D1" s="123"/>
-      <c r="E1" s="123"/>
-      <c r="F1" s="123"/>
-      <c r="G1" s="123"/>
+      <c r="B1" s="151"/>
+      <c r="C1" s="151"/>
+      <c r="D1" s="151"/>
+      <c r="E1" s="151"/>
+      <c r="F1" s="151"/>
+      <c r="G1" s="151"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:11" ht="21" customHeight="1">
-      <c r="A2" s="123"/>
-      <c r="B2" s="123"/>
-      <c r="C2" s="123"/>
-      <c r="D2" s="123"/>
-      <c r="E2" s="123"/>
-      <c r="F2" s="123"/>
-      <c r="G2" s="123"/>
+      <c r="A2" s="151"/>
+      <c r="B2" s="151"/>
+      <c r="C2" s="151"/>
+      <c r="D2" s="151"/>
+      <c r="E2" s="151"/>
+      <c r="F2" s="151"/>
+      <c r="G2" s="151"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="21" customHeight="1">
-      <c r="A3" s="123"/>
-      <c r="B3" s="123"/>
-      <c r="C3" s="123"/>
-      <c r="D3" s="123"/>
-      <c r="E3" s="123"/>
-      <c r="F3" s="123"/>
-      <c r="G3" s="123"/>
+      <c r="A3" s="151"/>
+      <c r="B3" s="151"/>
+      <c r="C3" s="151"/>
+      <c r="D3" s="151"/>
+      <c r="E3" s="151"/>
+      <c r="F3" s="151"/>
+      <c r="G3" s="151"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -3359,10 +3851,10 @@
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
-      <c r="F4" s="124" t="s">
+      <c r="F4" s="152" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="125"/>
+      <c r="G4" s="153"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -3370,7 +3862,7 @@
     </row>
     <row r="5" spans="1:11" ht="16.5" customHeight="1">
       <c r="A5" s="4"/>
-      <c r="B5" s="126" t="s">
+      <c r="B5" s="154" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -3389,638 +3881,644 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="18" customHeight="1" thickBot="1">
+    <row r="6" spans="1:11" ht="18" customHeight="1">
       <c r="A6" s="4"/>
-      <c r="B6" s="127"/>
+      <c r="B6" s="155"/>
       <c r="C6" s="7" t="s">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>66</v>
+        <v>195</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>67</v>
+        <v>196</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="18" customHeight="1" thickBot="1">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="18" customHeight="1">
       <c r="A7" s="4"/>
-      <c r="B7" s="128" t="s">
-        <v>56</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="D7" s="73" t="s">
-        <v>129</v>
-      </c>
-      <c r="E7" s="95" t="s">
-        <v>143</v>
-      </c>
-      <c r="F7" s="73" t="s">
-        <v>152</v>
-      </c>
-      <c r="G7" s="10" t="s">
+      <c r="B7" s="156" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="60" t="s">
+        <v>140</v>
+      </c>
+      <c r="D7" s="77" t="s">
+        <v>150</v>
+      </c>
+      <c r="E7" s="70" t="s">
         <v>162</v>
+      </c>
+      <c r="F7" s="70" t="s">
+        <v>181</v>
+      </c>
+      <c r="G7" s="86" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
       <c r="A8" s="4"/>
-      <c r="B8" s="113"/>
-      <c r="C8" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="D8" s="77" t="s">
-        <v>138</v>
-      </c>
-      <c r="E8" s="96" t="s">
-        <v>144</v>
-      </c>
-      <c r="F8" s="78" t="s">
-        <v>153</v>
-      </c>
-      <c r="G8" s="22" t="s">
+      <c r="B8" s="137"/>
+      <c r="C8" s="61" t="s">
+        <v>141</v>
+      </c>
+      <c r="D8" s="74" t="s">
+        <v>151</v>
+      </c>
+      <c r="E8" s="61" t="s">
         <v>163</v>
+      </c>
+      <c r="F8" s="68" t="s">
+        <v>173</v>
+      </c>
+      <c r="G8" s="61" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="20.25" hidden="1" customHeight="1">
       <c r="A9" s="4"/>
-      <c r="B9" s="113"/>
-      <c r="C9" s="72" t="s">
-        <v>60</v>
-      </c>
-      <c r="D9" s="93" t="s">
-        <v>139</v>
-      </c>
-      <c r="E9" s="36" t="s">
+      <c r="B9" s="137"/>
+      <c r="C9" s="62" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="75" t="s">
+        <v>159</v>
+      </c>
+      <c r="E9" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="77" t="s">
-        <v>62</v>
-      </c>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
+      <c r="G9" s="71" t="s">
+        <v>192</v>
+      </c>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
     </row>
     <row r="10" spans="1:11" ht="19.5" hidden="1" customHeight="1" thickBot="1">
       <c r="A10" s="4"/>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" s="79" t="s">
-        <v>140</v>
-      </c>
-      <c r="E10" s="97" t="s">
-        <v>57</v>
-      </c>
-      <c r="F10" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="G10" s="79" t="s">
-        <v>57</v>
-      </c>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
+      <c r="C10" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="78" t="s">
+        <v>160</v>
+      </c>
+      <c r="E10" s="81" t="s">
+        <v>160</v>
+      </c>
+      <c r="F10" s="82" t="s">
+        <v>160</v>
+      </c>
+      <c r="G10" s="82" t="s">
+        <v>160</v>
+      </c>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
     </row>
     <row r="11" spans="1:11" ht="20.25" customHeight="1">
       <c r="A11" s="4"/>
-      <c r="B11" s="114" t="s">
-        <v>53</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>63</v>
+      <c r="B11" s="138" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="64" t="s">
+        <v>149</v>
       </c>
       <c r="D11" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="95" t="s">
+      <c r="E11" s="60" t="s">
+        <v>164</v>
+      </c>
+      <c r="F11" s="83" t="s">
+        <v>171</v>
+      </c>
+      <c r="G11" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="73" t="s">
-        <v>154</v>
-      </c>
-      <c r="G11" s="73" t="s">
-        <v>11</v>
-      </c>
-      <c r="I11" s="19"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="15"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="11"/>
     </row>
     <row r="12" spans="1:11" ht="20.25" customHeight="1">
       <c r="A12" s="4"/>
-      <c r="B12" s="115"/>
-      <c r="C12" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="D12" s="77" t="s">
-        <v>130</v>
-      </c>
-      <c r="E12" s="92" t="s">
-        <v>145</v>
-      </c>
-      <c r="F12" s="77" t="s">
+      <c r="B12" s="139"/>
+      <c r="C12" s="61" t="s">
+        <v>142</v>
+      </c>
+      <c r="D12" s="74" t="s">
+        <v>152</v>
+      </c>
+      <c r="E12" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="22" t="s">
+      <c r="F12" s="61" t="s">
+        <v>174</v>
+      </c>
+      <c r="G12" s="68" t="s">
+        <v>185</v>
+      </c>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+    </row>
+    <row r="13" spans="1:11" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A13" s="4"/>
+      <c r="B13" s="140"/>
+      <c r="C13" s="61" t="s">
+        <v>143</v>
+      </c>
+      <c r="D13" s="74" t="s">
+        <v>153</v>
+      </c>
+      <c r="E13" s="68" t="s">
         <v>165</v>
       </c>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-    </row>
-    <row r="13" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A13" s="4"/>
-      <c r="B13" s="116"/>
-      <c r="C13" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="D13" s="77" t="s">
-        <v>131</v>
-      </c>
-      <c r="E13" s="92" t="s">
-        <v>146</v>
-      </c>
-      <c r="F13" s="77" t="s">
-        <v>155</v>
-      </c>
-      <c r="G13" s="22" t="s">
-        <v>166</v>
-      </c>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
+      <c r="F13" s="61" t="s">
+        <v>175</v>
+      </c>
+      <c r="G13" s="61" t="s">
+        <v>193</v>
+      </c>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
     </row>
     <row r="14" spans="1:11" ht="21" customHeight="1">
       <c r="A14" s="4"/>
-      <c r="B14" s="116"/>
-      <c r="C14" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="D14" s="77" t="s">
-        <v>132</v>
-      </c>
-      <c r="E14" s="92" t="s">
-        <v>147</v>
-      </c>
-      <c r="F14" s="77" t="s">
-        <v>156</v>
-      </c>
-      <c r="G14" s="22" t="s">
-        <v>167</v>
-      </c>
-      <c r="I14" s="15"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="15"/>
+      <c r="B14" s="140"/>
+      <c r="C14" s="65" t="s">
+        <v>144</v>
+      </c>
+      <c r="D14" s="74" t="s">
+        <v>154</v>
+      </c>
+      <c r="E14" s="68" t="s">
+        <v>166</v>
+      </c>
+      <c r="F14" s="61" t="s">
+        <v>176</v>
+      </c>
+      <c r="G14" s="61" t="s">
+        <v>186</v>
+      </c>
+      <c r="I14" s="11"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="11"/>
     </row>
     <row r="15" spans="1:11" ht="18.75" customHeight="1">
       <c r="A15" s="4"/>
-      <c r="B15" s="116"/>
-      <c r="C15" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="D15" s="77" t="s">
-        <v>134</v>
-      </c>
-      <c r="E15" s="92" t="s">
-        <v>148</v>
-      </c>
-      <c r="F15" s="77" t="s">
-        <v>157</v>
-      </c>
-      <c r="G15" s="22" t="s">
-        <v>168</v>
-      </c>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
+      <c r="B15" s="140"/>
+      <c r="C15" s="61" t="s">
+        <v>145</v>
+      </c>
+      <c r="D15" s="75" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="61" t="s">
+        <v>170</v>
+      </c>
+      <c r="F15" s="61" t="s">
+        <v>177</v>
+      </c>
+      <c r="G15" s="68" t="s">
+        <v>187</v>
+      </c>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
     </row>
     <row r="16" spans="1:11" ht="18" customHeight="1" thickBot="1">
       <c r="A16" s="4"/>
-      <c r="B16" s="116"/>
-      <c r="C16" s="76" t="s">
+      <c r="B16" s="140"/>
+      <c r="C16" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="74" t="s">
-        <v>141</v>
-      </c>
-      <c r="E16" s="98" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" s="76"/>
-      <c r="G16" s="74" t="s">
-        <v>12</v>
-      </c>
-      <c r="I16" s="15"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="15"/>
+      <c r="D16" s="76" t="s">
+        <v>161</v>
+      </c>
+      <c r="E16" s="72" t="s">
+        <v>161</v>
+      </c>
+      <c r="F16" s="84" t="s">
+        <v>161</v>
+      </c>
+      <c r="G16" s="84" t="s">
+        <v>161</v>
+      </c>
+      <c r="I16" s="11"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="11"/>
     </row>
     <row r="17" spans="1:11" ht="18.75" customHeight="1">
       <c r="A17" s="4"/>
-      <c r="B17" s="117" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="D17" s="77" t="s">
-        <v>135</v>
-      </c>
-      <c r="E17" s="99" t="s">
+      <c r="B17" s="141" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="8" t="s">
+      <c r="D17" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="G17" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="I17" s="25"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
+      <c r="E17" s="61" t="s">
+        <v>167</v>
+      </c>
+      <c r="F17" s="61" t="s">
+        <v>178</v>
+      </c>
+      <c r="G17" s="83" t="s">
+        <v>194</v>
+      </c>
+      <c r="I17" s="18"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
     </row>
     <row r="18" spans="1:11" ht="18" customHeight="1">
       <c r="A18" s="4"/>
-      <c r="B18" s="118"/>
-      <c r="C18" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="D18" s="77" t="s">
-        <v>136</v>
-      </c>
-      <c r="E18" s="92" t="s">
-        <v>149</v>
-      </c>
-      <c r="F18" s="77" t="s">
-        <v>158</v>
-      </c>
-      <c r="G18" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="I18" s="25"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="15"/>
+      <c r="B18" s="142"/>
+      <c r="C18" s="61" t="s">
+        <v>146</v>
+      </c>
+      <c r="D18" s="74" t="s">
+        <v>155</v>
+      </c>
+      <c r="E18" s="61" t="s">
+        <v>171</v>
+      </c>
+      <c r="F18" s="61" t="s">
+        <v>179</v>
+      </c>
+      <c r="G18" s="61" t="s">
+        <v>162</v>
+      </c>
+      <c r="I18" s="18"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="11"/>
     </row>
     <row r="19" spans="1:11" ht="20.25" customHeight="1">
       <c r="A19" s="4"/>
-      <c r="B19" s="118"/>
-      <c r="C19" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="D19" s="77" t="s">
-        <v>137</v>
-      </c>
-      <c r="E19" s="92" t="s">
-        <v>150</v>
-      </c>
-      <c r="F19" s="26" t="s">
-        <v>159</v>
-      </c>
-      <c r="G19" s="22" t="s">
-        <v>171</v>
-      </c>
-      <c r="I19" s="25"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
+      <c r="B19" s="142"/>
+      <c r="C19" s="61" t="s">
+        <v>147</v>
+      </c>
+      <c r="D19" s="74" t="s">
+        <v>156</v>
+      </c>
+      <c r="E19" s="61" t="s">
+        <v>172</v>
+      </c>
+      <c r="F19" s="61" t="s">
+        <v>180</v>
+      </c>
+      <c r="G19" s="68" t="s">
+        <v>188</v>
+      </c>
+      <c r="I19" s="18"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
     </row>
     <row r="20" spans="1:11" ht="20.25" customHeight="1">
       <c r="A20" s="4"/>
-      <c r="B20" s="118"/>
-      <c r="C20" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="D20" s="77" t="s">
-        <v>142</v>
-      </c>
-      <c r="E20" s="92" t="s">
-        <v>151</v>
-      </c>
-      <c r="F20" s="77" t="s">
-        <v>160</v>
-      </c>
-      <c r="G20" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="I20" s="25"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
+      <c r="B20" s="142"/>
+      <c r="C20" s="61" t="s">
+        <v>148</v>
+      </c>
+      <c r="D20" s="74" t="s">
+        <v>157</v>
+      </c>
+      <c r="E20" s="61" t="s">
+        <v>168</v>
+      </c>
+      <c r="F20" s="71" t="s">
+        <v>182</v>
+      </c>
+      <c r="G20" s="61" t="s">
+        <v>189</v>
+      </c>
+      <c r="I20" s="18"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
     </row>
     <row r="21" spans="1:11" ht="21.75" customHeight="1">
       <c r="A21" s="4"/>
-      <c r="B21" s="118"/>
-      <c r="C21" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="D21" s="77" t="s">
-        <v>141</v>
-      </c>
-      <c r="E21" s="92" t="s">
-        <v>61</v>
-      </c>
-      <c r="F21" s="77" t="s">
+      <c r="B21" s="142"/>
+      <c r="C21" s="68" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="74" t="s">
+        <v>158</v>
+      </c>
+      <c r="E21" s="61" t="s">
+        <v>169</v>
+      </c>
+      <c r="F21" s="71" t="s">
+        <v>183</v>
+      </c>
+      <c r="G21" s="68" t="s">
+        <v>190</v>
+      </c>
+      <c r="I21" s="18"/>
+    </row>
+    <row r="22" spans="1:11" ht="19.5" customHeight="1">
+      <c r="A22" s="4"/>
+      <c r="B22" s="143"/>
+      <c r="C22" s="69" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="80" t="s">
         <v>161</v>
       </c>
-      <c r="G21" s="77" t="s">
-        <v>12</v>
-      </c>
-      <c r="I21" s="25"/>
-    </row>
-    <row r="22" spans="1:11" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A22" s="4"/>
-      <c r="B22" s="119"/>
-      <c r="C22" s="76" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22" s="94"/>
-      <c r="E22" s="98" t="s">
-        <v>12</v>
-      </c>
-      <c r="F22" s="76" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" s="74"/>
+      <c r="E22" s="72" t="s">
+        <v>161</v>
+      </c>
+      <c r="F22" s="85" t="s">
+        <v>161</v>
+      </c>
+      <c r="G22" s="85" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="23" spans="1:11" ht="20.25" hidden="1" customHeight="1">
       <c r="A23" s="4"/>
-      <c r="B23" s="100" t="s">
+      <c r="B23" s="124" t="s">
         <v>13</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D23" s="23" t="s">
+      <c r="D23" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="E23" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F23" s="27" t="s">
+      <c r="F23" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="G23" s="28"/>
-      <c r="J23" s="29"/>
+      <c r="G23" s="20"/>
+      <c r="J23" s="21"/>
     </row>
     <row r="24" spans="1:11" ht="18" hidden="1" customHeight="1">
       <c r="A24" s="4"/>
-      <c r="B24" s="101"/>
-      <c r="C24" s="11" t="s">
+      <c r="B24" s="125"/>
+      <c r="C24" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D24" s="21" t="s">
+      <c r="D24" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E24" s="30" t="s">
+      <c r="E24" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="F24" s="27" t="s">
+      <c r="F24" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="G24" s="31"/>
-      <c r="J24" s="32"/>
+      <c r="G24" s="23"/>
+      <c r="J24" s="24"/>
     </row>
     <row r="25" spans="1:11" ht="18.75" hidden="1" customHeight="1">
       <c r="A25" s="4"/>
-      <c r="B25" s="101"/>
-      <c r="C25" s="11" t="s">
+      <c r="B25" s="125"/>
+      <c r="C25" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D25" s="33" t="s">
+      <c r="D25" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="E25" s="14" t="s">
+      <c r="E25" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F25" s="34" t="s">
+      <c r="F25" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="G25" s="35"/>
-      <c r="J25" s="32"/>
+      <c r="G25" s="27"/>
+      <c r="J25" s="24"/>
     </row>
     <row r="26" spans="1:11" ht="18" hidden="1" customHeight="1">
       <c r="A26" s="4"/>
-      <c r="B26" s="101"/>
-      <c r="C26" s="11" t="s">
+      <c r="B26" s="125"/>
+      <c r="C26" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D26" s="33" t="s">
+      <c r="D26" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="E26" s="12" t="s">
+      <c r="E26" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="34" t="s">
+      <c r="F26" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="G26" s="31"/>
-      <c r="J26" s="32"/>
+      <c r="G26" s="23"/>
+      <c r="J26" s="24"/>
     </row>
     <row r="27" spans="1:11" ht="19.5" hidden="1" customHeight="1">
       <c r="A27" s="4"/>
-      <c r="B27" s="101"/>
-      <c r="C27" s="11" t="s">
+      <c r="B27" s="125"/>
+      <c r="C27" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D27" s="36" t="s">
+      <c r="D27" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="E27" s="14" t="s">
+      <c r="E27" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F27" s="37" t="s">
+      <c r="F27" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="G27" s="31"/>
+      <c r="G27" s="23"/>
     </row>
     <row r="28" spans="1:11" ht="21" hidden="1" customHeight="1" thickBot="1">
       <c r="A28" s="4"/>
-      <c r="B28" s="120"/>
-      <c r="C28" s="38"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="40"/>
-      <c r="G28" s="41"/>
+      <c r="B28" s="148"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="33"/>
     </row>
     <row r="29" spans="1:11" ht="18" customHeight="1" thickBot="1">
       <c r="A29" s="4"/>
-      <c r="B29" s="42"/>
-      <c r="C29" s="121" t="s">
+      <c r="B29" s="34"/>
+      <c r="C29" s="149" t="s">
         <v>30</v>
       </c>
-      <c r="D29" s="103"/>
-      <c r="E29" s="103"/>
-      <c r="F29" s="103"/>
-      <c r="G29" s="104"/>
+      <c r="D29" s="127"/>
+      <c r="E29" s="127"/>
+      <c r="F29" s="127"/>
+      <c r="G29" s="128"/>
     </row>
     <row r="31" spans="1:11">
-      <c r="C31" s="105"/>
-      <c r="D31" s="105"/>
-      <c r="E31" s="105"/>
-      <c r="F31" s="105"/>
+      <c r="C31" s="129"/>
+      <c r="D31" s="129"/>
+      <c r="E31" s="129"/>
+      <c r="F31" s="129"/>
     </row>
     <row r="32" spans="1:11" ht="17.25" customHeight="1">
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
     </row>
     <row r="33" spans="2:6">
-      <c r="B33" s="15"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="106"/>
-      <c r="E33" s="106"/>
-      <c r="F33" s="15"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="130"/>
+      <c r="E33" s="130"/>
+      <c r="F33" s="11"/>
     </row>
     <row r="34" spans="2:6">
-      <c r="B34" s="15"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
     </row>
     <row r="35" spans="2:6">
-      <c r="B35" s="15"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
     </row>
     <row r="36" spans="2:6">
-      <c r="B36" s="15"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
     </row>
     <row r="37" spans="2:6">
-      <c r="B37" s="15"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="15"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
     </row>
     <row r="38" spans="2:6">
-      <c r="B38" s="15"/>
-      <c r="C38" s="32"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
     </row>
     <row r="39" spans="2:6">
-      <c r="B39" s="15"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="43"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="15"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="35"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
     </row>
     <row r="40" spans="2:6">
-      <c r="B40" s="15"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="43"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="15"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="35"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
     </row>
     <row r="41" spans="2:6">
-      <c r="B41" s="15"/>
-      <c r="C41" s="15"/>
-      <c r="D41" s="43"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="15"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="35"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
     </row>
     <row r="42" spans="2:6">
-      <c r="B42" s="15"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="43"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="15"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="35"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
     </row>
     <row r="43" spans="2:6">
-      <c r="B43" s="15"/>
-      <c r="C43" s="15"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
     </row>
     <row r="44" spans="2:6">
-      <c r="B44" s="15"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="43"/>
-      <c r="E44" s="15"/>
-      <c r="F44" s="15"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="35"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
     </row>
     <row r="45" spans="2:6">
-      <c r="B45" s="15"/>
-      <c r="C45" s="15"/>
-      <c r="D45" s="43"/>
-      <c r="E45" s="15"/>
-      <c r="F45" s="15"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="35"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
     </row>
     <row r="46" spans="2:6">
-      <c r="B46" s="15"/>
-      <c r="C46" s="15"/>
-      <c r="D46" s="43"/>
-      <c r="E46" s="15"/>
-      <c r="F46" s="15"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="35"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
     </row>
     <row r="47" spans="2:6">
-      <c r="B47" s="15"/>
-      <c r="C47" s="15"/>
-      <c r="D47" s="15"/>
-      <c r="E47" s="15"/>
-      <c r="F47" s="15"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
     </row>
     <row r="48" spans="2:6">
-      <c r="B48" s="15"/>
-      <c r="C48" s="15"/>
-      <c r="D48" s="15"/>
-      <c r="E48" s="15"/>
-      <c r="F48" s="15"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
     </row>
     <row r="49" spans="2:6">
-      <c r="B49" s="15"/>
-      <c r="C49" s="15"/>
-      <c r="D49" s="15"/>
-      <c r="E49" s="15"/>
-      <c r="F49" s="15"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
     </row>
     <row r="50" spans="2:6">
-      <c r="B50" s="15"/>
-      <c r="C50" s="15"/>
-      <c r="D50" s="15"/>
-      <c r="E50" s="15"/>
-      <c r="F50" s="15"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
     </row>
     <row r="51" spans="2:6">
-      <c r="B51" s="15"/>
-      <c r="C51" s="44"/>
-      <c r="D51" s="15"/>
-      <c r="E51" s="15"/>
-      <c r="F51" s="15"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="36"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
     </row>
     <row r="52" spans="2:6">
-      <c r="B52" s="15"/>
-      <c r="C52" s="15"/>
-      <c r="D52" s="15"/>
-      <c r="E52" s="15"/>
-      <c r="F52" s="15"/>
+      <c r="B52" s="11"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
     </row>
     <row r="53" spans="2:6">
-      <c r="B53" s="15"/>
-      <c r="C53" s="15"/>
-      <c r="D53" s="15"/>
-      <c r="E53" s="15"/>
-      <c r="F53" s="15"/>
+      <c r="B53" s="11"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -4040,10 +4538,9 @@
     <hyperlink ref="F27" r:id="rId1" location="/entry/enko/9a2df76981ef447fa949ac8296afdb68" display="https://en.dict.naver.com/ - /entry/enko/9a2df76981ef447fa949ac8296afdb68"/>
     <hyperlink ref="D24" r:id="rId2" location="/entry/enko/aea797dad87d452f9f2d342cebfd264a" display="https://en.dict.naver.com/ - /entry/enko/aea797dad87d452f9f2d342cebfd264a"/>
     <hyperlink ref="E24" r:id="rId3" location="/entry/koen/a3cfe773c3ee4620ac4ee4a9e62b5ae1" display="https://en.dict.naver.com/ - /entry/koen/a3cfe773c3ee4620ac4ee4a9e62b5ae1"/>
-    <hyperlink ref="F19" r:id="rId4" location="/entry/enko/7e7750599090441bb8279331511168d3" display="/entry/enko/7e7750599090441bb8279331511168d3"/>
   </hyperlinks>
   <pageMargins left="0.04" right="0.04" top="0.35" bottom="0.35" header="0.31" footer="0"/>
-  <pageSetup paperSize="9" scale="56" orientation="landscape" r:id="rId5"/>
-  <drawing r:id="rId6"/>
+  <pageSetup paperSize="9" scale="56" orientation="landscape" r:id="rId4"/>
+  <drawing r:id="rId5"/>
 </worksheet>
 </file>
--- a/foodtable/1.xlsx
+++ b/foodtable/1.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2. 복리후생\2017년\3. 식당\2020년 식단표\0330\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2. 복리후생\2017년\3. 식당\2020년 식단표\0406\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="75" windowWidth="27975" windowHeight="12495"/>
   </bookViews>
   <sheets>
-    <sheet name="3.30학생식당 " sheetId="2" r:id="rId1"/>
-    <sheet name="3.30학생식당 - 영문" sheetId="1" r:id="rId2"/>
+    <sheet name="4.6학생식당 " sheetId="2" r:id="rId1"/>
+    <sheet name="4.6학생식당 - 영문" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="Excel_BuiltIn__FilterDatabase_1_1" localSheetId="0">#REF!</definedName>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="192">
   <si>
     <t xml:space="preserve">   weekly menu</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -268,537 +268,517 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>dried slices of daikon</t>
+  </si>
+  <si>
+    <t>토</t>
+  </si>
+  <si>
+    <t>일</t>
+  </si>
+  <si>
+    <t>*등뼈감자탕*</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>백미밥</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>어묵볶음</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>부추양파생채</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>섞박지</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>유부쑥갓국</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>카스테라꽈배기</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>계란후라이</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>상추쑥갓무침</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>포기김치</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>*해물순두부찌개*</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>*삼겹김치볶음밥*</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>야채소시지볶음</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>도시락김</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>시금치나물무침</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>맑은홍합국</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>돈육김치찜</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>일식두부조림</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>열무생채</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>포기김치</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.03.28</t>
+  </si>
+  <si>
+    <t>2020.03.29</t>
+  </si>
+  <si>
+    <t>cabbage wrap</t>
+  </si>
+  <si>
+    <t>Marinated Grilled Beef Slices</t>
+  </si>
+  <si>
+    <t>치즈부대찌개&amp;라면사리</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>철판두부김치두루치기</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>뚝배기함박파스타</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>왕삼뚱이</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>철판닭갈비정식</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>멘치까스오므라이스</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>치즈떡볶이돈까스</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼겹강된장비빔밥</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>차돌짬뽕</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>돈돈데리와퍼</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>백미밥</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>*산채나물비빔밥*</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>맑은콩나물국</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>미역국</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>청국장찌개</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>소고기육개장</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>동태찌개</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>오삼불고기</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>매운등갈비찜</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>핫도그&amp;케첩</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>마약계란</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>파채너비아니육전</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>어묵탕수</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>연두부&amp;양념장</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>오복지무침</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>돈육잡채</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>양념깻잎지</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>양배추쌈&amp;쌈장</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>비트무생채</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>요구르트</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>단배추겉절이</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>모듬야채겉절이</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>포기김치</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>*대패삼겹쫄면*</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>*노량진컵밥*</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>간장계란밥</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>뼈없는감자탕</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>순두부김치국</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>컵라면(셀프)</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>어묵국</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>김말이튀김</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>두부무조림</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>춘천닭갈비</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>감자튀김&amp;케첩</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>동그랑땡조림</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>그린샐러드</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>소시지야채볶음</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>셀프무쌈말이</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>단무지무침</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>카레소스</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>부추겉절이</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>땅콩조림</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>콩나물무침</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.04.06</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.04.07</t>
+  </si>
+  <si>
+    <t>2020.04.08</t>
+  </si>
+  <si>
+    <t>2020.04.09</t>
+  </si>
+  <si>
+    <t>2020.04.10</t>
+  </si>
+  <si>
+    <t>Cheese Sausage Stew</t>
+  </si>
+  <si>
+    <t xml:space="preserve">omelette rice </t>
+  </si>
+  <si>
+    <t>clear bean sprout soup</t>
+  </si>
+  <si>
+    <t>Squid and Pork Belly Bulgogi</t>
+  </si>
+  <si>
+    <t>Grilled Pork Belly Noodles</t>
+  </si>
+  <si>
+    <t>egg rice with soy sauce</t>
+  </si>
+  <si>
+    <t>Deep-fried Glass Noodles in Seaweed</t>
+  </si>
+  <si>
+    <t>ramen</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
     <t>Udon Jangguk/kimchi/extra dinner</t>
     <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>Seasoned Spinach</t>
-  </si>
-  <si>
-    <t>ramen</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>dried slices of daikon</t>
-  </si>
-  <si>
-    <t>토</t>
-  </si>
-  <si>
-    <t>일</t>
-  </si>
-  <si>
-    <t>*등뼈감자탕*</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>백미밥</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>어묵볶음</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>부추양파생채</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>섞박지</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>유부쑥갓국</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>카스테라꽈배기</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>계란후라이</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>상추쑥갓무침</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>포기김치</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>*해물순두부찌개*</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>*삼겹김치볶음밥*</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>야채소시지볶음</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>도시락김</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>시금치나물무침</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>맑은홍합국</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>돈육김치찜</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>일식두부조림</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>열무생채</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>포기김치</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020.03.28</t>
-  </si>
-  <si>
-    <t>2020.03.29</t>
-  </si>
-  <si>
-    <t>매운돼지갈비찜&amp;천사채샐러드</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>철판치즈돈까스</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>목살김치찌개&amp;땡초주먹밥</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>마라탄탄멘</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>구슬함박</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>장조림버터비빔밥</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>돈큐브스테이크덮밥</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>수제치킨가라아게덮밥</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>쌈밥정식</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>차슈덮밥</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020.03.30</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020.03.31</t>
-  </si>
-  <si>
-    <t>2020.04.01</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020.04.02</t>
-  </si>
-  <si>
-    <t>2020.04.03</t>
-  </si>
-  <si>
-    <t>백미밥</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>*잔치국수*</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>꽃게된장국</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>들깨미역국</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>추가백미밥</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>맑은감자국</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>닭개장</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>단호박닭조림</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>돼지갈비강정/갈비양념소스</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>생선까스&amp;타르D</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>돈육청경채숙주볶음</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>코다리베이비크랩강정</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>연근타르타르범벅</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>호박느타리볶음</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>단배추겉절이</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>마늘쫑떡볶음</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>부산비빔당면</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>물파래무침</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>시금치나물</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>요구르트</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>양배추쌈&amp;쌈장</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>깻잎지</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>포기김치</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>깍두기</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>*북성로불고기*</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>*베이컨마늘볶음밥*</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>올갱이국</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>수제비국</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>샤브샤브국</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>선짓국</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>숙주맥적구이</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>김치치즈함박S</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>미니우동</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>소떡소떡</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>파채너비아니구이</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>쥐어채조림</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>푸실리오리엔탈샐러드</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>양념부들어묵볶음</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>계란후라이</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>견과류멸치볶음</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>무말랭이</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>오이양파무침</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>양파장아찌</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>그린샐러드</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>도토리묵무침</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>Spicy Pork short ribs</t>
-  </si>
-  <si>
-    <t>Jangjorim Butter Bibimbap</t>
-  </si>
-  <si>
-    <t>crab bean paste soup</t>
-  </si>
-  <si>
-    <t>Braised sweet pumpkin chicken</t>
-  </si>
-  <si>
-    <t>lotus root tartar bulk</t>
-  </si>
-  <si>
-    <t>Seasoned green garlic seaweed flakes</t>
-  </si>
-  <si>
-    <t>a granite country</t>
-  </si>
-  <si>
-    <t>Roast bean sprouts</t>
-  </si>
-  <si>
-    <t>braised dried filefish</t>
   </si>
   <si>
     <t>polished rice</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>iron plate cheese pork cutlet</t>
-  </si>
-  <si>
-    <t>cube stake over rice</t>
-  </si>
-  <si>
-    <t>perilla seed seaweed soup</t>
-  </si>
-  <si>
-    <t>Grilled Pork Ribs</t>
-  </si>
-  <si>
-    <t>Stir-fried Pumpkin Nutari</t>
-  </si>
-  <si>
-    <t>sujebi soup</t>
-  </si>
-  <si>
-    <t>Kimchi cheese hamburg</t>
-  </si>
-  <si>
-    <t>Fucilioliental salad</t>
-  </si>
-  <si>
-    <t>seasoned cucumber onion</t>
+    <t>sweet and sour fish cake</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">kimchi </t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>green sald</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tofu Kimchi Duruchigi</t>
+  </si>
+  <si>
+    <t>Cheese Tteokbokki pork cutlet</t>
+  </si>
+  <si>
+    <t>sea mustard soup</t>
+  </si>
+  <si>
+    <t>Braised Spicy Back Ribs</t>
+  </si>
+  <si>
+    <t>Silken Beancurd</t>
+  </si>
+  <si>
+    <t>shredded daikon</t>
+  </si>
+  <si>
+    <t>Pork Back-bone Stew</t>
+  </si>
+  <si>
+    <t>braised tofu</t>
+  </si>
+  <si>
+    <t>Stir-fried Sausages and Vegetables</t>
+  </si>
+  <si>
+    <t>chives and leeks</t>
   </si>
   <si>
     <t>aqua pork curtlet</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>Udon Jangguk/kimchi/extra dinner</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">kimchi </t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pork neck kimchi stew</t>
-  </si>
-  <si>
-    <t>handmade chicken garagae overbap</t>
-  </si>
-  <si>
-    <t>Banquet Noodles</t>
-  </si>
-  <si>
-    <t>Fish Cutlet with Tartar Sauce</t>
-  </si>
-  <si>
-    <t>Fresh Kimchi</t>
-  </si>
-  <si>
-    <t>Bukseongno Bulgogi</t>
-  </si>
-  <si>
-    <t>Stir-fried Rice Cake</t>
-  </si>
-  <si>
-    <t>onion pickle</t>
+    <t>hamburg pasta</t>
+  </si>
+  <si>
+    <t>Samgyeopsal-riped equipment bibimbap</t>
+  </si>
+  <si>
+    <t>Vegetable vegetable bibimbap</t>
+  </si>
+  <si>
+    <t>Rich Soybean Paste Stew</t>
+  </si>
+  <si>
+    <t>Soft Tofu Kimchi Soup</t>
+  </si>
+  <si>
+    <t>Chuncheon-style Spicy Stir-fried Chicken</t>
+  </si>
+  <si>
+    <t>pork belly roll</t>
+  </si>
+  <si>
+    <t>hotdog&amp;ketchup</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>yogurt</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
+    <t>self radish wraps</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">peanut boiled down in soy sauce </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>beef brisket jjamppong</t>
+  </si>
+  <si>
+    <t>mixed dish of boiled bean threads</t>
+  </si>
+  <si>
+    <t>a single cabbage leaf</t>
+  </si>
+  <si>
+    <t>Pickled radish</t>
+  </si>
+  <si>
+    <t>beef meat stew</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>addictive egg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Noryangjin style Cup Rice</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cup ramen</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>french fried potato</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Set Menu with Spicy Stir-fried Chicken </t>
+  </si>
+  <si>
+    <t>Pollack Stew</t>
+  </si>
+  <si>
+    <t>seasoned perilla leaf paper</t>
+  </si>
+  <si>
+    <t>pickled vegetables</t>
+  </si>
+  <si>
+    <t>Fish cake soup</t>
+  </si>
+  <si>
+    <t>braised meatballs</t>
+  </si>
+  <si>
+    <t>Seasoned Bean Sprouts</t>
+  </si>
+  <si>
+    <t>pork cutlet and bulgogi bibimbap</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hamburger Steak&amp;salsd</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
     <t>polished rice</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>mini-udon</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Set Menu with Leaf Wraps and Rice</t>
-  </si>
-  <si>
-    <t>clear potato print</t>
-  </si>
-  <si>
-    <t>Stir-fried Pork Noodles and Vegetables</t>
-  </si>
-  <si>
-    <t>Stir-fried Rice Cake with Garlic Starch</t>
-  </si>
-  <si>
-    <t>cabbage wrap</t>
-  </si>
-  <si>
-    <t>bacon garlic fried rice</t>
-  </si>
-  <si>
-    <t>shabu shabu soup</t>
-  </si>
-  <si>
-    <t>Sotteok Sotteok</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mara- Tantan Noodles </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>fried egg</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>green salad</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rice with Chashu</t>
-  </si>
-  <si>
-    <t>Spicy Chicken Soup</t>
-  </si>
-  <si>
-    <t>Busan Bibimdangmyeon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sesame Leaves in Soy Sauce </t>
-  </si>
-  <si>
-    <t>Marinated Grilled Beef Slices</t>
-  </si>
-  <si>
-    <t>Stir-fried Nuts Anchovies</t>
-  </si>
-  <si>
-    <t>Seasoned Acorn Jelly Salad</t>
-  </si>
-  <si>
-    <t>hamburger Steak&amp;salsd</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hamburger Steak&amp;salsd</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>Kodari Crab gangjeong</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>polished rice</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020.04.01</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020.04.02</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020.03.03</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>curry sauce</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -809,7 +789,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="38">
+  <fonts count="36">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1069,22 +1049,6 @@
     <font>
       <b/>
       <sz val="9"/>
-      <color theme="1"/>
-      <name val="1훈떡볶이 R"/>
-      <family val="1"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1139,7 +1103,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="57">
+  <borders count="48">
     <border>
       <left/>
       <right/>
@@ -1639,34 +1603,62 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
+      <left style="medium">
+        <color rgb="FF000000"/>
       </left>
-      <right style="thin">
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
+      <top style="hair">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color rgb="FF000000"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
@@ -1676,38 +1668,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
@@ -1716,111 +1680,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="hair">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1834,7 +1693,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="157">
+  <cellXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1958,6 +1817,15 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1967,6 +1835,9 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2000,6 +1871,24 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2015,197 +1904,113 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2902,7 +2707,7 @@
   <dimension ref="A1:N50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -2920,47 +2725,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A1" s="131" t="s">
+      <c r="A1" s="113" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="131"/>
-      <c r="C1" s="131"/>
-      <c r="D1" s="131"/>
-      <c r="E1" s="131"/>
-      <c r="F1" s="131"/>
-      <c r="G1" s="131"/>
-      <c r="H1" s="131"/>
-      <c r="I1" s="131"/>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="113"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
     <row r="2" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A2" s="131"/>
-      <c r="B2" s="131"/>
-      <c r="C2" s="131"/>
-      <c r="D2" s="131"/>
-      <c r="E2" s="131"/>
-      <c r="F2" s="131"/>
-      <c r="G2" s="131"/>
-      <c r="H2" s="131"/>
-      <c r="I2" s="131"/>
+      <c r="A2" s="113"/>
+      <c r="B2" s="113"/>
+      <c r="C2" s="113"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="113"/>
+      <c r="F2" s="113"/>
+      <c r="G2" s="113"/>
+      <c r="H2" s="113"/>
+      <c r="I2" s="113"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A3" s="131"/>
-      <c r="B3" s="131"/>
-      <c r="C3" s="131"/>
-      <c r="D3" s="131"/>
-      <c r="E3" s="131"/>
-      <c r="F3" s="131"/>
-      <c r="G3" s="131"/>
-      <c r="H3" s="131"/>
-      <c r="I3" s="131"/>
+      <c r="A3" s="113"/>
+      <c r="B3" s="113"/>
+      <c r="C3" s="113"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="113"/>
+      <c r="G3" s="113"/>
+      <c r="H3" s="113"/>
+      <c r="I3" s="113"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
@@ -2972,12 +2777,12 @@
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
-      <c r="F4" s="132" t="s">
+      <c r="F4" s="114" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="132"/>
-      <c r="H4" s="132"/>
-      <c r="I4" s="133"/>
+      <c r="G4" s="114"/>
+      <c r="H4" s="114"/>
+      <c r="I4" s="115"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -2985,7 +2790,7 @@
     </row>
     <row r="5" spans="1:14" ht="16.5" customHeight="1">
       <c r="A5" s="4"/>
-      <c r="B5" s="134" t="s">
+      <c r="B5" s="116" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="37" t="s">
@@ -3000,110 +2805,110 @@
       <c r="F5" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="54" t="s">
+      <c r="G5" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="54" t="s">
-        <v>56</v>
-      </c>
-      <c r="I5" s="54" t="s">
-        <v>57</v>
+      <c r="H5" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="I5" s="58" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="18" customHeight="1" thickBot="1">
       <c r="A6" s="4"/>
-      <c r="B6" s="135"/>
+      <c r="B6" s="117"/>
       <c r="C6" s="38" t="s">
-        <v>90</v>
+        <v>132</v>
       </c>
       <c r="D6" s="38" t="s">
-        <v>91</v>
+        <v>133</v>
       </c>
       <c r="E6" s="38" t="s">
-        <v>92</v>
+        <v>134</v>
       </c>
       <c r="F6" s="38" t="s">
-        <v>93</v>
+        <v>135</v>
       </c>
       <c r="G6" s="38" t="s">
-        <v>94</v>
+        <v>136</v>
       </c>
       <c r="H6" s="38" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I6" s="38" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="18" customHeight="1">
       <c r="A7" s="4"/>
-      <c r="B7" s="136" t="s">
+      <c r="B7" s="118" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="87" t="s">
+      <c r="C7" s="71" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" s="72" t="s">
         <v>80</v>
       </c>
-      <c r="D7" s="88" t="s">
+      <c r="E7" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="E7" s="89" t="s">
+      <c r="F7" s="73" t="s">
         <v>82</v>
       </c>
-      <c r="F7" s="90" t="s">
+      <c r="G7" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="G7" s="91" t="s">
-        <v>84</v>
-      </c>
-      <c r="H7" s="144"/>
-      <c r="I7" s="146"/>
+      <c r="H7" s="126"/>
+      <c r="I7" s="128"/>
     </row>
     <row r="8" spans="1:14" ht="20.25" customHeight="1" thickBot="1">
       <c r="A8" s="4"/>
-      <c r="B8" s="137"/>
-      <c r="C8" s="92" t="s">
+      <c r="B8" s="119"/>
+      <c r="C8" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="D8" s="92" t="s">
+      <c r="E8" s="47" t="s">
         <v>86</v>
       </c>
-      <c r="E8" s="89" t="s">
+      <c r="F8" s="59" t="s">
         <v>87</v>
       </c>
-      <c r="F8" s="93" t="s">
+      <c r="G8" s="61" t="s">
         <v>88</v>
       </c>
-      <c r="G8" s="94" t="s">
-        <v>89</v>
-      </c>
-      <c r="H8" s="145"/>
-      <c r="I8" s="147"/>
+      <c r="H8" s="127"/>
+      <c r="I8" s="129"/>
     </row>
     <row r="9" spans="1:14" ht="20.25" customHeight="1">
       <c r="A9" s="4"/>
-      <c r="B9" s="138" t="s">
+      <c r="B9" s="120" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="95" t="s">
-        <v>95</v>
-      </c>
-      <c r="D9" s="96" t="s">
-        <v>95</v>
-      </c>
-      <c r="E9" s="97" t="s">
-        <v>96</v>
-      </c>
-      <c r="F9" s="98" t="s">
-        <v>95</v>
-      </c>
-      <c r="G9" s="98" t="s">
-        <v>95</v>
-      </c>
-      <c r="H9" s="55" t="s">
-        <v>58</v>
-      </c>
-      <c r="I9" s="41" t="s">
-        <v>68</v>
+      <c r="C9" s="74" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" s="62" t="s">
+        <v>89</v>
+      </c>
+      <c r="E9" s="76" t="s">
+        <v>90</v>
+      </c>
+      <c r="F9" s="75" t="s">
+        <v>89</v>
+      </c>
+      <c r="G9" s="62" t="s">
+        <v>89</v>
+      </c>
+      <c r="H9" s="65" t="s">
+        <v>55</v>
+      </c>
+      <c r="I9" s="44" t="s">
+        <v>65</v>
       </c>
       <c r="K9" s="13"/>
       <c r="L9" s="14"/>
@@ -3111,27 +2916,27 @@
     </row>
     <row r="10" spans="1:14" ht="20.25" customHeight="1">
       <c r="A10" s="4"/>
-      <c r="B10" s="139"/>
-      <c r="C10" s="99" t="s">
-        <v>97</v>
-      </c>
-      <c r="D10" s="100" t="s">
-        <v>98</v>
-      </c>
-      <c r="E10" s="101" t="s">
-        <v>99</v>
-      </c>
-      <c r="F10" s="102" t="s">
-        <v>100</v>
-      </c>
-      <c r="G10" s="102" t="s">
-        <v>101</v>
+      <c r="B10" s="121"/>
+      <c r="C10" s="70" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10" s="63" t="s">
+        <v>92</v>
+      </c>
+      <c r="E10" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="F10" s="77" t="s">
+        <v>94</v>
+      </c>
+      <c r="G10" s="63" t="s">
+        <v>95</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="I10" s="43" t="s">
-        <v>59</v>
+        <v>56</v>
+      </c>
+      <c r="I10" s="46" t="s">
+        <v>56</v>
       </c>
       <c r="K10" s="11"/>
       <c r="L10" s="11"/>
@@ -3140,27 +2945,27 @@
     </row>
     <row r="11" spans="1:14" ht="19.5" customHeight="1">
       <c r="A11" s="4"/>
-      <c r="B11" s="140"/>
-      <c r="C11" s="103" t="s">
-        <v>102</v>
-      </c>
-      <c r="D11" s="104" t="s">
-        <v>103</v>
-      </c>
-      <c r="E11" s="105" t="s">
-        <v>104</v>
-      </c>
-      <c r="F11" s="102" t="s">
-        <v>105</v>
-      </c>
-      <c r="G11" s="106" t="s">
-        <v>106</v>
-      </c>
-      <c r="H11" s="56" t="s">
-        <v>60</v>
-      </c>
-      <c r="I11" s="43" t="s">
-        <v>70</v>
+      <c r="B11" s="122"/>
+      <c r="C11" s="78" t="s">
+        <v>96</v>
+      </c>
+      <c r="D11" s="80" t="s">
+        <v>97</v>
+      </c>
+      <c r="E11" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="F11" s="79" t="s">
+        <v>99</v>
+      </c>
+      <c r="G11" s="80" t="s">
+        <v>100</v>
+      </c>
+      <c r="H11" s="66" t="s">
+        <v>57</v>
+      </c>
+      <c r="I11" s="46" t="s">
+        <v>67</v>
       </c>
       <c r="K11" s="11"/>
       <c r="L11" s="11"/>
@@ -3169,27 +2974,27 @@
     </row>
     <row r="12" spans="1:14" ht="21" customHeight="1">
       <c r="A12" s="4"/>
-      <c r="B12" s="140"/>
-      <c r="C12" s="99" t="s">
-        <v>107</v>
-      </c>
-      <c r="D12" s="100" t="s">
-        <v>108</v>
-      </c>
-      <c r="E12" s="101" t="s">
-        <v>109</v>
-      </c>
-      <c r="F12" s="102" t="s">
-        <v>110</v>
-      </c>
-      <c r="G12" s="102" t="s">
-        <v>111</v>
+      <c r="B12" s="122"/>
+      <c r="C12" s="70" t="s">
+        <v>101</v>
+      </c>
+      <c r="D12" s="63" t="s">
+        <v>102</v>
+      </c>
+      <c r="E12" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="F12" s="84" t="s">
+        <v>104</v>
+      </c>
+      <c r="G12" s="63" t="s">
+        <v>105</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="I12" s="43" t="s">
-        <v>71</v>
+        <v>58</v>
+      </c>
+      <c r="I12" s="46" t="s">
+        <v>68</v>
       </c>
       <c r="K12" s="11"/>
       <c r="L12" s="14"/>
@@ -3198,27 +3003,27 @@
     </row>
     <row r="13" spans="1:14" ht="18.75" customHeight="1">
       <c r="A13" s="4"/>
-      <c r="B13" s="140"/>
-      <c r="C13" s="103" t="s">
-        <v>112</v>
-      </c>
-      <c r="D13" s="100" t="s">
-        <v>113</v>
-      </c>
-      <c r="E13" s="101" t="s">
-        <v>114</v>
-      </c>
-      <c r="F13" s="102" t="s">
-        <v>115</v>
-      </c>
-      <c r="G13" s="102" t="s">
-        <v>116</v>
+      <c r="B13" s="122"/>
+      <c r="C13" s="78" t="s">
+        <v>106</v>
+      </c>
+      <c r="D13" s="63" t="s">
+        <v>107</v>
+      </c>
+      <c r="E13" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="F13" s="77" t="s">
+        <v>109</v>
+      </c>
+      <c r="G13" s="63" t="s">
+        <v>110</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="I13" s="43" t="s">
-        <v>72</v>
+        <v>59</v>
+      </c>
+      <c r="I13" s="46" t="s">
+        <v>69</v>
       </c>
       <c r="K13" s="11"/>
       <c r="L13" s="11"/>
@@ -3227,25 +3032,25 @@
     </row>
     <row r="14" spans="1:14" ht="18" customHeight="1" thickBot="1">
       <c r="A14" s="4"/>
-      <c r="B14" s="140"/>
-      <c r="C14" s="103" t="s">
-        <v>117</v>
-      </c>
-      <c r="D14" s="107" t="s">
-        <v>117</v>
-      </c>
-      <c r="E14" s="101" t="s">
-        <v>118</v>
-      </c>
-      <c r="F14" s="108" t="s">
-        <v>117</v>
-      </c>
-      <c r="G14" s="108" t="s">
-        <v>117</v>
-      </c>
-      <c r="H14" s="57"/>
-      <c r="I14" s="46" t="s">
-        <v>67</v>
+      <c r="B14" s="122"/>
+      <c r="C14" s="78" t="s">
+        <v>111</v>
+      </c>
+      <c r="D14" s="64" t="s">
+        <v>111</v>
+      </c>
+      <c r="E14" s="40" t="s">
+        <v>111</v>
+      </c>
+      <c r="F14" s="81" t="s">
+        <v>111</v>
+      </c>
+      <c r="G14" s="64" t="s">
+        <v>111</v>
+      </c>
+      <c r="H14" s="67"/>
+      <c r="I14" s="50" t="s">
+        <v>64</v>
       </c>
       <c r="K14" s="11"/>
       <c r="L14" s="14"/>
@@ -3254,29 +3059,29 @@
     </row>
     <row r="15" spans="1:14" ht="18.75" customHeight="1">
       <c r="A15" s="4"/>
-      <c r="B15" s="141" t="s">
+      <c r="B15" s="123" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="109" t="s">
-        <v>95</v>
-      </c>
-      <c r="D15" s="110" t="s">
-        <v>95</v>
-      </c>
-      <c r="E15" s="96" t="s">
-        <v>119</v>
-      </c>
-      <c r="F15" s="111" t="s">
-        <v>120</v>
-      </c>
-      <c r="G15" s="112" t="s">
-        <v>95</v>
-      </c>
-      <c r="H15" s="58" t="s">
-        <v>69</v>
-      </c>
-      <c r="I15" s="47" t="s">
-        <v>59</v>
+      <c r="C15" s="75" t="s">
+        <v>112</v>
+      </c>
+      <c r="D15" s="85" t="s">
+        <v>89</v>
+      </c>
+      <c r="E15" s="75" t="s">
+        <v>89</v>
+      </c>
+      <c r="F15" s="68" t="s">
+        <v>113</v>
+      </c>
+      <c r="G15" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="H15" s="68" t="s">
+        <v>66</v>
+      </c>
+      <c r="I15" s="51" t="s">
+        <v>56</v>
       </c>
       <c r="K15" s="18"/>
       <c r="L15" s="11"/>
@@ -3285,27 +3090,27 @@
     </row>
     <row r="16" spans="1:14" ht="18" customHeight="1">
       <c r="A16" s="4"/>
-      <c r="B16" s="142"/>
-      <c r="C16" s="113" t="s">
-        <v>121</v>
-      </c>
-      <c r="D16" s="114" t="s">
-        <v>122</v>
-      </c>
-      <c r="E16" s="100" t="s">
-        <v>95</v>
-      </c>
-      <c r="F16" s="101" t="s">
-        <v>123</v>
-      </c>
-      <c r="G16" s="113" t="s">
-        <v>124</v>
+      <c r="B16" s="124"/>
+      <c r="C16" s="84" t="s">
+        <v>114</v>
+      </c>
+      <c r="D16" s="86" t="s">
+        <v>115</v>
+      </c>
+      <c r="E16" s="77" t="s">
+        <v>116</v>
+      </c>
+      <c r="F16" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="G16" s="45" t="s">
+        <v>118</v>
       </c>
       <c r="H16" s="40" t="s">
-        <v>63</v>
-      </c>
-      <c r="I16" s="42" t="s">
-        <v>73</v>
+        <v>60</v>
+      </c>
+      <c r="I16" s="45" t="s">
+        <v>70</v>
       </c>
       <c r="K16" s="18"/>
       <c r="L16" s="14"/>
@@ -3314,27 +3119,27 @@
     </row>
     <row r="17" spans="1:14" ht="20.25" customHeight="1">
       <c r="A17" s="4"/>
-      <c r="B17" s="142"/>
-      <c r="C17" s="115" t="s">
-        <v>125</v>
-      </c>
-      <c r="D17" s="114" t="s">
-        <v>126</v>
-      </c>
-      <c r="E17" s="100" t="s">
-        <v>127</v>
-      </c>
-      <c r="F17" s="101" t="s">
-        <v>128</v>
-      </c>
-      <c r="G17" s="116" t="s">
-        <v>129</v>
+      <c r="B17" s="124"/>
+      <c r="C17" s="84" t="s">
+        <v>119</v>
+      </c>
+      <c r="D17" s="87" t="s">
+        <v>120</v>
+      </c>
+      <c r="E17" s="77" t="s">
+        <v>121</v>
+      </c>
+      <c r="F17" s="40" t="s">
+        <v>122</v>
+      </c>
+      <c r="G17" s="82" t="s">
+        <v>123</v>
       </c>
       <c r="H17" s="40" t="s">
-        <v>64</v>
-      </c>
-      <c r="I17" s="48" t="s">
-        <v>74</v>
+        <v>61</v>
+      </c>
+      <c r="I17" s="52" t="s">
+        <v>71</v>
       </c>
       <c r="K17" s="18"/>
       <c r="L17" s="11"/>
@@ -3343,27 +3148,27 @@
     </row>
     <row r="18" spans="1:14" ht="20.25" customHeight="1">
       <c r="A18" s="4"/>
-      <c r="B18" s="142"/>
-      <c r="C18" s="113" t="s">
-        <v>130</v>
-      </c>
-      <c r="D18" s="117" t="s">
-        <v>131</v>
-      </c>
-      <c r="E18" s="100" t="s">
-        <v>132</v>
-      </c>
-      <c r="F18" s="101" t="s">
-        <v>133</v>
-      </c>
-      <c r="G18" s="118" t="s">
-        <v>134</v>
+      <c r="B18" s="124"/>
+      <c r="C18" s="77" t="s">
+        <v>124</v>
+      </c>
+      <c r="D18" s="86" t="s">
+        <v>125</v>
+      </c>
+      <c r="E18" s="77" t="s">
+        <v>126</v>
+      </c>
+      <c r="F18" s="40" t="s">
+        <v>127</v>
+      </c>
+      <c r="G18" s="83" t="s">
+        <v>128</v>
       </c>
       <c r="H18" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="I18" s="42" t="s">
-        <v>75</v>
+        <v>62</v>
+      </c>
+      <c r="I18" s="45" t="s">
+        <v>72</v>
       </c>
       <c r="K18" s="18"/>
       <c r="L18" s="11"/>
@@ -3372,27 +3177,27 @@
     </row>
     <row r="19" spans="1:14" ht="21.75" customHeight="1">
       <c r="A19" s="4"/>
-      <c r="B19" s="142"/>
-      <c r="C19" s="119" t="s">
-        <v>135</v>
-      </c>
-      <c r="D19" s="117" t="s">
-        <v>136</v>
-      </c>
-      <c r="E19" s="100" t="s">
-        <v>137</v>
-      </c>
-      <c r="F19" s="101" t="s">
-        <v>138</v>
-      </c>
-      <c r="G19" s="113" t="s">
-        <v>139</v>
+      <c r="B19" s="124"/>
+      <c r="C19" s="77" t="s">
+        <v>111</v>
+      </c>
+      <c r="D19" s="88" t="s">
+        <v>129</v>
+      </c>
+      <c r="E19" s="77" t="s">
+        <v>130</v>
+      </c>
+      <c r="F19" s="40" t="s">
+        <v>111</v>
+      </c>
+      <c r="G19" s="45" t="s">
+        <v>131</v>
       </c>
       <c r="H19" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="I19" s="42" t="s">
-        <v>76</v>
+        <v>63</v>
+      </c>
+      <c r="I19" s="45" t="s">
+        <v>73</v>
       </c>
       <c r="K19" s="18"/>
       <c r="L19" s="11"/>
@@ -3401,27 +3206,23 @@
     </row>
     <row r="20" spans="1:14" ht="19.5" customHeight="1" thickBot="1">
       <c r="A20" s="4"/>
-      <c r="B20" s="143"/>
-      <c r="C20" s="120" t="s">
-        <v>117</v>
-      </c>
-      <c r="D20" s="121" t="s">
-        <v>117</v>
-      </c>
-      <c r="E20" s="107" t="s">
-        <v>117</v>
-      </c>
-      <c r="F20" s="122" t="s">
-        <v>117</v>
-      </c>
-      <c r="G20" s="123" t="s">
-        <v>117</v>
-      </c>
-      <c r="H20" s="59" t="s">
-        <v>67</v>
-      </c>
-      <c r="I20" s="50" t="s">
-        <v>67</v>
+      <c r="B20" s="125"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="89" t="s">
+        <v>111</v>
+      </c>
+      <c r="E20" s="81" t="s">
+        <v>111</v>
+      </c>
+      <c r="F20" s="69"/>
+      <c r="G20" s="48" t="s">
+        <v>111</v>
+      </c>
+      <c r="H20" s="69" t="s">
+        <v>64</v>
+      </c>
+      <c r="I20" s="54" t="s">
+        <v>64</v>
       </c>
       <c r="L20" s="11"/>
       <c r="M20" s="24"/>
@@ -3429,145 +3230,145 @@
     </row>
     <row r="21" spans="1:14" ht="20.25" hidden="1" customHeight="1">
       <c r="A21" s="4"/>
-      <c r="B21" s="124" t="s">
+      <c r="B21" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="44" t="s">
-        <v>77</v>
-      </c>
-      <c r="D21" s="49"/>
-      <c r="E21" s="50" t="s">
-        <v>77</v>
-      </c>
-      <c r="F21" s="50" t="s">
-        <v>77</v>
-      </c>
-      <c r="G21" s="50"/>
-      <c r="H21" s="51"/>
-      <c r="I21" s="51"/>
+      <c r="C21" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" s="53"/>
+      <c r="E21" s="54" t="s">
+        <v>74</v>
+      </c>
+      <c r="F21" s="54" t="s">
+        <v>74</v>
+      </c>
+      <c r="G21" s="54"/>
+      <c r="H21" s="55"/>
+      <c r="I21" s="55"/>
       <c r="L21" s="21"/>
       <c r="M21" s="24"/>
       <c r="N21" s="11"/>
     </row>
     <row r="22" spans="1:14" ht="18" hidden="1" customHeight="1">
       <c r="A22" s="4"/>
-      <c r="B22" s="125"/>
+      <c r="B22" s="107"/>
       <c r="C22" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="D22" s="42" t="s">
+      <c r="D22" s="45" t="s">
         <v>36</v>
       </c>
       <c r="E22" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="F22" s="42" t="s">
+      <c r="F22" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="G22" s="42"/>
-      <c r="H22" s="42"/>
-      <c r="I22" s="42"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="45"/>
       <c r="L22" s="24"/>
       <c r="M22" s="24"/>
       <c r="N22" s="11"/>
     </row>
     <row r="23" spans="1:14" ht="18.75" hidden="1" customHeight="1">
       <c r="A23" s="4"/>
-      <c r="B23" s="125"/>
-      <c r="C23" s="51" t="s">
+      <c r="B23" s="107"/>
+      <c r="C23" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="D23" s="42" t="s">
+      <c r="D23" s="45" t="s">
         <v>37</v>
       </c>
       <c r="E23" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="F23" s="42" t="s">
+      <c r="F23" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="G23" s="42"/>
-      <c r="H23" s="42"/>
-      <c r="I23" s="48"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="52"/>
       <c r="L23" s="24"/>
       <c r="M23" s="24"/>
       <c r="N23" s="11"/>
     </row>
     <row r="24" spans="1:14" ht="18" hidden="1" customHeight="1">
       <c r="A24" s="4"/>
-      <c r="B24" s="125"/>
+      <c r="B24" s="107"/>
       <c r="C24" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="D24" s="42" t="s">
+      <c r="D24" s="45" t="s">
         <v>38</v>
       </c>
       <c r="E24" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="F24" s="42" t="s">
+      <c r="F24" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="G24" s="42"/>
-      <c r="H24" s="42"/>
-      <c r="I24" s="42"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="45"/>
+      <c r="I24" s="45"/>
       <c r="L24" s="24"/>
       <c r="M24" s="24"/>
       <c r="N24" s="11"/>
     </row>
     <row r="25" spans="1:14" ht="19.5" hidden="1" customHeight="1">
       <c r="A25" s="4"/>
-      <c r="B25" s="125"/>
+      <c r="B25" s="107"/>
       <c r="C25" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="D25" s="42" t="s">
+      <c r="D25" s="45" t="s">
         <v>34</v>
       </c>
       <c r="E25" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="F25" s="42" t="s">
+      <c r="F25" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="G25" s="42"/>
-      <c r="H25" s="42"/>
-      <c r="I25" s="42"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="45"/>
       <c r="L25" s="11"/>
       <c r="M25" s="11"/>
       <c r="N25" s="11"/>
     </row>
     <row r="26" spans="1:14" ht="21" hidden="1" customHeight="1" thickBot="1">
       <c r="A26" s="4"/>
-      <c r="B26" s="125"/>
-      <c r="C26" s="44"/>
-      <c r="D26" s="44"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="44"/>
-      <c r="H26" s="44"/>
-      <c r="I26" s="44"/>
+      <c r="B26" s="107"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="48"/>
+      <c r="I26" s="48"/>
     </row>
     <row r="27" spans="1:14" ht="18" customHeight="1" thickBot="1">
       <c r="A27" s="4"/>
-      <c r="B27" s="52"/>
-      <c r="C27" s="126" t="s">
+      <c r="B27" s="56"/>
+      <c r="C27" s="108" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="127"/>
-      <c r="E27" s="127"/>
-      <c r="F27" s="127"/>
-      <c r="G27" s="127"/>
-      <c r="H27" s="127"/>
-      <c r="I27" s="128"/>
+      <c r="D27" s="109"/>
+      <c r="E27" s="109"/>
+      <c r="F27" s="109"/>
+      <c r="G27" s="109"/>
+      <c r="H27" s="109"/>
+      <c r="I27" s="110"/>
     </row>
     <row r="29" spans="1:14">
-      <c r="C29" s="129"/>
-      <c r="D29" s="129"/>
-      <c r="E29" s="129"/>
-      <c r="F29" s="129"/>
-      <c r="G29" s="53"/>
-      <c r="H29" s="53"/>
+      <c r="C29" s="111"/>
+      <c r="D29" s="111"/>
+      <c r="E29" s="111"/>
+      <c r="F29" s="111"/>
+      <c r="G29" s="57"/>
+      <c r="H29" s="57"/>
     </row>
     <row r="30" spans="1:14" ht="17.25" customHeight="1">
       <c r="B30" s="11"/>
@@ -3581,8 +3382,8 @@
     <row r="31" spans="1:14">
       <c r="B31" s="11"/>
       <c r="C31" s="21"/>
-      <c r="D31" s="130"/>
-      <c r="E31" s="130"/>
+      <c r="D31" s="112"/>
+      <c r="E31" s="112"/>
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
       <c r="H31" s="11"/>
@@ -3788,7 +3589,7 @@
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -3805,41 +3606,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="21" customHeight="1">
-      <c r="A1" s="150" t="s">
+      <c r="A1" s="132" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="151"/>
-      <c r="C1" s="151"/>
-      <c r="D1" s="151"/>
-      <c r="E1" s="151"/>
-      <c r="F1" s="151"/>
-      <c r="G1" s="151"/>
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="133"/>
+      <c r="G1" s="133"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:11" ht="21" customHeight="1">
-      <c r="A2" s="151"/>
-      <c r="B2" s="151"/>
-      <c r="C2" s="151"/>
-      <c r="D2" s="151"/>
-      <c r="E2" s="151"/>
-      <c r="F2" s="151"/>
-      <c r="G2" s="151"/>
+      <c r="A2" s="133"/>
+      <c r="B2" s="133"/>
+      <c r="C2" s="133"/>
+      <c r="D2" s="133"/>
+      <c r="E2" s="133"/>
+      <c r="F2" s="133"/>
+      <c r="G2" s="133"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="21" customHeight="1">
-      <c r="A3" s="151"/>
-      <c r="B3" s="151"/>
-      <c r="C3" s="151"/>
-      <c r="D3" s="151"/>
-      <c r="E3" s="151"/>
-      <c r="F3" s="151"/>
-      <c r="G3" s="151"/>
+      <c r="A3" s="133"/>
+      <c r="B3" s="133"/>
+      <c r="C3" s="133"/>
+      <c r="D3" s="133"/>
+      <c r="E3" s="133"/>
+      <c r="F3" s="133"/>
+      <c r="G3" s="133"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -3851,10 +3652,10 @@
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
-      <c r="F4" s="152" t="s">
+      <c r="F4" s="134" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="153"/>
+      <c r="G4" s="135"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -3862,7 +3663,7 @@
     </row>
     <row r="5" spans="1:11" ht="16.5" customHeight="1">
       <c r="A5" s="4"/>
-      <c r="B5" s="154" t="s">
+      <c r="B5" s="136" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -3881,82 +3682,82 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="18" customHeight="1">
+    <row r="6" spans="1:11" ht="18" customHeight="1" thickBot="1">
       <c r="A6" s="4"/>
-      <c r="B6" s="155"/>
+      <c r="B6" s="137"/>
       <c r="C6" s="7" t="s">
-        <v>90</v>
+        <v>132</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>91</v>
+        <v>133</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>195</v>
+        <v>134</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>196</v>
+        <v>135</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>197</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="18" customHeight="1">
       <c r="A7" s="4"/>
-      <c r="B7" s="156" t="s">
+      <c r="B7" s="138" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="60" t="s">
-        <v>140</v>
-      </c>
-      <c r="D7" s="77" t="s">
+      <c r="C7" s="90" t="s">
+        <v>137</v>
+      </c>
+      <c r="D7" s="90" t="s">
         <v>150</v>
       </c>
-      <c r="E7" s="70" t="s">
-        <v>162</v>
-      </c>
-      <c r="F7" s="70" t="s">
+      <c r="E7" s="90" t="s">
+        <v>161</v>
+      </c>
+      <c r="F7" s="90" t="s">
+        <v>167</v>
+      </c>
+      <c r="G7" s="99" t="s">
         <v>181</v>
-      </c>
-      <c r="G7" s="86" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
       <c r="A8" s="4"/>
-      <c r="B8" s="137"/>
-      <c r="C8" s="61" t="s">
-        <v>141</v>
-      </c>
-      <c r="D8" s="74" t="s">
+      <c r="B8" s="119"/>
+      <c r="C8" s="91" t="s">
+        <v>138</v>
+      </c>
+      <c r="D8" s="95" t="s">
         <v>151</v>
       </c>
-      <c r="E8" s="61" t="s">
-        <v>163</v>
-      </c>
-      <c r="F8" s="68" t="s">
-        <v>173</v>
-      </c>
-      <c r="G8" s="61" t="s">
-        <v>184</v>
+      <c r="E8" s="104" t="s">
+        <v>162</v>
+      </c>
+      <c r="F8" s="95" t="s">
+        <v>172</v>
+      </c>
+      <c r="G8" s="92" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="20.25" hidden="1" customHeight="1">
       <c r="A9" s="4"/>
-      <c r="B9" s="137"/>
-      <c r="C9" s="62" t="s">
-        <v>54</v>
-      </c>
-      <c r="D9" s="75" t="s">
-        <v>159</v>
-      </c>
-      <c r="E9" s="68" t="s">
+      <c r="B9" s="119"/>
+      <c r="C9" s="92" t="s">
+        <v>144</v>
+      </c>
+      <c r="D9" s="92" t="s">
+        <v>160</v>
+      </c>
+      <c r="E9" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="71" t="s">
+      <c r="F9" s="101" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="71" t="s">
-        <v>192</v>
+      <c r="G9" s="101" t="s">
+        <v>189</v>
       </c>
       <c r="I9" s="11"/>
       <c r="J9" s="11"/>
@@ -3967,20 +3768,20 @@
       <c r="B10" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10" s="78" t="s">
-        <v>160</v>
-      </c>
-      <c r="E10" s="81" t="s">
-        <v>160</v>
-      </c>
-      <c r="F10" s="82" t="s">
-        <v>160</v>
-      </c>
-      <c r="G10" s="82" t="s">
-        <v>160</v>
+      <c r="C10" s="93" t="s">
+        <v>145</v>
+      </c>
+      <c r="D10" s="98" t="s">
+        <v>145</v>
+      </c>
+      <c r="E10" s="102" t="s">
+        <v>145</v>
+      </c>
+      <c r="F10" s="93" t="s">
+        <v>145</v>
+      </c>
+      <c r="G10" s="93" t="s">
+        <v>145</v>
       </c>
       <c r="I10" s="11"/>
       <c r="J10" s="11"/>
@@ -3988,22 +3789,22 @@
     </row>
     <row r="11" spans="1:11" ht="20.25" customHeight="1">
       <c r="A11" s="4"/>
-      <c r="B11" s="138" t="s">
+      <c r="B11" s="120" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="64" t="s">
-        <v>149</v>
-      </c>
-      <c r="D11" s="73" t="s">
+      <c r="C11" s="94" t="s">
+        <v>146</v>
+      </c>
+      <c r="D11" s="99" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="60" t="s">
-        <v>164</v>
-      </c>
-      <c r="F11" s="83" t="s">
-        <v>171</v>
-      </c>
-      <c r="G11" s="83" t="s">
+      <c r="E11" s="95" t="s">
+        <v>163</v>
+      </c>
+      <c r="F11" s="94" t="s">
+        <v>146</v>
+      </c>
+      <c r="G11" s="94" t="s">
         <v>11</v>
       </c>
       <c r="I11" s="13"/>
@@ -4012,65 +3813,65 @@
     </row>
     <row r="12" spans="1:11" ht="20.25" customHeight="1">
       <c r="A12" s="4"/>
-      <c r="B12" s="139"/>
-      <c r="C12" s="61" t="s">
-        <v>142</v>
-      </c>
-      <c r="D12" s="74" t="s">
+      <c r="B12" s="121"/>
+      <c r="C12" s="95" t="s">
+        <v>139</v>
+      </c>
+      <c r="D12" s="92" t="s">
         <v>152</v>
       </c>
-      <c r="E12" s="68" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="61" t="s">
-        <v>174</v>
-      </c>
-      <c r="G12" s="68" t="s">
-        <v>185</v>
+      <c r="E12" s="92" t="s">
+        <v>164</v>
+      </c>
+      <c r="F12" s="95" t="s">
+        <v>176</v>
+      </c>
+      <c r="G12" s="92" t="s">
+        <v>182</v>
       </c>
       <c r="I12" s="11"/>
       <c r="J12" s="11"/>
       <c r="K12" s="11"/>
     </row>
-    <row r="13" spans="1:11" ht="19.5" customHeight="1" thickBot="1">
+    <row r="13" spans="1:11" ht="19.5" customHeight="1">
       <c r="A13" s="4"/>
-      <c r="B13" s="140"/>
-      <c r="C13" s="61" t="s">
-        <v>143</v>
-      </c>
-      <c r="D13" s="74" t="s">
+      <c r="B13" s="122"/>
+      <c r="C13" s="92" t="s">
+        <v>140</v>
+      </c>
+      <c r="D13" s="95" t="s">
         <v>153</v>
       </c>
-      <c r="E13" s="68" t="s">
-        <v>165</v>
-      </c>
-      <c r="F13" s="61" t="s">
-        <v>175</v>
-      </c>
-      <c r="G13" s="61" t="s">
-        <v>193</v>
+      <c r="E13" s="92" t="s">
+        <v>168</v>
+      </c>
+      <c r="F13" s="95" t="s">
+        <v>177</v>
+      </c>
+      <c r="G13" s="92" t="s">
+        <v>78</v>
       </c>
       <c r="I13" s="11"/>
       <c r="J13" s="11"/>
       <c r="K13" s="11"/>
     </row>
-    <row r="14" spans="1:11" ht="21" customHeight="1">
+    <row r="14" spans="1:11" ht="21" customHeight="1" thickBot="1">
       <c r="A14" s="4"/>
-      <c r="B14" s="140"/>
-      <c r="C14" s="65" t="s">
-        <v>144</v>
-      </c>
-      <c r="D14" s="74" t="s">
+      <c r="B14" s="122"/>
+      <c r="C14" s="92" t="s">
+        <v>147</v>
+      </c>
+      <c r="D14" s="92" t="s">
         <v>154</v>
       </c>
-      <c r="E14" s="68" t="s">
-        <v>166</v>
-      </c>
-      <c r="F14" s="61" t="s">
-        <v>176</v>
-      </c>
-      <c r="G14" s="61" t="s">
-        <v>186</v>
+      <c r="E14" s="92" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" s="92" t="s">
+        <v>173</v>
+      </c>
+      <c r="G14" s="95" t="s">
+        <v>183</v>
       </c>
       <c r="I14" s="11"/>
       <c r="J14" s="14"/>
@@ -4078,21 +3879,21 @@
     </row>
     <row r="15" spans="1:11" ht="18.75" customHeight="1">
       <c r="A15" s="4"/>
-      <c r="B15" s="140"/>
-      <c r="C15" s="61" t="s">
-        <v>145</v>
-      </c>
-      <c r="D15" s="75" t="s">
-        <v>53</v>
-      </c>
-      <c r="E15" s="61" t="s">
-        <v>170</v>
-      </c>
-      <c r="F15" s="61" t="s">
-        <v>177</v>
-      </c>
-      <c r="G15" s="68" t="s">
-        <v>187</v>
+      <c r="B15" s="122"/>
+      <c r="C15" s="95" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" s="92" t="s">
+        <v>155</v>
+      </c>
+      <c r="E15" s="95" t="s">
+        <v>169</v>
+      </c>
+      <c r="F15" s="95" t="s">
+        <v>174</v>
+      </c>
+      <c r="G15" s="105" t="s">
+        <v>184</v>
       </c>
       <c r="I15" s="11"/>
       <c r="J15" s="11"/>
@@ -4100,21 +3901,21 @@
     </row>
     <row r="16" spans="1:11" ht="18" customHeight="1" thickBot="1">
       <c r="A16" s="4"/>
-      <c r="B16" s="140"/>
-      <c r="C16" s="66" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="76" t="s">
-        <v>161</v>
-      </c>
-      <c r="E16" s="72" t="s">
-        <v>161</v>
-      </c>
-      <c r="F16" s="84" t="s">
-        <v>161</v>
-      </c>
-      <c r="G16" s="84" t="s">
-        <v>161</v>
+      <c r="B16" s="122"/>
+      <c r="C16" s="96" t="s">
+        <v>148</v>
+      </c>
+      <c r="D16" s="100" t="s">
+        <v>148</v>
+      </c>
+      <c r="E16" s="103" t="s">
+        <v>148</v>
+      </c>
+      <c r="F16" s="97" t="s">
+        <v>148</v>
+      </c>
+      <c r="G16" s="97" t="s">
+        <v>148</v>
       </c>
       <c r="I16" s="11"/>
       <c r="J16" s="14"/>
@@ -4122,23 +3923,23 @@
     </row>
     <row r="17" spans="1:11" ht="18.75" customHeight="1">
       <c r="A17" s="4"/>
-      <c r="B17" s="141" t="s">
+      <c r="B17" s="123" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="67" t="s">
+      <c r="C17" s="95" t="s">
+        <v>141</v>
+      </c>
+      <c r="D17" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="79" t="s">
+      <c r="E17" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="61" t="s">
-        <v>167</v>
-      </c>
-      <c r="F17" s="61" t="s">
+      <c r="F17" s="95" t="s">
         <v>178</v>
       </c>
-      <c r="G17" s="83" t="s">
-        <v>194</v>
+      <c r="G17" s="94" t="s">
+        <v>190</v>
       </c>
       <c r="I17" s="18"/>
       <c r="J17" s="11"/>
@@ -4146,21 +3947,21 @@
     </row>
     <row r="18" spans="1:11" ht="18" customHeight="1">
       <c r="A18" s="4"/>
-      <c r="B18" s="142"/>
-      <c r="C18" s="61" t="s">
-        <v>146</v>
-      </c>
-      <c r="D18" s="74" t="s">
-        <v>155</v>
-      </c>
-      <c r="E18" s="61" t="s">
-        <v>171</v>
-      </c>
-      <c r="F18" s="61" t="s">
+      <c r="B18" s="124"/>
+      <c r="C18" s="95" t="s">
+        <v>142</v>
+      </c>
+      <c r="D18" s="92" t="s">
+        <v>156</v>
+      </c>
+      <c r="E18" s="95" t="s">
+        <v>165</v>
+      </c>
+      <c r="F18" s="95" t="s">
         <v>179</v>
       </c>
-      <c r="G18" s="61" t="s">
-        <v>162</v>
+      <c r="G18" s="95" t="s">
+        <v>185</v>
       </c>
       <c r="I18" s="18"/>
       <c r="J18" s="14"/>
@@ -4168,21 +3969,21 @@
     </row>
     <row r="19" spans="1:11" ht="20.25" customHeight="1">
       <c r="A19" s="4"/>
-      <c r="B19" s="142"/>
-      <c r="C19" s="61" t="s">
-        <v>147</v>
-      </c>
-      <c r="D19" s="74" t="s">
-        <v>156</v>
-      </c>
-      <c r="E19" s="61" t="s">
-        <v>172</v>
-      </c>
-      <c r="F19" s="61" t="s">
+      <c r="B19" s="124"/>
+      <c r="C19" s="92" t="s">
+        <v>143</v>
+      </c>
+      <c r="D19" s="95" t="s">
+        <v>157</v>
+      </c>
+      <c r="E19" s="92" t="s">
+        <v>166</v>
+      </c>
+      <c r="F19" s="95" t="s">
         <v>180</v>
       </c>
-      <c r="G19" s="68" t="s">
-        <v>188</v>
+      <c r="G19" s="95" t="s">
+        <v>186</v>
       </c>
       <c r="I19" s="18"/>
       <c r="J19" s="11"/>
@@ -4190,21 +3991,21 @@
     </row>
     <row r="20" spans="1:11" ht="20.25" customHeight="1">
       <c r="A20" s="4"/>
-      <c r="B20" s="142"/>
-      <c r="C20" s="61" t="s">
-        <v>148</v>
-      </c>
-      <c r="D20" s="74" t="s">
-        <v>157</v>
-      </c>
-      <c r="E20" s="61" t="s">
-        <v>168</v>
-      </c>
-      <c r="F20" s="71" t="s">
-        <v>182</v>
-      </c>
-      <c r="G20" s="61" t="s">
-        <v>189</v>
+      <c r="B20" s="124"/>
+      <c r="C20" s="95" t="s">
+        <v>149</v>
+      </c>
+      <c r="D20" s="92" t="s">
+        <v>158</v>
+      </c>
+      <c r="E20" s="95" t="s">
+        <v>170</v>
+      </c>
+      <c r="F20" s="95" t="s">
+        <v>175</v>
+      </c>
+      <c r="G20" s="95" t="s">
+        <v>191</v>
       </c>
       <c r="I20" s="18"/>
       <c r="J20" s="11"/>
@@ -4212,46 +4013,42 @@
     </row>
     <row r="21" spans="1:11" ht="21.75" customHeight="1">
       <c r="A21" s="4"/>
-      <c r="B21" s="142"/>
-      <c r="C21" s="68" t="s">
-        <v>55</v>
-      </c>
-      <c r="D21" s="74" t="s">
-        <v>158</v>
-      </c>
-      <c r="E21" s="61" t="s">
-        <v>169</v>
-      </c>
-      <c r="F21" s="71" t="s">
-        <v>183</v>
-      </c>
-      <c r="G21" s="68" t="s">
-        <v>190</v>
+      <c r="B21" s="124"/>
+      <c r="C21" s="92" t="s">
+        <v>148</v>
+      </c>
+      <c r="D21" s="95" t="s">
+        <v>159</v>
+      </c>
+      <c r="E21" s="92" t="s">
+        <v>171</v>
+      </c>
+      <c r="F21" s="101" t="s">
+        <v>148</v>
+      </c>
+      <c r="G21" s="92" t="s">
+        <v>187</v>
       </c>
       <c r="I21" s="18"/>
     </row>
-    <row r="22" spans="1:11" ht="19.5" customHeight="1">
+    <row r="22" spans="1:11" ht="19.5" customHeight="1" thickBot="1">
       <c r="A22" s="4"/>
-      <c r="B22" s="143"/>
-      <c r="C22" s="69" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22" s="80" t="s">
-        <v>161</v>
-      </c>
-      <c r="E22" s="72" t="s">
-        <v>161</v>
-      </c>
-      <c r="F22" s="85" t="s">
-        <v>161</v>
-      </c>
-      <c r="G22" s="85" t="s">
-        <v>161</v>
+      <c r="B22" s="125"/>
+      <c r="C22" s="97"/>
+      <c r="D22" s="100" t="s">
+        <v>148</v>
+      </c>
+      <c r="E22" s="100" t="s">
+        <v>148</v>
+      </c>
+      <c r="F22" s="97"/>
+      <c r="G22" s="97" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="20.25" hidden="1" customHeight="1">
       <c r="A23" s="4"/>
-      <c r="B23" s="124" t="s">
+      <c r="B23" s="106" t="s">
         <v>13</v>
       </c>
       <c r="C23" s="8" t="s">
@@ -4271,7 +4068,7 @@
     </row>
     <row r="24" spans="1:11" ht="18" hidden="1" customHeight="1">
       <c r="A24" s="4"/>
-      <c r="B24" s="125"/>
+      <c r="B24" s="107"/>
       <c r="C24" s="8" t="s">
         <v>18</v>
       </c>
@@ -4289,7 +4086,7 @@
     </row>
     <row r="25" spans="1:11" ht="18.75" hidden="1" customHeight="1">
       <c r="A25" s="4"/>
-      <c r="B25" s="125"/>
+      <c r="B25" s="107"/>
       <c r="C25" s="8" t="s">
         <v>22</v>
       </c>
@@ -4307,7 +4104,7 @@
     </row>
     <row r="26" spans="1:11" ht="18" hidden="1" customHeight="1">
       <c r="A26" s="4"/>
-      <c r="B26" s="125"/>
+      <c r="B26" s="107"/>
       <c r="C26" s="8" t="s">
         <v>26</v>
       </c>
@@ -4325,7 +4122,7 @@
     </row>
     <row r="27" spans="1:11" ht="19.5" hidden="1" customHeight="1">
       <c r="A27" s="4"/>
-      <c r="B27" s="125"/>
+      <c r="B27" s="107"/>
       <c r="C27" s="8" t="s">
         <v>12</v>
       </c>
@@ -4342,7 +4139,7 @@
     </row>
     <row r="28" spans="1:11" ht="21" hidden="1" customHeight="1" thickBot="1">
       <c r="A28" s="4"/>
-      <c r="B28" s="148"/>
+      <c r="B28" s="130"/>
       <c r="C28" s="30"/>
       <c r="D28" s="31"/>
       <c r="E28" s="17"/>
@@ -4352,19 +4149,19 @@
     <row r="29" spans="1:11" ht="18" customHeight="1" thickBot="1">
       <c r="A29" s="4"/>
       <c r="B29" s="34"/>
-      <c r="C29" s="149" t="s">
+      <c r="C29" s="131" t="s">
         <v>30</v>
       </c>
-      <c r="D29" s="127"/>
-      <c r="E29" s="127"/>
-      <c r="F29" s="127"/>
-      <c r="G29" s="128"/>
+      <c r="D29" s="109"/>
+      <c r="E29" s="109"/>
+      <c r="F29" s="109"/>
+      <c r="G29" s="110"/>
     </row>
     <row r="31" spans="1:11">
-      <c r="C31" s="129"/>
-      <c r="D31" s="129"/>
-      <c r="E31" s="129"/>
-      <c r="F31" s="129"/>
+      <c r="C31" s="111"/>
+      <c r="D31" s="111"/>
+      <c r="E31" s="111"/>
+      <c r="F31" s="111"/>
     </row>
     <row r="32" spans="1:11" ht="17.25" customHeight="1">
       <c r="B32" s="11"/>
@@ -4376,8 +4173,8 @@
     <row r="33" spans="2:6">
       <c r="B33" s="11"/>
       <c r="C33" s="21"/>
-      <c r="D33" s="130"/>
-      <c r="E33" s="130"/>
+      <c r="D33" s="112"/>
+      <c r="E33" s="112"/>
       <c r="F33" s="11"/>
     </row>
     <row r="34" spans="2:6">
@@ -4538,9 +4335,10 @@
     <hyperlink ref="F27" r:id="rId1" location="/entry/enko/9a2df76981ef447fa949ac8296afdb68" display="https://en.dict.naver.com/ - /entry/enko/9a2df76981ef447fa949ac8296afdb68"/>
     <hyperlink ref="D24" r:id="rId2" location="/entry/enko/aea797dad87d452f9f2d342cebfd264a" display="https://en.dict.naver.com/ - /entry/enko/aea797dad87d452f9f2d342cebfd264a"/>
     <hyperlink ref="E24" r:id="rId3" location="/entry/koen/a3cfe773c3ee4620ac4ee4a9e62b5ae1" display="https://en.dict.naver.com/ - /entry/koen/a3cfe773c3ee4620ac4ee4a9e62b5ae1"/>
+    <hyperlink ref="C8" r:id="rId4" location="/entry/enko/00cd45be5e45442cb24dd7173f16e4e0" display="https://en.dict.naver.com/ - /entry/enko/00cd45be5e45442cb24dd7173f16e4e0"/>
   </hyperlinks>
   <pageMargins left="0.04" right="0.04" top="0.35" bottom="0.35" header="0.31" footer="0"/>
-  <pageSetup paperSize="9" scale="56" orientation="landscape" r:id="rId4"/>
-  <drawing r:id="rId5"/>
+  <pageSetup paperSize="9" scale="56" orientation="landscape" r:id="rId5"/>
+  <drawing r:id="rId6"/>
 </worksheet>
 </file>
--- a/foodtable/1.xlsx
+++ b/foodtable/1.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2. 복리후생\2017년\3. 식당\2020년 식단표\0406\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2. 복리후생\2017년\3. 식당\2020년 식단표\0420\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="75" windowWidth="27975" windowHeight="12495"/>
   </bookViews>
   <sheets>
-    <sheet name="4.6학생식당 " sheetId="2" r:id="rId1"/>
-    <sheet name="4.6학생식당 - 영문" sheetId="1" r:id="rId2"/>
+    <sheet name="4.20학생식당 " sheetId="2" r:id="rId1"/>
+    <sheet name="4.20학생식당 - 영문" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="Excel_BuiltIn__FilterDatabase_1_1" localSheetId="0">#REF!</definedName>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="193">
   <si>
     <t xml:space="preserve">   weekly menu</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -99,9 +99,6 @@
   </si>
   <si>
     <t>금</t>
-  </si>
-  <si>
-    <t>Pork Rib Hangover Soup</t>
   </si>
   <si>
     <t>Spicy Seafood Noodles</t>
@@ -268,9 +265,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>dried slices of daikon</t>
-  </si>
-  <si>
     <t>토</t>
   </si>
   <si>
@@ -361,265 +355,6 @@
   </si>
   <si>
     <t>2020.03.29</t>
-  </si>
-  <si>
-    <t>cabbage wrap</t>
-  </si>
-  <si>
-    <t>Marinated Grilled Beef Slices</t>
-  </si>
-  <si>
-    <t>치즈부대찌개&amp;라면사리</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>철판두부김치두루치기</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>뚝배기함박파스타</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>왕삼뚱이</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>철판닭갈비정식</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>멘치까스오므라이스</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>치즈떡볶이돈까스</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>삼겹강된장비빔밥</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>차돌짬뽕</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>돈돈데리와퍼</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>백미밥</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>*산채나물비빔밥*</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>맑은콩나물국</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>미역국</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>청국장찌개</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>소고기육개장</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>동태찌개</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>오삼불고기</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>매운등갈비찜</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>핫도그&amp;케첩</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>마약계란</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>파채너비아니육전</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>어묵탕수</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>연두부&amp;양념장</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>오복지무침</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>돈육잡채</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>양념깻잎지</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>양배추쌈&amp;쌈장</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>비트무생채</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>요구르트</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>단배추겉절이</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>모듬야채겉절이</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>포기김치</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>*대패삼겹쫄면*</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>*노량진컵밥*</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>간장계란밥</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>뼈없는감자탕</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>순두부김치국</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>컵라면(셀프)</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>어묵국</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>김말이튀김</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>두부무조림</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>춘천닭갈비</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>감자튀김&amp;케첩</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>동그랑땡조림</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>그린샐러드</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>소시지야채볶음</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>셀프무쌈말이</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>단무지무침</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>카레소스</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>부추겉절이</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>땅콩조림</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>콩나물무침</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020.04.06</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020.04.07</t>
-  </si>
-  <si>
-    <t>2020.04.08</t>
-  </si>
-  <si>
-    <t>2020.04.09</t>
-  </si>
-  <si>
-    <t>2020.04.10</t>
-  </si>
-  <si>
-    <t>Cheese Sausage Stew</t>
-  </si>
-  <si>
-    <t xml:space="preserve">omelette rice </t>
-  </si>
-  <si>
-    <t>clear bean sprout soup</t>
-  </si>
-  <si>
-    <t>Squid and Pork Belly Bulgogi</t>
-  </si>
-  <si>
-    <t>Grilled Pork Belly Noodles</t>
-  </si>
-  <si>
-    <t>egg rice with soy sauce</t>
-  </si>
-  <si>
-    <t>Deep-fried Glass Noodles in Seaweed</t>
-  </si>
-  <si>
-    <t>ramen</t>
-    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Udon Jangguk/kimchi/extra dinner</t>
@@ -630,156 +365,419 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>sweet and sour fish cake</t>
+    <t>ramen</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">kimchi </t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>perilla seed bean paste soup</t>
+  </si>
+  <si>
+    <t>aqua pork curtlet</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>돼지고기짜글이</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>가츠산도&amp;미트소스스파게티</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>돈까스김치나베</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>반계탕&amp;찹쌀죽</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>매운돼지갈비찜</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>수제치킨가라아게덮밥&amp;음료</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>보쌈정식</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>큐브스테이크덮밥</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>불고기카레우동</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>청양크림함박스테이크</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.04.20</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.04.21</t>
+  </si>
+  <si>
+    <t>2020.04.22</t>
+  </si>
+  <si>
+    <t>2020.04.23</t>
+  </si>
+  <si>
+    <t>2020.04.24</t>
+  </si>
+  <si>
+    <t>백미밥</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>김치어묵국</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>얼큰북어국</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>꽃게된장국</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>감자수제비국</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>소고기대파국</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>닭불고기</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>오꼬노미온더치킨까스</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>제육볶음</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>해물야끼우동</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>모듬강정</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>연두부&amp;흑임자소스</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>알감자고추장조림</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>브로컬리맛살볶음</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>쥐어채조림</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>견과류멸치볶음</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>구운김&amp;양념장</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>미나리무생채</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>상추쌈&amp;쌈장</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>부추겉절이</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>얼갈이된장무침</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>포기김치</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>*고추짜장면*</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>*마파가지두부덮밥*</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>*전주식콩나물국밥*</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>쫄면순두부</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가밥</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>들깨무채국</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>들깨미역국</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>떡갈비데리조림</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>견과류단팥도넛</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>양념어묵꼬지</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>땡초김치전</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>쭈삼불고기</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>호박볶음</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>양배추코울슬로</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>후르츠샐러드</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>마늘쫑볶음</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>고구마맛탕</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>숙주나물무침</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>땅콩조림</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>와사비쌈무</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.04.20</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>pork jjagle</t>
+  </si>
+  <si>
+    <t>Chicken Garage Rice with Rice</t>
+  </si>
+  <si>
+    <t>Kimchi Fish Cake Soup</t>
+  </si>
+  <si>
+    <t>Chicken Bulgogi</t>
+  </si>
+  <si>
+    <t>Silken Beancurd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roasted laver </t>
+  </si>
+  <si>
+    <t>Jjolmyeon Soft Tofu</t>
+  </si>
+  <si>
+    <t>Braised Grilled Short Rib Patties</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stir-fried Pumpkin </t>
+  </si>
+  <si>
+    <t>seasoned bean sprouts</t>
+  </si>
+  <si>
+    <t>Katsushando&amp;meat sauce spagetti</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>Set Menu of Napa Wraps with Pork</t>
+  </si>
+  <si>
+    <t>Spicy Seafood Soup</t>
+  </si>
+  <si>
+    <t>Chicken cutlet</t>
+  </si>
+  <si>
+    <t>Soy Sauce Braised Potatoes</t>
+  </si>
+  <si>
+    <t>water parsley radish salad</t>
+  </si>
+  <si>
+    <t>red pepper jjajangmyeon</t>
+  </si>
+  <si>
+    <t>extra rice</t>
+  </si>
+  <si>
+    <t>nut sweet-bean-sauce donut</t>
+  </si>
+  <si>
+    <t>cabbage cowlslow</t>
+  </si>
+  <si>
+    <t>Pork cutlet kimchi nabe</t>
+  </si>
+  <si>
+    <t>Cubest Steak Over rice</t>
+  </si>
+  <si>
+    <t>Crab Soybean Paste Soup</t>
+  </si>
+  <si>
+    <t>stir-fried spicy pork</t>
+  </si>
+  <si>
+    <t>Braised broccoli crab meat</t>
+  </si>
+  <si>
+    <t>lettuce-wrapped rice</t>
+  </si>
+  <si>
+    <t>Mapo Tofu with Rice</t>
+  </si>
+  <si>
+    <t>seasoned koji muk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fruit salad </t>
+  </si>
+  <si>
+    <t>Potato sujebi soup</t>
+  </si>
+  <si>
+    <t>Seafood Yaki Udon</t>
+  </si>
+  <si>
+    <t>braised shredded vegetables</t>
+  </si>
+  <si>
+    <t>Fresh Kimchi</t>
+  </si>
+  <si>
+    <t>Jeonju-style Bean Sprout Soup Rice</t>
+  </si>
+  <si>
+    <t>ddaengcho kimchi jeon</t>
+  </si>
+  <si>
+    <t>Stir-fried Garlic Jjong</t>
+  </si>
+  <si>
+    <t>braised peanuts</t>
+  </si>
+  <si>
+    <t>half chicken soup</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bulgogi curry udon</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Udon Jangguk/kimchi/extra dinner</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>polished rice</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">kimchi </t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>green sald</t>
+    <t>Braised Spicy Pork Ribs</t>
+  </si>
+  <si>
+    <t>assorted gangjeong</t>
+  </si>
+  <si>
+    <t>Stir-fried Nuts anchovies</t>
+  </si>
+  <si>
+    <t>a bowl of salted bean paste</t>
+  </si>
+  <si>
+    <t>perilla seed seaweed soup</t>
+  </si>
+  <si>
+    <t>webfoot octopus bulgogi</t>
+  </si>
+  <si>
+    <t>Deep-fried Sugar Glazed Sweet Potato Wedges</t>
+  </si>
+  <si>
+    <t>daikon cabbage</t>
+  </si>
+  <si>
+    <t>Cheongyang Cream hamburger Steak</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Tofu Kimchi Duruchigi</t>
-  </si>
-  <si>
-    <t>Cheese Tteokbokki pork cutlet</t>
-  </si>
-  <si>
-    <t>sea mustard soup</t>
-  </si>
-  <si>
-    <t>Braised Spicy Back Ribs</t>
-  </si>
-  <si>
-    <t>Silken Beancurd</t>
-  </si>
-  <si>
-    <t>shredded daikon</t>
-  </si>
-  <si>
-    <t>Pork Back-bone Stew</t>
-  </si>
-  <si>
-    <t>braised tofu</t>
-  </si>
-  <si>
-    <t>Stir-fried Sausages and Vegetables</t>
-  </si>
-  <si>
-    <t>chives and leeks</t>
-  </si>
-  <si>
-    <t>aqua pork curtlet</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>hamburg pasta</t>
-  </si>
-  <si>
-    <t>Samgyeopsal-riped equipment bibimbap</t>
-  </si>
-  <si>
-    <t>Vegetable vegetable bibimbap</t>
-  </si>
-  <si>
-    <t>Rich Soybean Paste Stew</t>
-  </si>
-  <si>
-    <t>Soft Tofu Kimchi Soup</t>
-  </si>
-  <si>
-    <t>Chuncheon-style Spicy Stir-fried Chicken</t>
-  </si>
-  <si>
-    <t>pork belly roll</t>
-  </si>
-  <si>
-    <t>hotdog&amp;ketchup</t>
+    <t>Hamburger Steak&amp;salsd</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>beef-crushing soup</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>yogurt</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>self radish wraps</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">peanut boiled down in soy sauce </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>beef brisket jjamppong</t>
-  </si>
-  <si>
-    <t>mixed dish of boiled bean threads</t>
-  </si>
-  <si>
-    <t>a single cabbage leaf</t>
-  </si>
-  <si>
-    <t>Pickled radish</t>
-  </si>
-  <si>
-    <t>beef meat stew</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>addictive egg</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Noryangjin style Cup Rice</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>cup ramen</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>french fried potato</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Set Menu with Spicy Stir-fried Chicken </t>
-  </si>
-  <si>
-    <t>Pollack Stew</t>
-  </si>
-  <si>
-    <t>seasoned perilla leaf paper</t>
-  </si>
-  <si>
-    <t>pickled vegetables</t>
-  </si>
-  <si>
-    <t>Fish cake soup</t>
-  </si>
-  <si>
-    <t>braised meatballs</t>
-  </si>
-  <si>
-    <t>Seasoned Bean Sprouts</t>
-  </si>
-  <si>
-    <t>pork cutlet and bulgogi bibimbap</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hamburger Steak&amp;salsd</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>polished rice</t>
     <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>curry sauce</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -789,7 +787,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="36">
+  <fonts count="35">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1033,22 +1031,13 @@
       <charset val="129"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
+      <sz val="11"/>
       <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1103,7 +1092,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="48">
+  <borders count="56">
     <border>
       <left/>
       <right/>
@@ -1426,19 +1415,6 @@
         <color rgb="FF000000"/>
       </left>
       <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
@@ -1592,28 +1568,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -1663,6 +1617,89 @@
       </right>
       <top/>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1680,6 +1717,54 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1693,7 +1778,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="139">
+  <cellXfs count="149">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1805,190 +1890,79 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="12" fillId="2" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="12" fillId="2" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1997,19 +1971,73 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="52" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="2" borderId="53" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="2" borderId="55" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2018,13 +2046,13 @@
     <xf numFmtId="0" fontId="11" fillId="5" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="45" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -2072,7 +2100,7 @@
     <xf numFmtId="0" fontId="21" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2088,6 +2116,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -2110,6 +2144,87 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2707,7 +2822,7 @@
   <dimension ref="A1:N50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -2725,47 +2840,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A1" s="113" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
+      <c r="A1" s="94" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
     <row r="2" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A2" s="113"/>
-      <c r="B2" s="113"/>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="113"/>
-      <c r="I2" s="113"/>
+      <c r="A2" s="94"/>
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A3" s="113"/>
-      <c r="B3" s="113"/>
-      <c r="C3" s="113"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="113"/>
+      <c r="A3" s="94"/>
+      <c r="B3" s="94"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="94"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
@@ -2777,12 +2892,12 @@
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
-      <c r="F4" s="114" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="114"/>
-      <c r="H4" s="114"/>
-      <c r="I4" s="115"/>
+      <c r="F4" s="95" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="95"/>
+      <c r="H4" s="95"/>
+      <c r="I4" s="96"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -2790,125 +2905,125 @@
     </row>
     <row r="5" spans="1:14" ht="16.5" customHeight="1">
       <c r="A5" s="4"/>
-      <c r="B5" s="116" t="s">
+      <c r="B5" s="97" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="37" t="s">
+      <c r="D5" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="37" t="s">
+      <c r="E5" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="37" t="s">
+      <c r="F5" s="58" t="s">
         <v>6</v>
       </c>
       <c r="G5" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="58" t="s">
-        <v>53</v>
-      </c>
-      <c r="I5" s="58" t="s">
-        <v>54</v>
+      <c r="H5" s="52" t="s">
+        <v>51</v>
+      </c>
+      <c r="I5" s="52" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="18" customHeight="1" thickBot="1">
       <c r="A6" s="4"/>
-      <c r="B6" s="117"/>
-      <c r="C6" s="38" t="s">
-        <v>132</v>
-      </c>
-      <c r="D6" s="38" t="s">
-        <v>133</v>
-      </c>
-      <c r="E6" s="38" t="s">
-        <v>134</v>
-      </c>
-      <c r="F6" s="38" t="s">
-        <v>135</v>
-      </c>
-      <c r="G6" s="38" t="s">
-        <v>136</v>
-      </c>
-      <c r="H6" s="38" t="s">
-        <v>75</v>
-      </c>
-      <c r="I6" s="38" t="s">
-        <v>76</v>
+      <c r="B6" s="98"/>
+      <c r="C6" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="D6" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="E6" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="F6" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="G6" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="H6" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="I6" s="37" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="18" customHeight="1">
       <c r="A7" s="4"/>
-      <c r="B7" s="118" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="71" t="s">
-        <v>79</v>
-      </c>
-      <c r="D7" s="72" t="s">
-        <v>80</v>
-      </c>
-      <c r="E7" s="47" t="s">
+      <c r="B7" s="99" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="122" t="s">
         <v>81</v>
       </c>
-      <c r="F7" s="73" t="s">
+      <c r="D7" s="123" t="s">
         <v>82</v>
       </c>
-      <c r="G7" s="60" t="s">
+      <c r="E7" s="124" t="s">
         <v>83</v>
       </c>
-      <c r="H7" s="126"/>
-      <c r="I7" s="128"/>
+      <c r="F7" s="125" t="s">
+        <v>84</v>
+      </c>
+      <c r="G7" s="126" t="s">
+        <v>85</v>
+      </c>
+      <c r="H7" s="107"/>
+      <c r="I7" s="109"/>
     </row>
     <row r="8" spans="1:14" ht="20.25" customHeight="1" thickBot="1">
       <c r="A8" s="4"/>
-      <c r="B8" s="119"/>
-      <c r="C8" s="41" t="s">
-        <v>84</v>
-      </c>
-      <c r="D8" s="41" t="s">
-        <v>85</v>
-      </c>
-      <c r="E8" s="47" t="s">
+      <c r="B8" s="100"/>
+      <c r="C8" s="127" t="s">
         <v>86</v>
       </c>
-      <c r="F8" s="59" t="s">
+      <c r="D8" s="128" t="s">
         <v>87</v>
       </c>
-      <c r="G8" s="61" t="s">
+      <c r="E8" s="129" t="s">
         <v>88</v>
       </c>
-      <c r="H8" s="127"/>
-      <c r="I8" s="129"/>
+      <c r="F8" s="128" t="s">
+        <v>89</v>
+      </c>
+      <c r="G8" s="128" t="s">
+        <v>90</v>
+      </c>
+      <c r="H8" s="108"/>
+      <c r="I8" s="110"/>
     </row>
     <row r="9" spans="1:14" ht="20.25" customHeight="1">
       <c r="A9" s="4"/>
-      <c r="B9" s="120" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="74" t="s">
-        <v>89</v>
-      </c>
-      <c r="D9" s="62" t="s">
-        <v>89</v>
-      </c>
-      <c r="E9" s="76" t="s">
-        <v>90</v>
-      </c>
-      <c r="F9" s="75" t="s">
-        <v>89</v>
-      </c>
-      <c r="G9" s="62" t="s">
-        <v>89</v>
-      </c>
-      <c r="H9" s="65" t="s">
-        <v>55</v>
-      </c>
-      <c r="I9" s="44" t="s">
-        <v>65</v>
+      <c r="B9" s="101" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="130" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" s="130" t="s">
+        <v>96</v>
+      </c>
+      <c r="E9" s="131" t="s">
+        <v>96</v>
+      </c>
+      <c r="F9" s="131" t="s">
+        <v>96</v>
+      </c>
+      <c r="G9" s="131" t="s">
+        <v>96</v>
+      </c>
+      <c r="H9" s="53" t="s">
+        <v>53</v>
+      </c>
+      <c r="I9" s="40" t="s">
+        <v>63</v>
       </c>
       <c r="K9" s="13"/>
       <c r="L9" s="14"/>
@@ -2916,27 +3031,27 @@
     </row>
     <row r="10" spans="1:14" ht="20.25" customHeight="1">
       <c r="A10" s="4"/>
-      <c r="B10" s="121"/>
-      <c r="C10" s="70" t="s">
-        <v>91</v>
-      </c>
-      <c r="D10" s="63" t="s">
-        <v>92</v>
-      </c>
-      <c r="E10" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="F10" s="77" t="s">
-        <v>94</v>
-      </c>
-      <c r="G10" s="63" t="s">
-        <v>95</v>
+      <c r="B10" s="102"/>
+      <c r="C10" s="132" t="s">
+        <v>97</v>
+      </c>
+      <c r="D10" s="132" t="s">
+        <v>98</v>
+      </c>
+      <c r="E10" s="133" t="s">
+        <v>99</v>
+      </c>
+      <c r="F10" s="134" t="s">
+        <v>100</v>
+      </c>
+      <c r="G10" s="134" t="s">
+        <v>101</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="I10" s="46" t="s">
-        <v>56</v>
+        <v>54</v>
+      </c>
+      <c r="I10" s="42" t="s">
+        <v>54</v>
       </c>
       <c r="K10" s="11"/>
       <c r="L10" s="11"/>
@@ -2945,27 +3060,27 @@
     </row>
     <row r="11" spans="1:14" ht="19.5" customHeight="1">
       <c r="A11" s="4"/>
-      <c r="B11" s="122"/>
-      <c r="C11" s="78" t="s">
-        <v>96</v>
-      </c>
-      <c r="D11" s="80" t="s">
-        <v>97</v>
-      </c>
-      <c r="E11" s="42" t="s">
-        <v>98</v>
-      </c>
-      <c r="F11" s="79" t="s">
-        <v>99</v>
-      </c>
-      <c r="G11" s="80" t="s">
-        <v>100</v>
-      </c>
-      <c r="H11" s="66" t="s">
-        <v>57</v>
-      </c>
-      <c r="I11" s="46" t="s">
-        <v>67</v>
+      <c r="B11" s="103"/>
+      <c r="C11" s="135" t="s">
+        <v>102</v>
+      </c>
+      <c r="D11" s="135" t="s">
+        <v>103</v>
+      </c>
+      <c r="E11" s="134" t="s">
+        <v>104</v>
+      </c>
+      <c r="F11" s="133" t="s">
+        <v>105</v>
+      </c>
+      <c r="G11" s="133" t="s">
+        <v>106</v>
+      </c>
+      <c r="H11" s="54" t="s">
+        <v>55</v>
+      </c>
+      <c r="I11" s="42" t="s">
+        <v>65</v>
       </c>
       <c r="K11" s="11"/>
       <c r="L11" s="11"/>
@@ -2974,27 +3089,27 @@
     </row>
     <row r="12" spans="1:14" ht="21" customHeight="1">
       <c r="A12" s="4"/>
-      <c r="B12" s="122"/>
-      <c r="C12" s="70" t="s">
-        <v>101</v>
-      </c>
-      <c r="D12" s="63" t="s">
-        <v>102</v>
-      </c>
-      <c r="E12" s="40" t="s">
-        <v>103</v>
-      </c>
-      <c r="F12" s="84" t="s">
-        <v>104</v>
-      </c>
-      <c r="G12" s="63" t="s">
-        <v>105</v>
+      <c r="B12" s="103"/>
+      <c r="C12" s="132" t="s">
+        <v>107</v>
+      </c>
+      <c r="D12" s="132" t="s">
+        <v>108</v>
+      </c>
+      <c r="E12" s="134" t="s">
+        <v>109</v>
+      </c>
+      <c r="F12" s="134" t="s">
+        <v>110</v>
+      </c>
+      <c r="G12" s="134" t="s">
+        <v>111</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="I12" s="46" t="s">
-        <v>68</v>
+        <v>56</v>
+      </c>
+      <c r="I12" s="42" t="s">
+        <v>66</v>
       </c>
       <c r="K12" s="11"/>
       <c r="L12" s="14"/>
@@ -3003,27 +3118,27 @@
     </row>
     <row r="13" spans="1:14" ht="18.75" customHeight="1">
       <c r="A13" s="4"/>
-      <c r="B13" s="122"/>
-      <c r="C13" s="78" t="s">
-        <v>106</v>
-      </c>
-      <c r="D13" s="63" t="s">
-        <v>107</v>
-      </c>
-      <c r="E13" s="40" t="s">
-        <v>108</v>
-      </c>
-      <c r="F13" s="77" t="s">
-        <v>109</v>
-      </c>
-      <c r="G13" s="63" t="s">
-        <v>110</v>
+      <c r="B13" s="103"/>
+      <c r="C13" s="136" t="s">
+        <v>112</v>
+      </c>
+      <c r="D13" s="132" t="s">
+        <v>113</v>
+      </c>
+      <c r="E13" s="134" t="s">
+        <v>114</v>
+      </c>
+      <c r="F13" s="134" t="s">
+        <v>115</v>
+      </c>
+      <c r="G13" s="134" t="s">
+        <v>116</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="I13" s="46" t="s">
-        <v>69</v>
+        <v>57</v>
+      </c>
+      <c r="I13" s="42" t="s">
+        <v>67</v>
       </c>
       <c r="K13" s="11"/>
       <c r="L13" s="11"/>
@@ -3032,25 +3147,25 @@
     </row>
     <row r="14" spans="1:14" ht="18" customHeight="1" thickBot="1">
       <c r="A14" s="4"/>
-      <c r="B14" s="122"/>
-      <c r="C14" s="78" t="s">
-        <v>111</v>
-      </c>
-      <c r="D14" s="64" t="s">
-        <v>111</v>
-      </c>
-      <c r="E14" s="40" t="s">
-        <v>111</v>
-      </c>
-      <c r="F14" s="81" t="s">
-        <v>111</v>
-      </c>
-      <c r="G14" s="64" t="s">
-        <v>111</v>
-      </c>
-      <c r="H14" s="67"/>
-      <c r="I14" s="50" t="s">
-        <v>64</v>
+      <c r="B14" s="103"/>
+      <c r="C14" s="137" t="s">
+        <v>117</v>
+      </c>
+      <c r="D14" s="137" t="s">
+        <v>117</v>
+      </c>
+      <c r="E14" s="138" t="s">
+        <v>117</v>
+      </c>
+      <c r="F14" s="138" t="s">
+        <v>117</v>
+      </c>
+      <c r="G14" s="138" t="s">
+        <v>117</v>
+      </c>
+      <c r="H14" s="55"/>
+      <c r="I14" s="44" t="s">
+        <v>62</v>
       </c>
       <c r="K14" s="11"/>
       <c r="L14" s="14"/>
@@ -3059,29 +3174,29 @@
     </row>
     <row r="15" spans="1:14" ht="18.75" customHeight="1">
       <c r="A15" s="4"/>
-      <c r="B15" s="123" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="75" t="s">
-        <v>112</v>
-      </c>
-      <c r="D15" s="85" t="s">
-        <v>89</v>
-      </c>
-      <c r="E15" s="75" t="s">
-        <v>89</v>
-      </c>
-      <c r="F15" s="68" t="s">
-        <v>113</v>
-      </c>
-      <c r="G15" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="H15" s="68" t="s">
-        <v>66</v>
-      </c>
-      <c r="I15" s="51" t="s">
-        <v>56</v>
+      <c r="B15" s="104" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="130" t="s">
+        <v>96</v>
+      </c>
+      <c r="D15" s="139" t="s">
+        <v>118</v>
+      </c>
+      <c r="E15" s="140" t="s">
+        <v>119</v>
+      </c>
+      <c r="F15" s="141" t="s">
+        <v>120</v>
+      </c>
+      <c r="G15" s="131" t="s">
+        <v>96</v>
+      </c>
+      <c r="H15" s="56" t="s">
+        <v>64</v>
+      </c>
+      <c r="I15" s="45" t="s">
+        <v>54</v>
       </c>
       <c r="K15" s="18"/>
       <c r="L15" s="11"/>
@@ -3090,27 +3205,27 @@
     </row>
     <row r="16" spans="1:14" ht="18" customHeight="1">
       <c r="A16" s="4"/>
-      <c r="B16" s="124"/>
-      <c r="C16" s="84" t="s">
-        <v>114</v>
-      </c>
-      <c r="D16" s="86" t="s">
-        <v>115</v>
-      </c>
-      <c r="E16" s="77" t="s">
-        <v>116</v>
-      </c>
-      <c r="F16" s="40" t="s">
-        <v>117</v>
-      </c>
-      <c r="G16" s="45" t="s">
-        <v>118</v>
-      </c>
-      <c r="H16" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="I16" s="45" t="s">
-        <v>70</v>
+      <c r="B16" s="105"/>
+      <c r="C16" s="132" t="s">
+        <v>121</v>
+      </c>
+      <c r="D16" s="136" t="s">
+        <v>122</v>
+      </c>
+      <c r="E16" s="142" t="s">
+        <v>123</v>
+      </c>
+      <c r="F16" s="143" t="s">
+        <v>96</v>
+      </c>
+      <c r="G16" s="144" t="s">
+        <v>124</v>
+      </c>
+      <c r="H16" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="I16" s="41" t="s">
+        <v>68</v>
       </c>
       <c r="K16" s="18"/>
       <c r="L16" s="14"/>
@@ -3119,27 +3234,27 @@
     </row>
     <row r="17" spans="1:14" ht="20.25" customHeight="1">
       <c r="A17" s="4"/>
-      <c r="B17" s="124"/>
-      <c r="C17" s="84" t="s">
-        <v>119</v>
-      </c>
-      <c r="D17" s="87" t="s">
-        <v>120</v>
-      </c>
-      <c r="E17" s="77" t="s">
-        <v>121</v>
-      </c>
-      <c r="F17" s="40" t="s">
-        <v>122</v>
-      </c>
-      <c r="G17" s="82" t="s">
-        <v>123</v>
-      </c>
-      <c r="H17" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="I17" s="52" t="s">
-        <v>71</v>
+      <c r="B17" s="105"/>
+      <c r="C17" s="132" t="s">
+        <v>125</v>
+      </c>
+      <c r="D17" s="136" t="s">
+        <v>126</v>
+      </c>
+      <c r="E17" s="145" t="s">
+        <v>127</v>
+      </c>
+      <c r="F17" s="143" t="s">
+        <v>128</v>
+      </c>
+      <c r="G17" s="134" t="s">
+        <v>129</v>
+      </c>
+      <c r="H17" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="I17" s="46" t="s">
+        <v>69</v>
       </c>
       <c r="K17" s="18"/>
       <c r="L17" s="11"/>
@@ -3148,27 +3263,27 @@
     </row>
     <row r="18" spans="1:14" ht="20.25" customHeight="1">
       <c r="A18" s="4"/>
-      <c r="B18" s="124"/>
-      <c r="C18" s="77" t="s">
-        <v>124</v>
-      </c>
-      <c r="D18" s="86" t="s">
-        <v>125</v>
-      </c>
-      <c r="E18" s="77" t="s">
-        <v>126</v>
-      </c>
-      <c r="F18" s="40" t="s">
-        <v>127</v>
-      </c>
-      <c r="G18" s="83" t="s">
-        <v>128</v>
-      </c>
-      <c r="H18" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="I18" s="45" t="s">
-        <v>72</v>
+      <c r="B18" s="105"/>
+      <c r="C18" s="132" t="s">
+        <v>130</v>
+      </c>
+      <c r="D18" s="132" t="s">
+        <v>131</v>
+      </c>
+      <c r="E18" s="146" t="s">
+        <v>132</v>
+      </c>
+      <c r="F18" s="143" t="s">
+        <v>133</v>
+      </c>
+      <c r="G18" s="144" t="s">
+        <v>134</v>
+      </c>
+      <c r="H18" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="I18" s="41" t="s">
+        <v>70</v>
       </c>
       <c r="K18" s="18"/>
       <c r="L18" s="11"/>
@@ -3177,27 +3292,27 @@
     </row>
     <row r="19" spans="1:14" ht="21.75" customHeight="1">
       <c r="A19" s="4"/>
-      <c r="B19" s="124"/>
-      <c r="C19" s="77" t="s">
-        <v>111</v>
-      </c>
-      <c r="D19" s="88" t="s">
-        <v>129</v>
-      </c>
-      <c r="E19" s="77" t="s">
-        <v>130</v>
-      </c>
-      <c r="F19" s="40" t="s">
-        <v>111</v>
-      </c>
-      <c r="G19" s="45" t="s">
-        <v>131</v>
-      </c>
-      <c r="H19" s="40" t="s">
-        <v>63</v>
-      </c>
-      <c r="I19" s="45" t="s">
-        <v>73</v>
+      <c r="B19" s="105"/>
+      <c r="C19" s="132" t="s">
+        <v>135</v>
+      </c>
+      <c r="D19" s="132" t="s">
+        <v>117</v>
+      </c>
+      <c r="E19" s="142" t="s">
+        <v>117</v>
+      </c>
+      <c r="F19" s="143" t="s">
+        <v>136</v>
+      </c>
+      <c r="G19" s="134" t="s">
+        <v>137</v>
+      </c>
+      <c r="H19" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="I19" s="41" t="s">
+        <v>71</v>
       </c>
       <c r="K19" s="18"/>
       <c r="L19" s="11"/>
@@ -3206,23 +3321,23 @@
     </row>
     <row r="20" spans="1:14" ht="19.5" customHeight="1" thickBot="1">
       <c r="A20" s="4"/>
-      <c r="B20" s="125"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="89" t="s">
-        <v>111</v>
-      </c>
-      <c r="E20" s="81" t="s">
-        <v>111</v>
-      </c>
-      <c r="F20" s="69"/>
-      <c r="G20" s="48" t="s">
-        <v>111</v>
-      </c>
-      <c r="H20" s="69" t="s">
-        <v>64</v>
-      </c>
-      <c r="I20" s="54" t="s">
-        <v>64</v>
+      <c r="B20" s="106"/>
+      <c r="C20" s="137" t="s">
+        <v>117</v>
+      </c>
+      <c r="D20" s="138"/>
+      <c r="E20" s="147"/>
+      <c r="F20" s="148" t="s">
+        <v>117</v>
+      </c>
+      <c r="G20" s="137" t="s">
+        <v>117</v>
+      </c>
+      <c r="H20" s="57" t="s">
+        <v>62</v>
+      </c>
+      <c r="I20" s="48" t="s">
+        <v>62</v>
       </c>
       <c r="L20" s="11"/>
       <c r="M20" s="24"/>
@@ -3230,145 +3345,145 @@
     </row>
     <row r="21" spans="1:14" ht="20.25" hidden="1" customHeight="1">
       <c r="A21" s="4"/>
-      <c r="B21" s="106" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="D21" s="53"/>
-      <c r="E21" s="54" t="s">
-        <v>74</v>
-      </c>
-      <c r="F21" s="54" t="s">
-        <v>74</v>
-      </c>
-      <c r="G21" s="54"/>
-      <c r="H21" s="55"/>
-      <c r="I21" s="55"/>
+      <c r="B21" s="87" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" s="47"/>
+      <c r="E21" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="F21" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="G21" s="48"/>
+      <c r="H21" s="49"/>
+      <c r="I21" s="49"/>
       <c r="L21" s="21"/>
       <c r="M21" s="24"/>
       <c r="N21" s="11"/>
     </row>
     <row r="22" spans="1:14" ht="18" hidden="1" customHeight="1">
       <c r="A22" s="4"/>
-      <c r="B22" s="107"/>
-      <c r="C22" s="39" t="s">
+      <c r="B22" s="88"/>
+      <c r="C22" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="D22" s="45" t="s">
-        <v>36</v>
-      </c>
-      <c r="E22" s="39" t="s">
+      <c r="F22" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="F22" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="G22" s="45"/>
-      <c r="H22" s="45"/>
-      <c r="I22" s="45"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="41"/>
       <c r="L22" s="24"/>
       <c r="M22" s="24"/>
       <c r="N22" s="11"/>
     </row>
     <row r="23" spans="1:14" ht="18.75" hidden="1" customHeight="1">
       <c r="A23" s="4"/>
-      <c r="B23" s="107"/>
-      <c r="C23" s="55" t="s">
+      <c r="B23" s="88"/>
+      <c r="C23" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="D23" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="E23" s="39" t="s">
+      <c r="F23" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="F23" s="45" t="s">
-        <v>44</v>
-      </c>
-      <c r="G23" s="45"/>
-      <c r="H23" s="45"/>
-      <c r="I23" s="52"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="46"/>
       <c r="L23" s="24"/>
       <c r="M23" s="24"/>
       <c r="N23" s="11"/>
     </row>
     <row r="24" spans="1:14" ht="18" hidden="1" customHeight="1">
       <c r="A24" s="4"/>
-      <c r="B24" s="107"/>
-      <c r="C24" s="39" t="s">
+      <c r="B24" s="88"/>
+      <c r="C24" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="D24" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="E24" s="39" t="s">
+      <c r="F24" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="F24" s="45" t="s">
-        <v>47</v>
-      </c>
-      <c r="G24" s="45"/>
-      <c r="H24" s="45"/>
-      <c r="I24" s="45"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="41"/>
       <c r="L24" s="24"/>
       <c r="M24" s="24"/>
       <c r="N24" s="11"/>
     </row>
     <row r="25" spans="1:14" ht="19.5" hidden="1" customHeight="1">
       <c r="A25" s="4"/>
-      <c r="B25" s="107"/>
-      <c r="C25" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="D25" s="45" t="s">
-        <v>34</v>
-      </c>
-      <c r="E25" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="F25" s="45" t="s">
-        <v>34</v>
-      </c>
-      <c r="G25" s="45"/>
-      <c r="H25" s="45"/>
-      <c r="I25" s="45"/>
+      <c r="B25" s="88"/>
+      <c r="C25" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="F25" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="41"/>
       <c r="L25" s="11"/>
       <c r="M25" s="11"/>
       <c r="N25" s="11"/>
     </row>
     <row r="26" spans="1:14" ht="21" hidden="1" customHeight="1" thickBot="1">
       <c r="A26" s="4"/>
-      <c r="B26" s="107"/>
-      <c r="C26" s="48"/>
-      <c r="D26" s="48"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="48"/>
-      <c r="G26" s="48"/>
-      <c r="H26" s="48"/>
-      <c r="I26" s="48"/>
+      <c r="B26" s="88"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="41"/>
     </row>
     <row r="27" spans="1:14" ht="18" customHeight="1" thickBot="1">
       <c r="A27" s="4"/>
-      <c r="B27" s="56"/>
-      <c r="C27" s="108" t="s">
-        <v>30</v>
-      </c>
-      <c r="D27" s="109"/>
-      <c r="E27" s="109"/>
-      <c r="F27" s="109"/>
-      <c r="G27" s="109"/>
-      <c r="H27" s="109"/>
-      <c r="I27" s="110"/>
+      <c r="B27" s="50"/>
+      <c r="C27" s="89" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" s="90"/>
+      <c r="E27" s="90"/>
+      <c r="F27" s="90"/>
+      <c r="G27" s="90"/>
+      <c r="H27" s="90"/>
+      <c r="I27" s="91"/>
     </row>
     <row r="29" spans="1:14">
-      <c r="C29" s="111"/>
-      <c r="D29" s="111"/>
-      <c r="E29" s="111"/>
-      <c r="F29" s="111"/>
-      <c r="G29" s="57"/>
-      <c r="H29" s="57"/>
+      <c r="C29" s="92"/>
+      <c r="D29" s="92"/>
+      <c r="E29" s="92"/>
+      <c r="F29" s="92"/>
+      <c r="G29" s="51"/>
+      <c r="H29" s="51"/>
     </row>
     <row r="30" spans="1:14" ht="17.25" customHeight="1">
       <c r="B30" s="11"/>
@@ -3382,8 +3497,8 @@
     <row r="31" spans="1:14">
       <c r="B31" s="11"/>
       <c r="C31" s="21"/>
-      <c r="D31" s="112"/>
-      <c r="E31" s="112"/>
+      <c r="D31" s="93"/>
+      <c r="E31" s="93"/>
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
       <c r="H31" s="11"/>
@@ -3589,7 +3704,7 @@
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -3606,41 +3721,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="21" customHeight="1">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="133"/>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
-      <c r="E1" s="133"/>
-      <c r="F1" s="133"/>
-      <c r="G1" s="133"/>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:11" ht="21" customHeight="1">
-      <c r="A2" s="133"/>
-      <c r="B2" s="133"/>
-      <c r="C2" s="133"/>
-      <c r="D2" s="133"/>
-      <c r="E2" s="133"/>
-      <c r="F2" s="133"/>
-      <c r="G2" s="133"/>
+      <c r="A2" s="116"/>
+      <c r="B2" s="116"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="21" customHeight="1">
-      <c r="A3" s="133"/>
-      <c r="B3" s="133"/>
-      <c r="C3" s="133"/>
-      <c r="D3" s="133"/>
-      <c r="E3" s="133"/>
-      <c r="F3" s="133"/>
-      <c r="G3" s="133"/>
+      <c r="A3" s="116"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="116"/>
+      <c r="F3" s="116"/>
+      <c r="G3" s="116"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -3652,10 +3767,10 @@
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
-      <c r="F4" s="134" t="s">
+      <c r="F4" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="135"/>
+      <c r="G4" s="118"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -3663,16 +3778,16 @@
     </row>
     <row r="5" spans="1:11" ht="16.5" customHeight="1">
       <c r="A5" s="4"/>
-      <c r="B5" s="136" t="s">
+      <c r="B5" s="119" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="85" t="s">
         <v>5</v>
       </c>
       <c r="F5" s="5" t="s">
@@ -3684,80 +3799,78 @@
     </row>
     <row r="6" spans="1:11" ht="18" customHeight="1" thickBot="1">
       <c r="A6" s="4"/>
-      <c r="B6" s="137"/>
-      <c r="C6" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>134</v>
+      <c r="B6" s="120"/>
+      <c r="C6" s="84" t="s">
+        <v>138</v>
+      </c>
+      <c r="D6" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="E6" s="86" t="s">
+        <v>93</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>135</v>
+        <v>94</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>136</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="18" customHeight="1">
       <c r="A7" s="4"/>
-      <c r="B7" s="138" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7" s="90" t="s">
-        <v>137</v>
-      </c>
-      <c r="D7" s="90" t="s">
-        <v>150</v>
-      </c>
-      <c r="E7" s="90" t="s">
-        <v>161</v>
-      </c>
-      <c r="F7" s="90" t="s">
-        <v>167</v>
-      </c>
-      <c r="G7" s="99" t="s">
+      <c r="B7" s="121" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="65" t="s">
+        <v>139</v>
+      </c>
+      <c r="D7" s="70" t="s">
+        <v>149</v>
+      </c>
+      <c r="E7" s="65" t="s">
+        <v>159</v>
+      </c>
+      <c r="F7" s="62" t="s">
+        <v>176</v>
+      </c>
+      <c r="G7" s="62" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
       <c r="A8" s="4"/>
-      <c r="B8" s="119"/>
-      <c r="C8" s="91" t="s">
-        <v>138</v>
-      </c>
-      <c r="D8" s="95" t="s">
-        <v>151</v>
-      </c>
-      <c r="E8" s="104" t="s">
-        <v>162</v>
-      </c>
-      <c r="F8" s="95" t="s">
-        <v>172</v>
-      </c>
-      <c r="G8" s="92" t="s">
-        <v>188</v>
+      <c r="B8" s="100"/>
+      <c r="C8" s="66" t="s">
+        <v>140</v>
+      </c>
+      <c r="D8" s="71" t="s">
+        <v>150</v>
+      </c>
+      <c r="E8" s="66" t="s">
+        <v>160</v>
+      </c>
+      <c r="F8" s="60" t="s">
+        <v>177</v>
+      </c>
+      <c r="G8" s="60" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="20.25" hidden="1" customHeight="1">
       <c r="A9" s="4"/>
-      <c r="B9" s="119"/>
-      <c r="C9" s="92" t="s">
-        <v>144</v>
-      </c>
-      <c r="D9" s="92" t="s">
-        <v>160</v>
-      </c>
-      <c r="E9" s="92" t="s">
+      <c r="B9" s="100"/>
+      <c r="C9" s="59" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" s="72" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9" s="59"/>
+      <c r="F9" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="101" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" s="101" t="s">
-        <v>189</v>
+      <c r="G9" s="60" t="s">
+        <v>190</v>
       </c>
       <c r="I9" s="11"/>
       <c r="J9" s="11"/>
@@ -3766,22 +3879,20 @@
     <row r="10" spans="1:11" ht="19.5" hidden="1" customHeight="1" thickBot="1">
       <c r="A10" s="4"/>
       <c r="B10" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="93" t="s">
-        <v>145</v>
-      </c>
-      <c r="D10" s="98" t="s">
-        <v>145</v>
-      </c>
-      <c r="E10" s="102" t="s">
-        <v>145</v>
-      </c>
-      <c r="F10" s="93" t="s">
-        <v>145</v>
-      </c>
-      <c r="G10" s="93" t="s">
-        <v>145</v>
+        <v>9</v>
+      </c>
+      <c r="C10" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" s="73" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" s="76"/>
+      <c r="F10" s="61" t="s">
+        <v>178</v>
+      </c>
+      <c r="G10" s="61" t="s">
+        <v>178</v>
       </c>
       <c r="I10" s="11"/>
       <c r="J10" s="11"/>
@@ -3789,23 +3900,23 @@
     </row>
     <row r="11" spans="1:11" ht="20.25" customHeight="1">
       <c r="A11" s="4"/>
-      <c r="B11" s="120" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" s="94" t="s">
-        <v>146</v>
-      </c>
-      <c r="D11" s="99" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="95" t="s">
-        <v>163</v>
-      </c>
-      <c r="F11" s="94" t="s">
-        <v>146</v>
-      </c>
-      <c r="G11" s="94" t="s">
-        <v>11</v>
+      <c r="B11" s="101" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="62" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" s="74" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="62" t="s">
+        <v>179</v>
+      </c>
+      <c r="G11" s="62" t="s">
+        <v>10</v>
       </c>
       <c r="I11" s="13"/>
       <c r="J11" s="14"/>
@@ -3813,21 +3924,21 @@
     </row>
     <row r="12" spans="1:11" ht="20.25" customHeight="1">
       <c r="A12" s="4"/>
-      <c r="B12" s="121"/>
-      <c r="C12" s="95" t="s">
-        <v>139</v>
-      </c>
-      <c r="D12" s="92" t="s">
-        <v>152</v>
-      </c>
-      <c r="E12" s="92" t="s">
-        <v>164</v>
-      </c>
-      <c r="F12" s="95" t="s">
-        <v>176</v>
-      </c>
-      <c r="G12" s="92" t="s">
-        <v>182</v>
+      <c r="B12" s="102"/>
+      <c r="C12" s="66" t="s">
+        <v>141</v>
+      </c>
+      <c r="D12" s="70" t="s">
+        <v>151</v>
+      </c>
+      <c r="E12" s="66" t="s">
+        <v>161</v>
+      </c>
+      <c r="F12" s="66" t="s">
+        <v>168</v>
+      </c>
+      <c r="G12" s="60" t="s">
+        <v>191</v>
       </c>
       <c r="I12" s="11"/>
       <c r="J12" s="11"/>
@@ -3835,42 +3946,42 @@
     </row>
     <row r="13" spans="1:11" ht="19.5" customHeight="1">
       <c r="A13" s="4"/>
-      <c r="B13" s="122"/>
-      <c r="C13" s="92" t="s">
-        <v>140</v>
-      </c>
-      <c r="D13" s="95" t="s">
-        <v>153</v>
-      </c>
-      <c r="E13" s="92" t="s">
-        <v>168</v>
-      </c>
-      <c r="F13" s="95" t="s">
-        <v>177</v>
-      </c>
-      <c r="G13" s="92" t="s">
-        <v>78</v>
+      <c r="B13" s="103"/>
+      <c r="C13" s="59" t="s">
+        <v>142</v>
+      </c>
+      <c r="D13" s="70" t="s">
+        <v>152</v>
+      </c>
+      <c r="E13" s="59" t="s">
+        <v>162</v>
+      </c>
+      <c r="F13" s="66" t="s">
+        <v>169</v>
+      </c>
+      <c r="G13" s="60" t="s">
+        <v>182</v>
       </c>
       <c r="I13" s="11"/>
       <c r="J13" s="11"/>
       <c r="K13" s="11"/>
     </row>
-    <row r="14" spans="1:11" ht="21" customHeight="1" thickBot="1">
+    <row r="14" spans="1:11" ht="21" customHeight="1">
       <c r="A14" s="4"/>
-      <c r="B14" s="122"/>
-      <c r="C14" s="92" t="s">
-        <v>147</v>
-      </c>
-      <c r="D14" s="92" t="s">
-        <v>154</v>
-      </c>
-      <c r="E14" s="92" t="s">
-        <v>52</v>
-      </c>
-      <c r="F14" s="92" t="s">
-        <v>173</v>
-      </c>
-      <c r="G14" s="95" t="s">
+      <c r="B14" s="103"/>
+      <c r="C14" s="59" t="s">
+        <v>143</v>
+      </c>
+      <c r="D14" s="71" t="s">
+        <v>153</v>
+      </c>
+      <c r="E14" s="66" t="s">
+        <v>163</v>
+      </c>
+      <c r="F14" s="66" t="s">
+        <v>170</v>
+      </c>
+      <c r="G14" s="60" t="s">
         <v>183</v>
       </c>
       <c r="I14" s="11"/>
@@ -3879,20 +3990,20 @@
     </row>
     <row r="15" spans="1:11" ht="18.75" customHeight="1">
       <c r="A15" s="4"/>
-      <c r="B15" s="122"/>
-      <c r="C15" s="95" t="s">
-        <v>77</v>
-      </c>
-      <c r="D15" s="92" t="s">
-        <v>155</v>
-      </c>
-      <c r="E15" s="95" t="s">
-        <v>169</v>
-      </c>
-      <c r="F15" s="95" t="s">
-        <v>174</v>
-      </c>
-      <c r="G15" s="105" t="s">
+      <c r="B15" s="103"/>
+      <c r="C15" s="68" t="s">
+        <v>144</v>
+      </c>
+      <c r="D15" s="70" t="s">
+        <v>154</v>
+      </c>
+      <c r="E15" s="59" t="s">
+        <v>164</v>
+      </c>
+      <c r="F15" s="59" t="s">
+        <v>171</v>
+      </c>
+      <c r="G15" s="60" t="s">
         <v>184</v>
       </c>
       <c r="I15" s="11"/>
@@ -3901,45 +4012,45 @@
     </row>
     <row r="16" spans="1:11" ht="18" customHeight="1" thickBot="1">
       <c r="A16" s="4"/>
-      <c r="B16" s="122"/>
-      <c r="C16" s="96" t="s">
-        <v>148</v>
-      </c>
-      <c r="D16" s="100" t="s">
-        <v>148</v>
-      </c>
-      <c r="E16" s="103" t="s">
-        <v>148</v>
-      </c>
-      <c r="F16" s="97" t="s">
-        <v>148</v>
-      </c>
-      <c r="G16" s="97" t="s">
-        <v>148</v>
+      <c r="B16" s="103"/>
+      <c r="C16" s="67" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" s="75" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="77" t="s">
+        <v>78</v>
+      </c>
+      <c r="F16" s="60" t="s">
+        <v>180</v>
+      </c>
+      <c r="G16" s="63" t="s">
+        <v>180</v>
       </c>
       <c r="I16" s="11"/>
       <c r="J16" s="14"/>
       <c r="K16" s="11"/>
     </row>
-    <row r="17" spans="1:11" ht="18.75" customHeight="1">
+    <row r="17" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
       <c r="A17" s="4"/>
-      <c r="B17" s="123" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" s="95" t="s">
-        <v>141</v>
-      </c>
-      <c r="D17" s="101" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="101" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" s="95" t="s">
-        <v>178</v>
-      </c>
-      <c r="G17" s="94" t="s">
-        <v>190</v>
+      <c r="B17" s="104" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="70" t="s">
+        <v>155</v>
+      </c>
+      <c r="E17" s="78" t="s">
+        <v>165</v>
+      </c>
+      <c r="F17" s="65" t="s">
+        <v>172</v>
+      </c>
+      <c r="G17" s="62" t="s">
+        <v>192</v>
       </c>
       <c r="I17" s="18"/>
       <c r="J17" s="11"/>
@@ -3947,20 +4058,20 @@
     </row>
     <row r="18" spans="1:11" ht="18" customHeight="1">
       <c r="A18" s="4"/>
-      <c r="B18" s="124"/>
-      <c r="C18" s="95" t="s">
-        <v>142</v>
-      </c>
-      <c r="D18" s="92" t="s">
+      <c r="B18" s="105"/>
+      <c r="C18" s="66" t="s">
+        <v>145</v>
+      </c>
+      <c r="D18" s="70" t="s">
         <v>156</v>
       </c>
-      <c r="E18" s="95" t="s">
-        <v>165</v>
-      </c>
-      <c r="F18" s="95" t="s">
+      <c r="E18" s="79" t="s">
+        <v>79</v>
+      </c>
+      <c r="F18" s="60" t="s">
         <v>179</v>
       </c>
-      <c r="G18" s="95" t="s">
+      <c r="G18" s="82" t="s">
         <v>185</v>
       </c>
       <c r="I18" s="18"/>
@@ -3969,20 +4080,20 @@
     </row>
     <row r="19" spans="1:11" ht="20.25" customHeight="1">
       <c r="A19" s="4"/>
-      <c r="B19" s="124"/>
-      <c r="C19" s="92" t="s">
-        <v>143</v>
-      </c>
-      <c r="D19" s="95" t="s">
+      <c r="B19" s="105"/>
+      <c r="C19" s="66" t="s">
+        <v>146</v>
+      </c>
+      <c r="D19" s="70" t="s">
         <v>157</v>
       </c>
-      <c r="E19" s="92" t="s">
+      <c r="E19" s="79" t="s">
         <v>166</v>
       </c>
-      <c r="F19" s="95" t="s">
-        <v>180</v>
-      </c>
-      <c r="G19" s="95" t="s">
+      <c r="F19" s="66" t="s">
+        <v>173</v>
+      </c>
+      <c r="G19" s="60" t="s">
         <v>186</v>
       </c>
       <c r="I19" s="18"/>
@@ -3991,21 +4102,21 @@
     </row>
     <row r="20" spans="1:11" ht="20.25" customHeight="1">
       <c r="A20" s="4"/>
-      <c r="B20" s="124"/>
-      <c r="C20" s="95" t="s">
-        <v>149</v>
-      </c>
-      <c r="D20" s="92" t="s">
+      <c r="B20" s="105"/>
+      <c r="C20" s="64" t="s">
+        <v>147</v>
+      </c>
+      <c r="D20" s="70" t="s">
         <v>158</v>
       </c>
-      <c r="E20" s="95" t="s">
-        <v>170</v>
-      </c>
-      <c r="F20" s="95" t="s">
-        <v>175</v>
-      </c>
-      <c r="G20" s="95" t="s">
-        <v>191</v>
+      <c r="E20" s="80" t="s">
+        <v>167</v>
+      </c>
+      <c r="F20" s="66" t="s">
+        <v>174</v>
+      </c>
+      <c r="G20" s="60" t="s">
+        <v>187</v>
       </c>
       <c r="I20" s="18"/>
       <c r="J20" s="11"/>
@@ -4013,133 +4124,133 @@
     </row>
     <row r="21" spans="1:11" ht="21.75" customHeight="1">
       <c r="A21" s="4"/>
-      <c r="B21" s="124"/>
-      <c r="C21" s="92" t="s">
+      <c r="B21" s="105"/>
+      <c r="C21" s="66" t="s">
         <v>148</v>
       </c>
-      <c r="D21" s="95" t="s">
-        <v>159</v>
-      </c>
-      <c r="E21" s="92" t="s">
-        <v>171</v>
-      </c>
-      <c r="F21" s="101" t="s">
-        <v>148</v>
-      </c>
-      <c r="G21" s="92" t="s">
-        <v>187</v>
+      <c r="D21" s="72" t="s">
+        <v>78</v>
+      </c>
+      <c r="E21" s="78" t="s">
+        <v>78</v>
+      </c>
+      <c r="F21" s="66" t="s">
+        <v>175</v>
+      </c>
+      <c r="G21" s="60" t="s">
+        <v>188</v>
       </c>
       <c r="I21" s="18"/>
     </row>
     <row r="22" spans="1:11" ht="19.5" customHeight="1" thickBot="1">
       <c r="A22" s="4"/>
-      <c r="B22" s="125"/>
-      <c r="C22" s="97"/>
-      <c r="D22" s="100" t="s">
-        <v>148</v>
-      </c>
-      <c r="E22" s="100" t="s">
-        <v>148</v>
-      </c>
-      <c r="F22" s="97"/>
-      <c r="G22" s="97" t="s">
-        <v>148</v>
+      <c r="B22" s="106"/>
+      <c r="C22" s="63" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22" s="75"/>
+      <c r="E22" s="81"/>
+      <c r="F22" s="63" t="s">
+        <v>180</v>
+      </c>
+      <c r="G22" s="63" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="20.25" hidden="1" customHeight="1">
       <c r="A23" s="4"/>
-      <c r="B23" s="106" t="s">
+      <c r="B23" s="87" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="D23" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D23" s="16" t="s">
+      <c r="E23" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E23" s="10" t="s">
+      <c r="F23" s="19" t="s">
         <v>16</v>
-      </c>
-      <c r="F23" s="19" t="s">
-        <v>17</v>
       </c>
       <c r="G23" s="20"/>
       <c r="J23" s="21"/>
     </row>
     <row r="24" spans="1:11" ht="18" hidden="1" customHeight="1">
       <c r="A24" s="4"/>
-      <c r="B24" s="107"/>
+      <c r="B24" s="88"/>
       <c r="C24" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D24" s="15" t="s">
+      <c r="E24" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="E24" s="22" t="s">
+      <c r="F24" s="19" t="s">
         <v>20</v>
-      </c>
-      <c r="F24" s="19" t="s">
-        <v>21</v>
       </c>
       <c r="G24" s="23"/>
       <c r="J24" s="24"/>
     </row>
     <row r="25" spans="1:11" ht="18.75" hidden="1" customHeight="1">
       <c r="A25" s="4"/>
-      <c r="B25" s="107"/>
+      <c r="B25" s="88"/>
       <c r="C25" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="D25" s="25" t="s">
+      <c r="E25" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E25" s="10" t="s">
+      <c r="F25" s="26" t="s">
         <v>24</v>
-      </c>
-      <c r="F25" s="26" t="s">
-        <v>25</v>
       </c>
       <c r="G25" s="27"/>
       <c r="J25" s="24"/>
     </row>
     <row r="26" spans="1:11" ht="18" hidden="1" customHeight="1">
       <c r="A26" s="4"/>
-      <c r="B26" s="107"/>
+      <c r="B26" s="88"/>
       <c r="C26" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="D26" s="25" t="s">
+      <c r="E26" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E26" s="9" t="s">
+      <c r="F26" s="26" t="s">
         <v>28</v>
-      </c>
-      <c r="F26" s="26" t="s">
-        <v>29</v>
       </c>
       <c r="G26" s="23"/>
       <c r="J26" s="24"/>
     </row>
     <row r="27" spans="1:11" ht="19.5" hidden="1" customHeight="1">
       <c r="A27" s="4"/>
-      <c r="B27" s="107"/>
+      <c r="B27" s="88"/>
       <c r="C27" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D27" s="28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F27" s="29" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G27" s="23"/>
     </row>
     <row r="28" spans="1:11" ht="21" hidden="1" customHeight="1" thickBot="1">
       <c r="A28" s="4"/>
-      <c r="B28" s="130"/>
+      <c r="B28" s="111"/>
       <c r="C28" s="30"/>
       <c r="D28" s="31"/>
       <c r="E28" s="17"/>
@@ -4149,19 +4260,19 @@
     <row r="29" spans="1:11" ht="18" customHeight="1" thickBot="1">
       <c r="A29" s="4"/>
       <c r="B29" s="34"/>
-      <c r="C29" s="131" t="s">
-        <v>30</v>
-      </c>
-      <c r="D29" s="109"/>
-      <c r="E29" s="109"/>
-      <c r="F29" s="109"/>
-      <c r="G29" s="110"/>
+      <c r="C29" s="112" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29" s="113"/>
+      <c r="E29" s="113"/>
+      <c r="F29" s="113"/>
+      <c r="G29" s="114"/>
     </row>
     <row r="31" spans="1:11">
-      <c r="C31" s="111"/>
-      <c r="D31" s="111"/>
-      <c r="E31" s="111"/>
-      <c r="F31" s="111"/>
+      <c r="C31" s="92"/>
+      <c r="D31" s="92"/>
+      <c r="E31" s="92"/>
+      <c r="F31" s="92"/>
     </row>
     <row r="32" spans="1:11" ht="17.25" customHeight="1">
       <c r="B32" s="11"/>
@@ -4173,8 +4284,8 @@
     <row r="33" spans="2:6">
       <c r="B33" s="11"/>
       <c r="C33" s="21"/>
-      <c r="D33" s="112"/>
-      <c r="E33" s="112"/>
+      <c r="D33" s="93"/>
+      <c r="E33" s="93"/>
       <c r="F33" s="11"/>
     </row>
     <row r="34" spans="2:6">
@@ -4335,10 +4446,12 @@
     <hyperlink ref="F27" r:id="rId1" location="/entry/enko/9a2df76981ef447fa949ac8296afdb68" display="https://en.dict.naver.com/ - /entry/enko/9a2df76981ef447fa949ac8296afdb68"/>
     <hyperlink ref="D24" r:id="rId2" location="/entry/enko/aea797dad87d452f9f2d342cebfd264a" display="https://en.dict.naver.com/ - /entry/enko/aea797dad87d452f9f2d342cebfd264a"/>
     <hyperlink ref="E24" r:id="rId3" location="/entry/koen/a3cfe773c3ee4620ac4ee4a9e62b5ae1" display="https://en.dict.naver.com/ - /entry/koen/a3cfe773c3ee4620ac4ee4a9e62b5ae1"/>
-    <hyperlink ref="C8" r:id="rId4" location="/entry/enko/00cd45be5e45442cb24dd7173f16e4e0" display="https://en.dict.naver.com/ - /entry/enko/00cd45be5e45442cb24dd7173f16e4e0"/>
+    <hyperlink ref="C15" r:id="rId4" location="/entry/enko/bae9a69306e3433fa12fcf0f55f15acb" display="https://en.dict.naver.com/ - /entry/enko/bae9a69306e3433fa12fcf0f55f15acb"/>
+    <hyperlink ref="C20" r:id="rId5" location="/entry/enko/7bad95371da04b00980831b39ec7668b" display="https://en.dict.naver.com/ - /entry/enko/7bad95371da04b00980831b39ec7668b"/>
+    <hyperlink ref="E20" r:id="rId6" location="/entry/enko/057cf7c1c87a4962b14913d3db937c5f" display="https://en.dict.naver.com/ - /entry/enko/057cf7c1c87a4962b14913d3db937c5f"/>
   </hyperlinks>
   <pageMargins left="0.04" right="0.04" top="0.35" bottom="0.35" header="0.31" footer="0"/>
-  <pageSetup paperSize="9" scale="56" orientation="landscape" r:id="rId5"/>
-  <drawing r:id="rId6"/>
+  <pageSetup paperSize="9" scale="56" orientation="landscape" r:id="rId7"/>
+  <drawing r:id="rId8"/>
 </worksheet>
 </file>